--- a/USLS/IPP_USLS_DATA.xlsx
+++ b/USLS/IPP_USLS_DATA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Don Koh\Dropbox\My_Documents\IPP\Data\USLS_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Don Koh\Dropbox\My_Documents\GitHub_Repo\IPP_USLS\USLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD35844F-9361-4BE2-A40E-F22A3E2DFF44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C94896-6B68-4CED-98F3-ED8FAB0CDA24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="465" windowWidth="23505" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="525" yWindow="510" windowWidth="23505" windowHeight="15135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="3" r:id="rId1"/>
@@ -1892,16 +1892,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="109" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1911,6 +1902,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2367,8 +2367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F551"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7195,11 +7195,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D53F616-D321-446A-A9B2-BC9A60BBDFCE}">
   <dimension ref="A1:BN120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AT2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BE14" sqref="BE14"/>
+      <selection pane="bottomRight" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7218,10 +7218,10 @@
         <v>252</v>
       </c>
       <c r="E1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" t="s">
         <v>254</v>
-      </c>
-      <c r="F1" t="s">
-        <v>253</v>
       </c>
       <c r="G1" t="s">
         <v>255</v>
@@ -7245,34 +7245,34 @@
         <v>269</v>
       </c>
       <c r="N1" t="s">
+        <v>261</v>
+      </c>
+      <c r="O1" t="s">
+        <v>262</v>
+      </c>
+      <c r="P1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>264</v>
+      </c>
+      <c r="R1" t="s">
+        <v>265</v>
+      </c>
+      <c r="S1" t="s">
+        <v>266</v>
+      </c>
+      <c r="T1" t="s">
         <v>270</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>271</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>272</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
         <v>273</v>
-      </c>
-      <c r="R1" t="s">
-        <v>261</v>
-      </c>
-      <c r="S1" t="s">
-        <v>263</v>
-      </c>
-      <c r="T1" t="s">
-        <v>262</v>
-      </c>
-      <c r="U1" t="s">
-        <v>266</v>
-      </c>
-      <c r="V1" t="s">
-        <v>265</v>
-      </c>
-      <c r="W1" t="s">
-        <v>264</v>
       </c>
       <c r="X1" t="s">
         <v>259</v>
@@ -7837,10 +7837,10 @@
         <v>3.7037E-2</v>
       </c>
       <c r="E30">
+        <v>5.8317399999999998E-2</v>
+      </c>
+      <c r="F30">
         <v>0.1156788</v>
-      </c>
-      <c r="F30">
-        <v>5.8317399999999998E-2</v>
       </c>
       <c r="G30">
         <v>6.6921999999999997E-3</v>
@@ -7864,34 +7864,34 @@
         <v>-4.4232999999999998E-3</v>
       </c>
       <c r="N30">
+        <v>0.3866348</v>
+      </c>
+      <c r="O30">
+        <v>8.3531999999999999E-3</v>
+      </c>
+      <c r="P30">
+        <v>0.3782816</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>3.5799999999999998E-3</v>
+      </c>
+      <c r="S30">
+        <v>4.7733000000000003E-3</v>
+      </c>
+      <c r="T30">
         <v>0.61336520000000005</v>
       </c>
-      <c r="O30">
+      <c r="U30">
         <v>0.6217184</v>
       </c>
-      <c r="P30">
+      <c r="V30">
         <v>0.61754180000000003</v>
       </c>
-      <c r="Q30">
+      <c r="W30">
         <v>0.61825779999999997</v>
-      </c>
-      <c r="R30">
-        <v>0.3866348</v>
-      </c>
-      <c r="S30">
-        <v>0.3782816</v>
-      </c>
-      <c r="T30">
-        <v>8.3531999999999999E-3</v>
-      </c>
-      <c r="U30">
-        <v>4.7733000000000003E-3</v>
-      </c>
-      <c r="V30">
-        <v>3.5799999999999998E-3</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
       </c>
       <c r="X30">
         <v>0.79198769999999996</v>
@@ -7944,10 +7944,10 @@
         <v>4.5454599999999998E-2</v>
       </c>
       <c r="E31">
+        <v>5.3145299999999999E-2</v>
+      </c>
+      <c r="F31">
         <v>0.1062907</v>
-      </c>
-      <c r="F31">
-        <v>5.3145299999999999E-2</v>
       </c>
       <c r="G31">
         <v>7.5922000000000003E-3</v>
@@ -7971,34 +7971,34 @@
         <v>-5.1577999999999997E-3</v>
       </c>
       <c r="N31">
+        <v>0.36559140000000001</v>
+      </c>
+      <c r="O31">
+        <v>9.4085999999999996E-3</v>
+      </c>
+      <c r="P31">
+        <v>0.35618280000000002</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>4.0322999999999999E-3</v>
+      </c>
+      <c r="S31">
+        <v>5.3762999999999997E-3</v>
+      </c>
+      <c r="T31">
         <v>0.63440870000000005</v>
       </c>
-      <c r="O31">
+      <c r="U31">
         <v>0.64381719999999998</v>
       </c>
-      <c r="P31">
+      <c r="V31">
         <v>0.63911289999999998</v>
       </c>
-      <c r="Q31">
+      <c r="W31">
         <v>0.63991929999999997</v>
-      </c>
-      <c r="R31">
-        <v>0.36559140000000001</v>
-      </c>
-      <c r="S31">
-        <v>0.35618280000000002</v>
-      </c>
-      <c r="T31">
-        <v>9.4085999999999996E-3</v>
-      </c>
-      <c r="U31">
-        <v>5.3762999999999997E-3</v>
-      </c>
-      <c r="V31">
-        <v>4.0322999999999999E-3</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
       </c>
       <c r="X31">
         <v>0.8</v>
@@ -8051,10 +8051,10 @@
         <v>5.30973E-2</v>
       </c>
       <c r="E32">
+        <v>4.5219599999999999E-2</v>
+      </c>
+      <c r="F32">
         <v>9.3023300000000003E-2</v>
-      </c>
-      <c r="F32">
-        <v>4.5219599999999999E-2</v>
       </c>
       <c r="G32">
         <v>7.7518999999999999E-3</v>
@@ -8078,34 +8078,34 @@
         <v>-5.1742000000000003E-3</v>
       </c>
       <c r="N32">
+        <v>0.3584</v>
+      </c>
+      <c r="O32">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="P32">
+        <v>0.3488</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="S32">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="T32">
         <v>0.64159999999999995</v>
       </c>
-      <c r="O32">
+      <c r="U32">
         <v>0.6512</v>
       </c>
-      <c r="P32">
+      <c r="V32">
         <v>0.64639999999999997</v>
       </c>
-      <c r="Q32">
+      <c r="W32">
         <v>0.64722279999999999</v>
-      </c>
-      <c r="R32">
-        <v>0.3584</v>
-      </c>
-      <c r="S32">
-        <v>0.3488</v>
-      </c>
-      <c r="T32">
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="U32">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="V32">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
       </c>
       <c r="X32">
         <v>0.78320310000000004</v>
@@ -8158,10 +8158,10 @@
         <v>8.6956500000000006E-2</v>
       </c>
       <c r="E33">
+        <v>3.6974800000000002E-2</v>
+      </c>
+      <c r="F33">
         <v>6.8907599999999999E-2</v>
-      </c>
-      <c r="F33">
-        <v>3.6974800000000002E-2</v>
       </c>
       <c r="G33">
         <v>1.0083999999999999E-2</v>
@@ -8185,34 +8185,34 @@
         <v>-6.8640000000000003E-3</v>
       </c>
       <c r="N33">
+        <v>0.34791670000000002</v>
+      </c>
+      <c r="O33">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="P33">
+        <v>0.33541670000000001</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="S33">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="T33">
         <v>0.65208330000000003</v>
       </c>
-      <c r="O33">
+      <c r="U33">
         <v>0.66458329999999999</v>
       </c>
-      <c r="P33">
+      <c r="V33">
         <v>0.65833339999999996</v>
       </c>
-      <c r="Q33">
+      <c r="W33">
         <v>0.65940480000000001</v>
-      </c>
-      <c r="R33">
-        <v>0.34791670000000002</v>
-      </c>
-      <c r="S33">
-        <v>0.33541670000000001</v>
-      </c>
-      <c r="T33">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="U33">
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="V33">
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
       </c>
       <c r="X33">
         <v>0.76155720000000005</v>
@@ -8265,10 +8265,10 @@
         <v>8.1967200000000004E-2</v>
       </c>
       <c r="E34">
+        <v>3.6713299999999997E-2</v>
+      </c>
+      <c r="F34">
         <v>6.1188800000000002E-2</v>
-      </c>
-      <c r="F34">
-        <v>3.6713299999999997E-2</v>
       </c>
       <c r="G34">
         <v>8.7413000000000005E-3</v>
@@ -8292,34 +8292,34 @@
         <v>-7.3746000000000003E-3</v>
       </c>
       <c r="N34">
+        <v>0.34070800000000001</v>
+      </c>
+      <c r="O34">
+        <v>1.10619E-2</v>
+      </c>
+      <c r="P34">
+        <v>0.32964599999999999</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>6.6372000000000002E-3</v>
+      </c>
+      <c r="S34">
+        <v>4.4247999999999996E-3</v>
+      </c>
+      <c r="T34">
         <v>0.65929199999999999</v>
       </c>
-      <c r="O34">
+      <c r="U34">
         <v>0.67035389999999995</v>
       </c>
-      <c r="P34">
+      <c r="V34">
         <v>0.66482300000000005</v>
       </c>
-      <c r="Q34">
+      <c r="W34">
         <v>0.66577109999999995</v>
-      </c>
-      <c r="R34">
-        <v>0.34070800000000001</v>
-      </c>
-      <c r="S34">
-        <v>0.32964599999999999</v>
-      </c>
-      <c r="T34">
-        <v>1.10619E-2</v>
-      </c>
-      <c r="U34">
-        <v>4.4247999999999996E-3</v>
-      </c>
-      <c r="V34">
-        <v>6.6372000000000002E-3</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
       </c>
       <c r="X34">
         <v>0.7621483</v>
@@ -8372,10 +8372,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E35">
+        <v>4.3413199999999999E-2</v>
+      </c>
+      <c r="F35">
         <v>6.7365300000000003E-2</v>
-      </c>
-      <c r="F35">
-        <v>4.3413199999999999E-2</v>
       </c>
       <c r="G35">
         <v>8.9820000000000004E-3</v>
@@ -8399,34 +8399,34 @@
         <v>-7.561E-3</v>
       </c>
       <c r="N35">
+        <v>0.34345350000000002</v>
+      </c>
+      <c r="O35">
+        <v>1.13852E-2</v>
+      </c>
+      <c r="P35">
+        <v>0.33206829999999998</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>5.6925999999999999E-3</v>
+      </c>
+      <c r="S35">
+        <v>5.6925999999999999E-3</v>
+      </c>
+      <c r="T35">
         <v>0.65654650000000003</v>
       </c>
-      <c r="O35">
+      <c r="U35">
         <v>0.66793170000000002</v>
       </c>
-      <c r="P35">
+      <c r="V35">
         <v>0.66223909999999997</v>
       </c>
-      <c r="Q35">
+      <c r="W35">
         <v>0.66321490000000005</v>
-      </c>
-      <c r="R35">
-        <v>0.34345350000000002</v>
-      </c>
-      <c r="S35">
-        <v>0.33206829999999998</v>
-      </c>
-      <c r="T35">
-        <v>1.13852E-2</v>
-      </c>
-      <c r="U35">
-        <v>5.6925999999999999E-3</v>
-      </c>
-      <c r="V35">
-        <v>5.6925999999999999E-3</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
       </c>
       <c r="X35">
         <v>0.77404919999999999</v>
@@ -8479,10 +8479,10 @@
         <v>6.3157900000000003E-2</v>
       </c>
       <c r="E36">
+        <v>4.9865199999999998E-2</v>
+      </c>
+      <c r="F36">
         <v>7.0080900000000002E-2</v>
-      </c>
-      <c r="F36">
-        <v>4.9865199999999998E-2</v>
       </c>
       <c r="G36">
         <v>8.0862999999999994E-3</v>
@@ -8506,34 +8506,34 @@
         <v>-7.1113000000000001E-3</v>
       </c>
       <c r="N36">
+        <v>0.33509699999999998</v>
+      </c>
+      <c r="O36">
+        <v>1.0581999999999999E-2</v>
+      </c>
+      <c r="P36">
+        <v>0.324515</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>5.2909999999999997E-3</v>
+      </c>
+      <c r="S36">
+        <v>5.2909999999999997E-3</v>
+      </c>
+      <c r="T36">
         <v>0.66490300000000002</v>
       </c>
-      <c r="O36">
+      <c r="U36">
         <v>0.67548509999999995</v>
       </c>
-      <c r="P36">
+      <c r="V36">
         <v>0.67019399999999996</v>
       </c>
-      <c r="Q36">
+      <c r="W36">
         <v>0.67110099999999995</v>
-      </c>
-      <c r="R36">
-        <v>0.33509699999999998</v>
-      </c>
-      <c r="S36">
-        <v>0.324515</v>
-      </c>
-      <c r="T36">
-        <v>1.0581999999999999E-2</v>
-      </c>
-      <c r="U36">
-        <v>5.2909999999999997E-3</v>
-      </c>
-      <c r="V36">
-        <v>5.2909999999999997E-3</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
       </c>
       <c r="X36">
         <v>0.79872889999999996</v>
@@ -8586,10 +8586,10 @@
         <v>5.5118100000000003E-2</v>
       </c>
       <c r="E37">
+        <v>5.4245300000000003E-2</v>
+      </c>
+      <c r="F37">
         <v>8.72642E-2</v>
-      </c>
-      <c r="F37">
-        <v>5.4245300000000003E-2</v>
       </c>
       <c r="G37">
         <v>8.2547000000000002E-3</v>
@@ -8613,34 +8613,34 @@
         <v>-6.9901E-3</v>
       </c>
       <c r="N37">
+        <v>0.34592149999999999</v>
+      </c>
+      <c r="O37">
+        <v>1.0574E-2</v>
+      </c>
+      <c r="P37">
+        <v>0.33534750000000002</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>4.5316999999999996E-3</v>
+      </c>
+      <c r="S37">
+        <v>6.0422999999999996E-3</v>
+      </c>
+      <c r="T37">
         <v>0.65407850000000001</v>
       </c>
-      <c r="O37">
+      <c r="U37">
         <v>0.66465249999999998</v>
       </c>
-      <c r="P37">
+      <c r="V37">
         <v>0.65936550000000005</v>
       </c>
-      <c r="Q37">
+      <c r="W37">
         <v>0.66027179999999996</v>
-      </c>
-      <c r="R37">
-        <v>0.34592149999999999</v>
-      </c>
-      <c r="S37">
-        <v>0.33534750000000002</v>
-      </c>
-      <c r="T37">
-        <v>1.0574E-2</v>
-      </c>
-      <c r="U37">
-        <v>6.0422999999999996E-3</v>
-      </c>
-      <c r="V37">
-        <v>4.5316999999999996E-3</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
       </c>
       <c r="X37">
         <v>0.80934569999999995</v>
@@ -8693,10 +8693,10 @@
         <v>5.5172400000000003E-2</v>
       </c>
       <c r="E38">
+        <v>6.0215100000000001E-2</v>
+      </c>
+      <c r="F38">
         <v>8.7096800000000002E-2</v>
-      </c>
-      <c r="F38">
-        <v>6.0215100000000001E-2</v>
       </c>
       <c r="G38">
         <v>8.6022000000000008E-3</v>
@@ -8720,34 +8720,34 @@
         <v>-7.5585000000000001E-3</v>
       </c>
       <c r="N38">
+        <v>0.32823370000000002</v>
+      </c>
+      <c r="O38">
+        <v>1.11266E-2</v>
+      </c>
+      <c r="P38">
+        <v>0.31710709999999998</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>5.5633000000000002E-3</v>
+      </c>
+      <c r="S38">
+        <v>5.5633000000000002E-3</v>
+      </c>
+      <c r="T38">
         <v>0.67176630000000004</v>
       </c>
-      <c r="O38">
+      <c r="U38">
         <v>0.68289290000000002</v>
       </c>
-      <c r="P38">
+      <c r="V38">
         <v>0.67732959999999998</v>
       </c>
-      <c r="Q38">
+      <c r="W38">
         <v>0.67828330000000003</v>
-      </c>
-      <c r="R38">
-        <v>0.32823370000000002</v>
-      </c>
-      <c r="S38">
-        <v>0.31710709999999998</v>
-      </c>
-      <c r="T38">
-        <v>1.11266E-2</v>
-      </c>
-      <c r="U38">
-        <v>5.5633000000000002E-3</v>
-      </c>
-      <c r="V38">
-        <v>5.5633000000000002E-3</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
       </c>
       <c r="X38">
         <v>0.84146339999999997</v>
@@ -8800,10 +8800,10 @@
         <v>6.7669199999999999E-2</v>
       </c>
       <c r="E39">
+        <v>5.0343199999999998E-2</v>
+      </c>
+      <c r="F39">
         <v>9.1533199999999995E-2</v>
-      </c>
-      <c r="F39">
-        <v>5.0343199999999998E-2</v>
       </c>
       <c r="G39">
         <v>1.0297499999999999E-2</v>
@@ -8827,34 +8827,34 @@
         <v>-8.8499000000000008E-3</v>
       </c>
       <c r="N39">
+        <v>0.33625729999999998</v>
+      </c>
+      <c r="O39">
+        <v>1.31579E-2</v>
+      </c>
+      <c r="P39">
+        <v>0.32309939999999998</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>5.8479999999999999E-3</v>
+      </c>
+      <c r="S39">
+        <v>7.3099000000000003E-3</v>
+      </c>
+      <c r="T39">
         <v>0.66374270000000002</v>
       </c>
-      <c r="O39">
+      <c r="U39">
         <v>0.67690059999999996</v>
       </c>
-      <c r="P39">
+      <c r="V39">
         <v>0.67032159999999996</v>
       </c>
-      <c r="Q39">
+      <c r="W39">
         <v>0.67144939999999997</v>
-      </c>
-      <c r="R39">
-        <v>0.33625729999999998</v>
-      </c>
-      <c r="S39">
-        <v>0.32309939999999998</v>
-      </c>
-      <c r="T39">
-        <v>1.31579E-2</v>
-      </c>
-      <c r="U39">
-        <v>7.3099000000000003E-3</v>
-      </c>
-      <c r="V39">
-        <v>5.8479999999999999E-3</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
       </c>
       <c r="X39">
         <v>0.82395640000000003</v>
@@ -8907,10 +8907,10 @@
         <v>5.9210499999999999E-2</v>
       </c>
       <c r="E40">
+        <v>5.2462500000000002E-2</v>
+      </c>
+      <c r="F40">
         <v>0.10064240000000001</v>
-      </c>
-      <c r="F40">
-        <v>5.2462500000000002E-2</v>
       </c>
       <c r="G40">
         <v>9.6360000000000005E-3</v>
@@ -8934,34 +8934,34 @@
         <v>-8.0859E-3</v>
       </c>
       <c r="N40">
+        <v>0.34324329999999997</v>
+      </c>
+      <c r="O40">
+        <v>1.21622E-2</v>
+      </c>
+      <c r="P40">
+        <v>0.33108110000000002</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>5.4054000000000003E-3</v>
+      </c>
+      <c r="S40">
+        <v>6.7568000000000003E-3</v>
+      </c>
+      <c r="T40">
         <v>0.65675680000000003</v>
       </c>
-      <c r="O40">
+      <c r="U40">
         <v>0.66891889999999998</v>
       </c>
-      <c r="P40">
+      <c r="V40">
         <v>0.66283780000000003</v>
       </c>
-      <c r="Q40">
+      <c r="W40">
         <v>0.66388029999999998</v>
-      </c>
-      <c r="R40">
-        <v>0.34324329999999997</v>
-      </c>
-      <c r="S40">
-        <v>0.33108110000000002</v>
-      </c>
-      <c r="T40">
-        <v>1.21622E-2</v>
-      </c>
-      <c r="U40">
-        <v>6.7568000000000003E-3</v>
-      </c>
-      <c r="V40">
-        <v>5.4054000000000003E-3</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
       </c>
       <c r="X40">
         <v>0.8265306</v>
@@ -9014,10 +9014,10 @@
         <v>5.9171599999999998E-2</v>
       </c>
       <c r="E41">
+        <v>5.8309E-2</v>
+      </c>
+      <c r="F41">
         <v>9.6209900000000001E-2</v>
-      </c>
-      <c r="F41">
-        <v>5.8309E-2</v>
       </c>
       <c r="G41">
         <v>9.7181999999999998E-3</v>
@@ -9041,34 +9041,34 @@
         <v>-8.0128000000000005E-3</v>
       </c>
       <c r="N41">
+        <v>0.3541667</v>
+      </c>
+      <c r="O41">
+        <v>1.2254900000000001E-2</v>
+      </c>
+      <c r="P41">
+        <v>0.34191179999999999</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>6.1275000000000001E-3</v>
+      </c>
+      <c r="S41">
+        <v>6.1275000000000001E-3</v>
+      </c>
+      <c r="T41">
         <v>0.64583330000000005</v>
       </c>
-      <c r="O41">
+      <c r="U41">
         <v>0.65808820000000001</v>
       </c>
-      <c r="P41">
+      <c r="V41">
         <v>0.65196080000000001</v>
       </c>
-      <c r="Q41">
+      <c r="W41">
         <v>0.65301109999999996</v>
-      </c>
-      <c r="R41">
-        <v>0.3541667</v>
-      </c>
-      <c r="S41">
-        <v>0.34191179999999999</v>
-      </c>
-      <c r="T41">
-        <v>1.2254900000000001E-2</v>
-      </c>
-      <c r="U41">
-        <v>6.1275000000000001E-3</v>
-      </c>
-      <c r="V41">
-        <v>6.1275000000000001E-3</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
       </c>
       <c r="X41">
         <v>0.81452860000000005</v>
@@ -9121,10 +9121,10 @@
         <v>5.46875E-2</v>
       </c>
       <c r="E42">
+        <v>8.2753300000000002E-2</v>
+      </c>
+      <c r="F42">
         <v>0.1044083</v>
-      </c>
-      <c r="F42">
-        <v>8.2753300000000002E-2</v>
       </c>
       <c r="G42">
         <v>1.08275E-2</v>
@@ -9148,34 +9148,34 @@
         <v>-7.7263999999999996E-3</v>
       </c>
       <c r="N42">
+        <v>0.35098040000000003</v>
+      </c>
+      <c r="O42">
+        <v>1.37255E-2</v>
+      </c>
+      <c r="P42">
+        <v>0.33725490000000002</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>8.8234999999999997E-3</v>
+      </c>
+      <c r="S42">
+        <v>4.9020000000000001E-3</v>
+      </c>
+      <c r="T42">
         <v>0.64901960000000003</v>
       </c>
-      <c r="O42">
+      <c r="U42">
         <v>0.66274509999999998</v>
       </c>
-      <c r="P42">
+      <c r="V42">
         <v>0.65588239999999998</v>
       </c>
-      <c r="Q42">
+      <c r="W42">
         <v>0.65705880000000005</v>
-      </c>
-      <c r="R42">
-        <v>0.35098040000000003</v>
-      </c>
-      <c r="S42">
-        <v>0.33725490000000002</v>
-      </c>
-      <c r="T42">
-        <v>1.37255E-2</v>
-      </c>
-      <c r="U42">
-        <v>4.9020000000000001E-3</v>
-      </c>
-      <c r="V42">
-        <v>8.8234999999999997E-3</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
       </c>
       <c r="X42">
         <v>0.86649209999999999</v>
@@ -9228,10 +9228,10 @@
         <v>4.3147199999999997E-2</v>
       </c>
       <c r="E43">
+        <v>0.12710840000000001</v>
+      </c>
+      <c r="F43">
         <v>0.1</v>
-      </c>
-      <c r="F43">
-        <v>0.12710840000000001</v>
       </c>
       <c r="G43">
         <v>1.0241E-2</v>
@@ -9255,34 +9255,34 @@
         <v>-7.1792999999999996E-3</v>
       </c>
       <c r="N43">
+        <v>0.33181470000000002</v>
+      </c>
+      <c r="O43">
+        <v>1.29081E-2</v>
+      </c>
+      <c r="P43">
+        <v>0.31890659999999998</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>8.3523E-3</v>
+      </c>
+      <c r="S43">
+        <v>4.5557999999999996E-3</v>
+      </c>
+      <c r="T43">
         <v>0.66818529999999998</v>
       </c>
-      <c r="O43">
+      <c r="U43">
         <v>0.68109339999999996</v>
       </c>
-      <c r="P43">
+      <c r="V43">
         <v>0.67463930000000005</v>
       </c>
-      <c r="Q43">
+      <c r="W43">
         <v>0.6757457</v>
-      </c>
-      <c r="R43">
-        <v>0.33181470000000002</v>
-      </c>
-      <c r="S43">
-        <v>0.31890659999999998</v>
-      </c>
-      <c r="T43">
-        <v>1.29081E-2</v>
-      </c>
-      <c r="U43">
-        <v>4.5557999999999996E-3</v>
-      </c>
-      <c r="V43">
-        <v>8.3523E-3</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
       </c>
       <c r="X43">
         <v>0.95341279999999995</v>
@@ -9335,10 +9335,10 @@
         <v>4.3209900000000002E-2</v>
       </c>
       <c r="E44">
+        <v>0.17823729999999999</v>
+      </c>
+      <c r="F44">
         <v>5.0713899999999999E-2</v>
-      </c>
-      <c r="F44">
-        <v>0.17823729999999999</v>
       </c>
       <c r="G44">
         <v>1.03397E-2</v>
@@ -9362,34 +9362,34 @@
         <v>-6.4139000000000002E-3</v>
       </c>
       <c r="N44">
+        <v>0.30901289999999998</v>
+      </c>
+      <c r="O44">
+        <v>1.28755E-2</v>
+      </c>
+      <c r="P44">
+        <v>0.2961374</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>8.5836999999999997E-3</v>
+      </c>
+      <c r="S44">
+        <v>4.2918000000000001E-3</v>
+      </c>
+      <c r="T44">
         <v>0.69098709999999997</v>
       </c>
-      <c r="O44">
+      <c r="U44">
         <v>0.7038626</v>
       </c>
-      <c r="P44">
+      <c r="V44">
         <v>0.69742490000000001</v>
       </c>
-      <c r="Q44">
+      <c r="W44">
         <v>0.6985285</v>
-      </c>
-      <c r="R44">
-        <v>0.30901289999999998</v>
-      </c>
-      <c r="S44">
-        <v>0.2961374</v>
-      </c>
-      <c r="T44">
-        <v>1.28755E-2</v>
-      </c>
-      <c r="U44">
-        <v>4.2918000000000001E-3</v>
-      </c>
-      <c r="V44">
-        <v>8.5836999999999997E-3</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
       </c>
       <c r="X44">
         <v>0.98427940000000003</v>
@@ -9442,10 +9442,10 @@
         <v>5.7494900000000002E-2</v>
       </c>
       <c r="E45">
+        <v>0.17290549999999999</v>
+      </c>
+      <c r="F45">
         <v>3.1639899999999999E-2</v>
-      </c>
-      <c r="F45">
-        <v>0.17290549999999999</v>
       </c>
       <c r="G45">
         <v>1.24777E-2</v>
@@ -9469,34 +9469,34 @@
         <v>-6.0306999999999999E-3</v>
       </c>
       <c r="N45">
+        <v>0.3185307</v>
+      </c>
+      <c r="O45">
+        <v>1.5350900000000001E-2</v>
+      </c>
+      <c r="P45">
+        <v>0.3031798</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>1.1513199999999999E-2</v>
+      </c>
+      <c r="S45">
+        <v>3.8376999999999999E-3</v>
+      </c>
+      <c r="T45">
         <v>0.68146929999999994</v>
       </c>
-      <c r="O45">
+      <c r="U45">
         <v>0.6968202</v>
       </c>
-      <c r="P45">
+      <c r="V45">
         <v>0.68914470000000005</v>
       </c>
-      <c r="Q45">
+      <c r="W45">
         <v>0.69046050000000003</v>
-      </c>
-      <c r="R45">
-        <v>0.3185307</v>
-      </c>
-      <c r="S45">
-        <v>0.3031798</v>
-      </c>
-      <c r="T45">
-        <v>1.5350900000000001E-2</v>
-      </c>
-      <c r="U45">
-        <v>3.8376999999999999E-3</v>
-      </c>
-      <c r="V45">
-        <v>1.1513199999999999E-2</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
       </c>
       <c r="X45">
         <v>0.92969329999999994</v>
@@ -9549,10 +9549,10 @@
         <v>7.32323E-2</v>
       </c>
       <c r="E46">
+        <v>0.127193</v>
+      </c>
+      <c r="F46">
         <v>3.3771900000000001E-2</v>
-      </c>
-      <c r="F46">
-        <v>0.127193</v>
       </c>
       <c r="G46">
         <v>1.2719299999999999E-2</v>
@@ -9576,34 +9576,34 @@
         <v>-7.6093999999999997E-3</v>
       </c>
       <c r="N46">
+        <v>0.31058950000000002</v>
+      </c>
+      <c r="O46">
+        <v>1.5829699999999999E-2</v>
+      </c>
+      <c r="P46">
+        <v>0.29475980000000002</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>1.0917E-2</v>
+      </c>
+      <c r="S46">
+        <v>4.9126999999999999E-3</v>
+      </c>
+      <c r="T46">
         <v>0.68941050000000004</v>
       </c>
-      <c r="O46">
+      <c r="U46">
         <v>0.70524019999999998</v>
       </c>
-      <c r="P46">
+      <c r="V46">
         <v>0.69732530000000004</v>
       </c>
-      <c r="Q46">
+      <c r="W46">
         <v>0.69868209999999997</v>
-      </c>
-      <c r="R46">
-        <v>0.31058950000000002</v>
-      </c>
-      <c r="S46">
-        <v>0.29475980000000002</v>
-      </c>
-      <c r="T46">
-        <v>1.5829699999999999E-2</v>
-      </c>
-      <c r="U46">
-        <v>4.9126999999999999E-3</v>
-      </c>
-      <c r="V46">
-        <v>1.0917E-2</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
       </c>
       <c r="X46">
         <v>0.87952649999999999</v>
@@ -9656,10 +9656,10 @@
         <v>0.10158730000000001</v>
       </c>
       <c r="E47">
+        <v>5.3186799999999999E-2</v>
+      </c>
+      <c r="F47">
         <v>7.1208800000000003E-2</v>
-      </c>
-      <c r="F47">
-        <v>5.3186799999999999E-2</v>
       </c>
       <c r="G47">
         <v>1.4065899999999999E-2</v>
@@ -9683,34 +9683,34 @@
         <v>-9.9833999999999999E-3</v>
       </c>
       <c r="N47">
+        <v>0.30555559999999998</v>
+      </c>
+      <c r="O47">
+        <v>1.81406E-2</v>
+      </c>
+      <c r="P47">
+        <v>0.28741499999999998</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>1.24717E-2</v>
+      </c>
+      <c r="S47">
+        <v>5.6689000000000002E-3</v>
+      </c>
+      <c r="T47">
         <v>0.69444439999999996</v>
       </c>
-      <c r="O47">
+      <c r="U47">
         <v>0.71258500000000002</v>
       </c>
-      <c r="P47">
+      <c r="V47">
         <v>0.7035148</v>
       </c>
-      <c r="Q47">
+      <c r="W47">
         <v>0.70506959999999996</v>
-      </c>
-      <c r="R47">
-        <v>0.30555559999999998</v>
-      </c>
-      <c r="S47">
-        <v>0.28741499999999998</v>
-      </c>
-      <c r="T47">
-        <v>1.81406E-2</v>
-      </c>
-      <c r="U47">
-        <v>5.6689000000000002E-3</v>
-      </c>
-      <c r="V47">
-        <v>1.24717E-2</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
       </c>
       <c r="X47">
         <v>0.84541060000000001</v>
@@ -9763,10 +9763,10 @@
         <v>8.1018499999999993E-2</v>
       </c>
       <c r="E48">
+        <v>6.8509600000000004E-2</v>
+      </c>
+      <c r="F48">
         <v>9.0544899999999998E-2</v>
-      </c>
-      <c r="F48">
-        <v>6.8509600000000004E-2</v>
       </c>
       <c r="G48">
         <v>1.4022400000000001E-2</v>
@@ -9790,34 +9790,34 @@
         <v>-1.10633E-2</v>
       </c>
       <c r="N48">
+        <v>0.32894069999999997</v>
+      </c>
+      <c r="O48">
+        <v>1.7739499999999998E-2</v>
+      </c>
+      <c r="P48">
+        <v>0.31120120000000001</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>1.2671099999999999E-2</v>
+      </c>
+      <c r="S48">
+        <v>5.0683999999999998E-3</v>
+      </c>
+      <c r="T48">
         <v>0.67105930000000003</v>
       </c>
-      <c r="O48">
+      <c r="U48">
         <v>0.68879880000000004</v>
       </c>
-      <c r="P48">
+      <c r="V48">
         <v>0.67992900000000001</v>
       </c>
-      <c r="Q48">
+      <c r="W48">
         <v>0.68144950000000004</v>
-      </c>
-      <c r="R48">
-        <v>0.32894069999999997</v>
-      </c>
-      <c r="S48">
-        <v>0.31120120000000001</v>
-      </c>
-      <c r="T48">
-        <v>1.7739499999999998E-2</v>
-      </c>
-      <c r="U48">
-        <v>5.0683999999999998E-3</v>
-      </c>
-      <c r="V48">
-        <v>1.2671099999999999E-2</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
       </c>
       <c r="X48">
         <v>0.85918229999999995</v>
@@ -9870,10 +9870,10 @@
         <v>6.7669199999999999E-2</v>
       </c>
       <c r="E49">
+        <v>7.2495400000000002E-2</v>
+      </c>
+      <c r="F49">
         <v>0.10819670000000001</v>
-      </c>
-      <c r="F49">
-        <v>7.2495400000000002E-2</v>
       </c>
       <c r="G49">
         <v>1.3114799999999999E-2</v>
@@ -9897,34 +9897,34 @@
         <v>-9.7275E-3</v>
       </c>
       <c r="N49">
+        <v>0.33194439999999997</v>
+      </c>
+      <c r="O49">
+        <v>1.66667E-2</v>
+      </c>
+      <c r="P49">
+        <v>0.3152778</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="S49">
+        <v>4.1666999999999997E-3</v>
+      </c>
+      <c r="T49">
         <v>0.66805550000000002</v>
       </c>
-      <c r="O49">
+      <c r="U49">
         <v>0.68472219999999995</v>
       </c>
-      <c r="P49">
+      <c r="V49">
         <v>0.67638889999999996</v>
       </c>
-      <c r="Q49">
+      <c r="W49">
         <v>0.67781740000000001</v>
-      </c>
-      <c r="R49">
-        <v>0.33194439999999997</v>
-      </c>
-      <c r="S49">
-        <v>0.3152778</v>
-      </c>
-      <c r="T49">
-        <v>1.66667E-2</v>
-      </c>
-      <c r="U49">
-        <v>4.1666999999999997E-3</v>
-      </c>
-      <c r="V49">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
       </c>
       <c r="X49">
         <v>0.88636360000000003</v>
@@ -10028,10 +10028,10 @@
         <v>7.12946E-2</v>
       </c>
       <c r="E50">
+        <v>7.0825700000000005E-2</v>
+      </c>
+      <c r="F50">
         <v>0.1108257</v>
-      </c>
-      <c r="F50">
-        <v>7.0825700000000005E-2</v>
       </c>
       <c r="G50">
         <v>1.3945000000000001E-2</v>
@@ -10055,34 +10055,34 @@
         <v>-1.0230700000000001E-2</v>
       </c>
       <c r="N50">
+        <v>0.33624660000000001</v>
+      </c>
+      <c r="O50">
+        <v>1.74793E-2</v>
+      </c>
+      <c r="P50">
+        <v>0.31876719999999997</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>1.24195E-2</v>
+      </c>
+      <c r="S50">
+        <v>5.0597999999999997E-3</v>
+      </c>
+      <c r="T50">
         <v>0.66375340000000005</v>
       </c>
-      <c r="O50">
+      <c r="U50">
         <v>0.68123279999999997</v>
       </c>
-      <c r="P50">
+      <c r="V50">
         <v>0.67249309999999995</v>
       </c>
-      <c r="Q50">
+      <c r="W50">
         <v>0.67399129999999996</v>
-      </c>
-      <c r="R50">
-        <v>0.33624660000000001</v>
-      </c>
-      <c r="S50">
-        <v>0.31876719999999997</v>
-      </c>
-      <c r="T50">
-        <v>1.74793E-2</v>
-      </c>
-      <c r="U50">
-        <v>5.0597999999999997E-3</v>
-      </c>
-      <c r="V50">
-        <v>1.24195E-2</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
       </c>
       <c r="X50">
         <v>0.87934179999999995</v>
@@ -10195,10 +10195,10 @@
         <v>6.7307699999999998E-2</v>
       </c>
       <c r="E51">
+        <v>6.93796E-2</v>
+      </c>
+      <c r="F51">
         <v>0.12474979999999999</v>
-      </c>
-      <c r="F51">
-        <v>6.93796E-2</v>
       </c>
       <c r="G51">
         <v>1.4009300000000001E-2</v>
@@ -10222,34 +10222,34 @@
         <v>-1.0036E-2</v>
       </c>
       <c r="N51">
+        <v>0.34069139999999998</v>
+      </c>
+      <c r="O51">
+        <v>1.74927E-2</v>
+      </c>
+      <c r="P51">
+        <v>0.3231986</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>1.2911300000000001E-2</v>
+      </c>
+      <c r="S51">
+        <v>4.5814000000000002E-3</v>
+      </c>
+      <c r="T51">
         <v>0.65930869999999997</v>
       </c>
-      <c r="O51">
+      <c r="U51">
         <v>0.6768014</v>
       </c>
-      <c r="P51">
+      <c r="V51">
         <v>0.66805499999999995</v>
       </c>
-      <c r="Q51">
+      <c r="W51">
         <v>0.66955439999999999</v>
-      </c>
-      <c r="R51">
-        <v>0.34069139999999998</v>
-      </c>
-      <c r="S51">
-        <v>0.3231986</v>
-      </c>
-      <c r="T51">
-        <v>1.74927E-2</v>
-      </c>
-      <c r="U51">
-        <v>4.5814000000000002E-3</v>
-      </c>
-      <c r="V51">
-        <v>1.2911300000000001E-2</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
       </c>
       <c r="X51">
         <v>0.89082729999999999</v>
@@ -10371,10 +10371,10 @@
         <v>6.18982E-2</v>
       </c>
       <c r="E52">
+        <v>8.1579700000000005E-2</v>
+      </c>
+      <c r="F52">
         <v>0.1150187</v>
-      </c>
-      <c r="F52">
-        <v>8.1579700000000005E-2</v>
       </c>
       <c r="G52">
         <v>1.2971999999999999E-2</v>
@@ -10398,34 +10398,34 @@
         <v>-9.3278000000000007E-3</v>
       </c>
       <c r="N52">
+        <v>0.3382038</v>
+      </c>
+      <c r="O52">
+        <v>1.6037099999999999E-2</v>
+      </c>
+      <c r="P52">
+        <v>0.32216679999999998</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>1.24733E-2</v>
+      </c>
+      <c r="S52">
+        <v>3.5638000000000002E-3</v>
+      </c>
+      <c r="T52">
         <v>0.66179619999999995</v>
       </c>
-      <c r="O52">
+      <c r="U52">
         <v>0.67783320000000002</v>
       </c>
-      <c r="P52">
+      <c r="V52">
         <v>0.66981469999999999</v>
       </c>
-      <c r="Q52">
+      <c r="W52">
         <v>0.67118920000000004</v>
-      </c>
-      <c r="R52">
-        <v>0.3382038</v>
-      </c>
-      <c r="S52">
-        <v>0.32216679999999998</v>
-      </c>
-      <c r="T52">
-        <v>1.6037099999999999E-2</v>
-      </c>
-      <c r="U52">
-        <v>3.5638000000000002E-3</v>
-      </c>
-      <c r="V52">
-        <v>1.24733E-2</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
       </c>
       <c r="X52">
         <v>0.89321790000000001</v>
@@ -10547,10 +10547,10 @@
         <v>6.8877499999999994E-2</v>
       </c>
       <c r="E53">
+        <v>8.4944199999999997E-2</v>
+      </c>
+      <c r="F53">
         <v>0.1138034</v>
-      </c>
-      <c r="F53">
-        <v>8.4944199999999997E-2</v>
       </c>
       <c r="G53">
         <v>1.47019E-2</v>
@@ -10574,34 +10574,34 @@
         <v>-1.08139E-2</v>
       </c>
       <c r="N53">
+        <v>0.3251677</v>
+      </c>
+      <c r="O53">
+        <v>1.8120799999999999E-2</v>
+      </c>
+      <c r="P53">
+        <v>0.30704690000000001</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>1.44295E-2</v>
+      </c>
+      <c r="S53">
+        <v>3.6912999999999998E-3</v>
+      </c>
+      <c r="T53">
         <v>0.67483219999999999</v>
       </c>
-      <c r="O53">
+      <c r="U53">
         <v>0.69295309999999999</v>
       </c>
-      <c r="P53">
+      <c r="V53">
         <v>0.68389270000000002</v>
       </c>
-      <c r="Q53">
+      <c r="W53">
         <v>0.68544579999999999</v>
-      </c>
-      <c r="R53">
-        <v>0.3251677</v>
-      </c>
-      <c r="S53">
-        <v>0.30704690000000001</v>
-      </c>
-      <c r="T53">
-        <v>1.8120799999999999E-2</v>
-      </c>
-      <c r="U53">
-        <v>3.6912999999999998E-3</v>
-      </c>
-      <c r="V53">
-        <v>1.44295E-2</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
       </c>
       <c r="X53">
         <v>0.91575600000000001</v>
@@ -10723,10 +10723,10 @@
         <v>7.5117400000000001E-2</v>
       </c>
       <c r="E54">
+        <v>8.81295E-2</v>
+      </c>
+      <c r="F54">
         <v>0.1143371</v>
-      </c>
-      <c r="F54">
-        <v>8.81295E-2</v>
       </c>
       <c r="G54">
         <v>1.6444E-2</v>
@@ -10750,34 +10750,34 @@
         <v>-1.1865199999999999E-2</v>
       </c>
       <c r="N54">
+        <v>0.32454490000000003</v>
+      </c>
+      <c r="O54">
+        <v>2.0087899999999999E-2</v>
+      </c>
+      <c r="P54">
+        <v>0.30445699999999998</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>1.6007500000000001E-2</v>
+      </c>
+      <c r="S54">
+        <v>4.0803999999999997E-3</v>
+      </c>
+      <c r="T54">
         <v>0.67545509999999997</v>
       </c>
-      <c r="O54">
+      <c r="U54">
         <v>0.69554300000000002</v>
       </c>
-      <c r="P54">
+      <c r="V54">
         <v>0.68549899999999997</v>
       </c>
-      <c r="Q54">
+      <c r="W54">
         <v>0.68722079999999997</v>
-      </c>
-      <c r="R54">
-        <v>0.32454490000000003</v>
-      </c>
-      <c r="S54">
-        <v>0.30445699999999998</v>
-      </c>
-      <c r="T54">
-        <v>2.0087899999999999E-2</v>
-      </c>
-      <c r="U54">
-        <v>4.0803999999999997E-3</v>
-      </c>
-      <c r="V54">
-        <v>1.6007500000000001E-2</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
       </c>
       <c r="X54">
         <v>0.92202220000000001</v>
@@ -10899,10 +10899,10 @@
         <v>8.1081100000000003E-2</v>
       </c>
       <c r="E55">
+        <v>7.9897599999999999E-2</v>
+      </c>
+      <c r="F55">
         <v>0.12035849999999999</v>
-      </c>
-      <c r="F55">
-        <v>7.9897599999999999E-2</v>
       </c>
       <c r="G55">
         <v>1.76697E-2</v>
@@ -10926,34 +10926,34 @@
         <v>-1.2599300000000001E-2</v>
       </c>
       <c r="N55">
+        <v>0.33010010000000001</v>
+      </c>
+      <c r="O55">
+        <v>2.1589500000000001E-2</v>
+      </c>
+      <c r="P55">
+        <v>0.30851060000000002</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>1.7208999999999999E-2</v>
+      </c>
+      <c r="S55">
+        <v>4.3804999999999998E-3</v>
+      </c>
+      <c r="T55">
         <v>0.66989989999999999</v>
       </c>
-      <c r="O55">
+      <c r="U55">
         <v>0.69148929999999997</v>
       </c>
-      <c r="P55">
+      <c r="V55">
         <v>0.68069460000000004</v>
       </c>
-      <c r="Q55">
+      <c r="W55">
         <v>0.68254510000000002</v>
-      </c>
-      <c r="R55">
-        <v>0.33010010000000001</v>
-      </c>
-      <c r="S55">
-        <v>0.30851060000000002</v>
-      </c>
-      <c r="T55">
-        <v>2.1589500000000001E-2</v>
-      </c>
-      <c r="U55">
-        <v>4.3804999999999998E-3</v>
-      </c>
-      <c r="V55">
-        <v>1.7208999999999999E-2</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
       </c>
       <c r="X55">
         <v>0.9130064</v>
@@ -11075,10 +11075,10 @@
         <v>8.4946199999999999E-2</v>
       </c>
       <c r="E56">
+        <v>7.7085799999999996E-2</v>
+      </c>
+      <c r="F56">
         <v>0.1229142</v>
-      </c>
-      <c r="F56">
-        <v>7.7085799999999996E-2</v>
       </c>
       <c r="G56">
         <v>1.85664E-2</v>
@@ -11102,34 +11102,34 @@
         <v>-1.26702E-2</v>
       </c>
       <c r="N56">
+        <v>0.3409546</v>
+      </c>
+      <c r="O56">
+        <v>2.2577900000000001E-2</v>
+      </c>
+      <c r="P56">
+        <v>0.31837670000000001</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>1.80051E-2</v>
+      </c>
+      <c r="S56">
+        <v>4.5726999999999999E-3</v>
+      </c>
+      <c r="T56">
         <v>0.65904549999999995</v>
       </c>
-      <c r="O56">
+      <c r="U56">
         <v>0.68162330000000004</v>
       </c>
-      <c r="P56">
+      <c r="V56">
         <v>0.6703344</v>
       </c>
-      <c r="Q56">
+      <c r="W56">
         <v>0.67226960000000002</v>
-      </c>
-      <c r="R56">
-        <v>0.3409546</v>
-      </c>
-      <c r="S56">
-        <v>0.31837670000000001</v>
-      </c>
-      <c r="T56">
-        <v>2.2577900000000001E-2</v>
-      </c>
-      <c r="U56">
-        <v>4.5726999999999999E-3</v>
-      </c>
-      <c r="V56">
-        <v>1.80051E-2</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
       </c>
       <c r="X56">
         <v>0.89762560000000002</v>
@@ -11260,10 +11260,10 @@
         <v>0.10019840000000001</v>
       </c>
       <c r="E57">
+        <v>7.87717E-2</v>
+      </c>
+      <c r="F57">
         <v>0.123053</v>
-      </c>
-      <c r="F57">
-        <v>7.87717E-2</v>
       </c>
       <c r="G57">
         <v>2.2474399999999999E-2</v>
@@ -11287,34 +11287,34 @@
         <v>-1.4882100000000001E-2</v>
       </c>
       <c r="N57">
+        <v>0.32639829999999997</v>
+      </c>
+      <c r="O57">
+        <v>2.7289899999999999E-2</v>
+      </c>
+      <c r="P57">
+        <v>0.29910829999999999</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>2.2696600000000001E-2</v>
+      </c>
+      <c r="S57">
+        <v>4.5934000000000001E-3</v>
+      </c>
+      <c r="T57">
         <v>0.67360169999999997</v>
       </c>
-      <c r="O57">
+      <c r="U57">
         <v>0.70089170000000001</v>
       </c>
-      <c r="P57">
+      <c r="V57">
         <v>0.68724669999999999</v>
       </c>
-      <c r="Q57">
+      <c r="W57">
         <v>0.68958580000000003</v>
-      </c>
-      <c r="R57">
-        <v>0.32639829999999997</v>
-      </c>
-      <c r="S57">
-        <v>0.29910829999999999</v>
-      </c>
-      <c r="T57">
-        <v>2.7289899999999999E-2</v>
-      </c>
-      <c r="U57">
-        <v>4.5934000000000001E-3</v>
-      </c>
-      <c r="V57">
-        <v>2.2696600000000001E-2</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
       </c>
       <c r="X57">
         <v>0.92573340000000004</v>
@@ -11445,10 +11445,10 @@
         <v>0.10879850000000001</v>
       </c>
       <c r="E58">
+        <v>8.0801700000000004E-2</v>
+      </c>
+      <c r="F58">
         <v>0.1179325</v>
-      </c>
-      <c r="F58">
-        <v>8.0801700000000004E-2</v>
       </c>
       <c r="G58">
         <v>2.4261600000000001E-2</v>
@@ -11472,34 +11472,34 @@
         <v>-1.56677E-2</v>
       </c>
       <c r="N58">
+        <v>0.32787309999999997</v>
+      </c>
+      <c r="O58">
+        <v>2.94343E-2</v>
+      </c>
+      <c r="P58">
+        <v>0.2984387</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>2.4571300000000001E-2</v>
+      </c>
+      <c r="S58">
+        <v>4.8631000000000004E-3</v>
+      </c>
+      <c r="T58">
         <v>0.67212689999999997</v>
       </c>
-      <c r="O58">
+      <c r="U58">
         <v>0.70156130000000005</v>
       </c>
-      <c r="P58">
+      <c r="V58">
         <v>0.68684409999999996</v>
       </c>
-      <c r="Q58">
+      <c r="W58">
         <v>0.68936699999999995</v>
-      </c>
-      <c r="R58">
-        <v>0.32787309999999997</v>
-      </c>
-      <c r="S58">
-        <v>0.2984387</v>
-      </c>
-      <c r="T58">
-        <v>2.94343E-2</v>
-      </c>
-      <c r="U58">
-        <v>4.8631000000000004E-3</v>
-      </c>
-      <c r="V58">
-        <v>2.4571300000000001E-2</v>
-      </c>
-      <c r="W58">
-        <v>0</v>
       </c>
       <c r="X58">
         <v>0.92140350000000004</v>
@@ -11630,10 +11630,10 @@
         <v>0.11911620000000001</v>
       </c>
       <c r="E59">
+        <v>7.3773900000000003E-2</v>
+      </c>
+      <c r="F59">
         <v>0.1167914</v>
-      </c>
-      <c r="F59">
-        <v>7.3773900000000003E-2</v>
       </c>
       <c r="G59">
         <v>2.5768900000000001E-2</v>
@@ -11657,34 +11657,34 @@
         <v>-1.7075199999999999E-2</v>
       </c>
       <c r="N59">
+        <v>0.32936409999999999</v>
+      </c>
+      <c r="O59">
+        <v>3.1416300000000001E-2</v>
+      </c>
+      <c r="P59">
+        <v>0.29794779999999998</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>2.63491E-2</v>
+      </c>
+      <c r="S59">
+        <v>5.0670999999999997E-3</v>
+      </c>
+      <c r="T59">
         <v>0.67063589999999995</v>
       </c>
-      <c r="O59">
+      <c r="U59">
         <v>0.70205220000000002</v>
       </c>
-      <c r="P59">
+      <c r="V59">
         <v>0.68634399999999995</v>
       </c>
-      <c r="Q59">
+      <c r="W59">
         <v>0.6890368</v>
-      </c>
-      <c r="R59">
-        <v>0.32936409999999999</v>
-      </c>
-      <c r="S59">
-        <v>0.29794779999999998</v>
-      </c>
-      <c r="T59">
-        <v>3.1416300000000001E-2</v>
-      </c>
-      <c r="U59">
-        <v>5.0670999999999997E-3</v>
-      </c>
-      <c r="V59">
-        <v>2.63491E-2</v>
-      </c>
-      <c r="W59">
-        <v>0</v>
       </c>
       <c r="X59">
         <v>0.91087399999999996</v>
@@ -11815,10 +11815,10 @@
         <v>0.115942</v>
       </c>
       <c r="E60">
+        <v>7.7822500000000003E-2</v>
+      </c>
+      <c r="F60">
         <v>0.12095069999999999</v>
-      </c>
-      <c r="F60">
-        <v>7.7822500000000003E-2</v>
       </c>
       <c r="G60">
         <v>2.6068600000000001E-2</v>
@@ -11842,34 +11842,34 @@
         <v>-1.7172900000000001E-2</v>
       </c>
       <c r="N60">
+        <v>0.33750580000000002</v>
+      </c>
+      <c r="O60">
+        <v>3.1525299999999999E-2</v>
+      </c>
+      <c r="P60">
+        <v>0.30598049999999999</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>2.64256E-2</v>
+      </c>
+      <c r="S60">
+        <v>5.0997000000000004E-3</v>
+      </c>
+      <c r="T60">
         <v>0.66249420000000003</v>
       </c>
-      <c r="O60">
+      <c r="U60">
         <v>0.69401939999999995</v>
       </c>
-      <c r="P60">
+      <c r="V60">
         <v>0.67825679999999999</v>
       </c>
-      <c r="Q60">
+      <c r="W60">
         <v>0.68095890000000003</v>
-      </c>
-      <c r="R60">
-        <v>0.33750580000000002</v>
-      </c>
-      <c r="S60">
-        <v>0.30598049999999999</v>
-      </c>
-      <c r="T60">
-        <v>3.1525299999999999E-2</v>
-      </c>
-      <c r="U60">
-        <v>5.0997000000000004E-3</v>
-      </c>
-      <c r="V60">
-        <v>2.64256E-2</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
       </c>
       <c r="X60">
         <v>0.90990130000000002</v>
@@ -12000,10 +12000,10 @@
         <v>0.1247892</v>
       </c>
       <c r="E61">
+        <v>7.6327400000000004E-2</v>
+      </c>
+      <c r="F61">
         <v>0.1150442</v>
-      </c>
-      <c r="F61">
-        <v>7.6327400000000004E-2</v>
       </c>
       <c r="G61">
         <v>2.7286100000000001E-2</v>
@@ -12027,34 +12027,34 @@
         <v>-1.83187E-2</v>
       </c>
       <c r="N61">
+        <v>0.3280554</v>
+      </c>
+      <c r="O61">
+        <v>3.3006199999999999E-2</v>
+      </c>
+      <c r="P61">
+        <v>0.29504910000000001</v>
+      </c>
+      <c r="Q61">
+        <v>2.23E-4</v>
+      </c>
+      <c r="R61">
+        <v>2.8099900000000001E-2</v>
+      </c>
+      <c r="S61">
+        <v>4.6832999999999996E-3</v>
+      </c>
+      <c r="T61">
         <v>0.67194469999999995</v>
       </c>
-      <c r="O61">
+      <c r="U61">
         <v>0.70495090000000005</v>
       </c>
-      <c r="P61">
+      <c r="V61">
         <v>0.68844780000000005</v>
       </c>
-      <c r="Q61">
+      <c r="W61">
         <v>0.69127680000000002</v>
-      </c>
-      <c r="R61">
-        <v>0.3280554</v>
-      </c>
-      <c r="S61">
-        <v>0.29504910000000001</v>
-      </c>
-      <c r="T61">
-        <v>3.3006199999999999E-2</v>
-      </c>
-      <c r="U61">
-        <v>4.6832999999999996E-3</v>
-      </c>
-      <c r="V61">
-        <v>2.8099900000000001E-2</v>
-      </c>
-      <c r="W61">
-        <v>2.23E-4</v>
       </c>
       <c r="X61">
         <v>0.9135839</v>
@@ -12185,10 +12185,10 @@
         <v>0.1364744</v>
       </c>
       <c r="E62">
+        <v>7.5062299999999998E-2</v>
+      </c>
+      <c r="F62">
         <v>0.1140164</v>
-      </c>
-      <c r="F62">
-        <v>7.5062299999999998E-2</v>
       </c>
       <c r="G62">
         <v>2.9882599999999999E-2</v>
@@ -12212,34 +12212,34 @@
         <v>-1.98938E-2</v>
       </c>
       <c r="N62">
+        <v>0.33103450000000001</v>
+      </c>
+      <c r="O62">
+        <v>3.62069E-2</v>
+      </c>
+      <c r="P62">
+        <v>0.29482760000000002</v>
+      </c>
+      <c r="Q62">
+        <v>6.466E-4</v>
+      </c>
+      <c r="R62">
+        <v>2.9956900000000002E-2</v>
+      </c>
+      <c r="S62">
+        <v>5.8190000000000004E-3</v>
+      </c>
+      <c r="T62">
         <v>0.66896549999999999</v>
       </c>
-      <c r="O62">
+      <c r="U62">
         <v>0.70517240000000003</v>
       </c>
-      <c r="P62">
+      <c r="V62">
         <v>0.68706889999999998</v>
       </c>
-      <c r="Q62">
+      <c r="W62">
         <v>0.69017229999999996</v>
-      </c>
-      <c r="R62">
-        <v>0.33103450000000001</v>
-      </c>
-      <c r="S62">
-        <v>0.29482760000000002</v>
-      </c>
-      <c r="T62">
-        <v>3.62069E-2</v>
-      </c>
-      <c r="U62">
-        <v>5.8190000000000004E-3</v>
-      </c>
-      <c r="V62">
-        <v>2.9956900000000002E-2</v>
-      </c>
-      <c r="W62">
-        <v>6.466E-4</v>
       </c>
       <c r="X62">
         <v>0.91053090000000003</v>
@@ -12370,10 +12370,10 @@
         <v>0.1372843</v>
       </c>
       <c r="E63">
+        <v>7.6999499999999999E-2</v>
+      </c>
+      <c r="F63">
         <v>0.1134294</v>
-      </c>
-      <c r="F63">
-        <v>7.6999499999999999E-2</v>
       </c>
       <c r="G63">
         <v>3.0303E-2</v>
@@ -12397,34 +12397,34 @@
         <v>-1.96542E-2</v>
       </c>
       <c r="N63">
+        <v>0.33639639999999998</v>
+      </c>
+      <c r="O63">
+        <v>3.6556100000000001E-2</v>
+      </c>
+      <c r="P63">
+        <v>0.2998402</v>
+      </c>
+      <c r="Q63">
+        <v>5.9929999999999998E-4</v>
+      </c>
+      <c r="R63">
+        <v>3.0763100000000002E-2</v>
+      </c>
+      <c r="S63">
+        <v>5.1938000000000002E-3</v>
+      </c>
+      <c r="T63">
         <v>0.66360370000000002</v>
       </c>
-      <c r="O63">
+      <c r="U63">
         <v>0.7001598</v>
       </c>
-      <c r="P63">
+      <c r="V63">
         <v>0.68188170000000004</v>
       </c>
-      <c r="Q63">
+      <c r="W63">
         <v>0.68593249999999995</v>
-      </c>
-      <c r="R63">
-        <v>0.33639639999999998</v>
-      </c>
-      <c r="S63">
-        <v>0.2998402</v>
-      </c>
-      <c r="T63">
-        <v>3.6556100000000001E-2</v>
-      </c>
-      <c r="U63">
-        <v>5.1938000000000002E-3</v>
-      </c>
-      <c r="V63">
-        <v>3.0763100000000002E-2</v>
-      </c>
-      <c r="W63">
-        <v>5.9929999999999998E-4</v>
       </c>
       <c r="X63">
         <v>0.90443770000000001</v>
@@ -12555,10 +12555,10 @@
         <v>0.14749470000000001</v>
       </c>
       <c r="E64">
+        <v>7.4666700000000003E-2</v>
+      </c>
+      <c r="F64">
         <v>0.1148235</v>
-      </c>
-      <c r="F64">
-        <v>7.4666700000000003E-2</v>
       </c>
       <c r="G64">
         <v>3.2784300000000002E-2</v>
@@ -12582,34 +12582,34 @@
         <v>-2.03226E-2</v>
       </c>
       <c r="N64">
+        <v>0.33874320000000002</v>
+      </c>
+      <c r="O64">
+        <v>3.9441400000000001E-2</v>
+      </c>
+      <c r="P64">
+        <v>0.2993017</v>
+      </c>
+      <c r="Q64">
+        <v>9.4359999999999995E-4</v>
+      </c>
+      <c r="R64">
+        <v>3.3213800000000002E-2</v>
+      </c>
+      <c r="S64">
+        <v>5.2839999999999996E-3</v>
+      </c>
+      <c r="T64">
         <v>0.66125679999999998</v>
       </c>
-      <c r="O64">
+      <c r="U64">
         <v>0.7006983</v>
       </c>
-      <c r="P64">
+      <c r="V64">
         <v>0.68097750000000001</v>
       </c>
-      <c r="Q64">
+      <c r="W64">
         <v>0.68594929999999998</v>
-      </c>
-      <c r="R64">
-        <v>0.33874320000000002</v>
-      </c>
-      <c r="S64">
-        <v>0.2993017</v>
-      </c>
-      <c r="T64">
-        <v>3.9441400000000001E-2</v>
-      </c>
-      <c r="U64">
-        <v>5.2839999999999996E-3</v>
-      </c>
-      <c r="V64">
-        <v>3.3213800000000002E-2</v>
-      </c>
-      <c r="W64">
-        <v>9.4359999999999995E-4</v>
       </c>
       <c r="X64">
         <v>0.90262750000000003</v>
@@ -12740,10 +12740,10 @@
         <v>0.14732719999999999</v>
       </c>
       <c r="E65">
+        <v>7.5529600000000002E-2</v>
+      </c>
+      <c r="F65">
         <v>0.1155588</v>
-      </c>
-      <c r="F65">
-        <v>7.5529600000000002E-2</v>
       </c>
       <c r="G65">
         <v>3.3016799999999999E-2</v>
@@ -12767,34 +12767,34 @@
         <v>-2.02209E-2</v>
       </c>
       <c r="N65">
+        <v>0.34127540000000001</v>
+      </c>
+      <c r="O65">
+        <v>3.95936E-2</v>
+      </c>
+      <c r="P65">
+        <v>0.3016818</v>
+      </c>
+      <c r="Q65">
+        <v>1.0512E-3</v>
+      </c>
+      <c r="R65">
+        <v>3.3637E-2</v>
+      </c>
+      <c r="S65">
+        <v>4.9053999999999999E-3</v>
+      </c>
+      <c r="T65">
         <v>0.65872459999999999</v>
       </c>
-      <c r="O65">
+      <c r="U65">
         <v>0.69831810000000005</v>
       </c>
-      <c r="P65">
+      <c r="V65">
         <v>0.67852140000000005</v>
       </c>
-      <c r="Q65">
+      <c r="W65">
         <v>0.68387100000000001</v>
-      </c>
-      <c r="R65">
-        <v>0.34127540000000001</v>
-      </c>
-      <c r="S65">
-        <v>0.3016818</v>
-      </c>
-      <c r="T65">
-        <v>3.95936E-2</v>
-      </c>
-      <c r="U65">
-        <v>4.9053999999999999E-3</v>
-      </c>
-      <c r="V65">
-        <v>3.3637E-2</v>
-      </c>
-      <c r="W65">
-        <v>1.0512E-3</v>
       </c>
       <c r="X65">
         <v>0.90081460000000002</v>
@@ -12925,10 +12925,10 @@
         <v>0.14821429999999999</v>
       </c>
       <c r="E66">
+        <v>7.7866099999999994E-2</v>
+      </c>
+      <c r="F66">
         <v>0.1149131</v>
-      </c>
-      <c r="F66">
-        <v>7.7866099999999994E-2</v>
       </c>
       <c r="G66">
         <v>3.3544400000000002E-2</v>
@@ -12952,34 +12952,34 @@
         <v>-2.06106E-2</v>
       </c>
       <c r="N66">
+        <v>0.34707680000000002</v>
+      </c>
+      <c r="O66">
+        <v>4.0103100000000003E-2</v>
+      </c>
+      <c r="P66">
+        <v>0.30697370000000002</v>
+      </c>
+      <c r="Q66">
+        <v>1.4495000000000001E-3</v>
+      </c>
+      <c r="R66">
+        <v>3.3499800000000003E-2</v>
+      </c>
+      <c r="S66">
+        <v>5.1538E-3</v>
+      </c>
+      <c r="T66">
         <v>0.65292320000000004</v>
       </c>
-      <c r="O66">
+      <c r="U66">
         <v>0.69302620000000004</v>
       </c>
-      <c r="P66">
+      <c r="V66">
         <v>0.67297470000000004</v>
       </c>
-      <c r="Q66">
+      <c r="W66">
         <v>0.67823820000000001</v>
-      </c>
-      <c r="R66">
-        <v>0.34707680000000002</v>
-      </c>
-      <c r="S66">
-        <v>0.30697370000000002</v>
-      </c>
-      <c r="T66">
-        <v>4.0103100000000003E-2</v>
-      </c>
-      <c r="U66">
-        <v>5.1538E-3</v>
-      </c>
-      <c r="V66">
-        <v>3.3499800000000003E-2</v>
-      </c>
-      <c r="W66">
-        <v>1.4495000000000001E-3</v>
       </c>
       <c r="X66">
         <v>0.89512040000000004</v>
@@ -13110,10 +13110,10 @@
         <v>0.15321699999999999</v>
       </c>
       <c r="E67">
+        <v>8.2493200000000003E-2</v>
+      </c>
+      <c r="F67">
         <v>0.10843369999999999</v>
-      </c>
-      <c r="F67">
-        <v>8.2493200000000003E-2</v>
       </c>
       <c r="G67">
         <v>3.4546300000000002E-2</v>
@@ -13137,34 +13137,34 @@
         <v>-2.0970599999999999E-2</v>
       </c>
       <c r="N67">
+        <v>0.34538039999999998</v>
+      </c>
+      <c r="O67">
+        <v>4.0950199999999999E-2</v>
+      </c>
+      <c r="P67">
+        <v>0.30443019999999998</v>
+      </c>
+      <c r="Q67">
+        <v>1.8944999999999999E-3</v>
+      </c>
+      <c r="R67">
+        <v>3.3663699999999998E-2</v>
+      </c>
+      <c r="S67">
+        <v>5.3920000000000001E-3</v>
+      </c>
+      <c r="T67">
         <v>0.65461959999999997</v>
       </c>
-      <c r="O67">
+      <c r="U67">
         <v>0.69556980000000002</v>
       </c>
-      <c r="P67">
+      <c r="V67">
         <v>0.67509470000000005</v>
       </c>
-      <c r="Q67">
+      <c r="W67">
         <v>0.67987799999999998</v>
-      </c>
-      <c r="R67">
-        <v>0.34538039999999998</v>
-      </c>
-      <c r="S67">
-        <v>0.30443019999999998</v>
-      </c>
-      <c r="T67">
-        <v>4.0950199999999999E-2</v>
-      </c>
-      <c r="U67">
-        <v>5.3920000000000001E-3</v>
-      </c>
-      <c r="V67">
-        <v>3.3663699999999998E-2</v>
-      </c>
-      <c r="W67">
-        <v>1.8944999999999999E-3</v>
       </c>
       <c r="X67">
         <v>0.893397</v>
@@ -13304,10 +13304,10 @@
         <v>0.15883900000000001</v>
       </c>
       <c r="E68">
+        <v>8.0697699999999997E-2</v>
+      </c>
+      <c r="F68">
         <v>0.1046512</v>
-      </c>
-      <c r="F68">
-        <v>8.0697699999999997E-2</v>
       </c>
       <c r="G68">
         <v>3.5000000000000003E-2</v>
@@ -13331,34 +13331,34 @@
         <v>-2.1980099999999999E-2</v>
       </c>
       <c r="N68">
+        <v>0.3367291</v>
+      </c>
+      <c r="O68">
+        <v>4.14372E-2</v>
+      </c>
+      <c r="P68">
+        <v>0.2952919</v>
+      </c>
+      <c r="Q68">
+        <v>2.065E-3</v>
+      </c>
+      <c r="R68">
+        <v>3.4140999999999998E-2</v>
+      </c>
+      <c r="S68">
+        <v>5.2313000000000004E-3</v>
+      </c>
+      <c r="T68">
         <v>0.66327100000000005</v>
       </c>
-      <c r="O68">
+      <c r="U68">
         <v>0.70470820000000001</v>
       </c>
-      <c r="P68">
+      <c r="V68">
         <v>0.68398950000000003</v>
       </c>
-      <c r="Q68">
+      <c r="W68">
         <v>0.68839570000000005</v>
-      </c>
-      <c r="R68">
-        <v>0.3367291</v>
-      </c>
-      <c r="S68">
-        <v>0.2952919</v>
-      </c>
-      <c r="T68">
-        <v>4.14372E-2</v>
-      </c>
-      <c r="U68">
-        <v>5.2313000000000004E-3</v>
-      </c>
-      <c r="V68">
-        <v>3.4140999999999998E-2</v>
-      </c>
-      <c r="W68">
-        <v>2.065E-3</v>
       </c>
       <c r="X68">
         <v>0.8973738</v>
@@ -13498,10 +13498,10 @@
         <v>0.15769040000000001</v>
       </c>
       <c r="E69">
+        <v>7.7814400000000006E-2</v>
+      </c>
+      <c r="F69">
         <v>0.106729</v>
-      </c>
-      <c r="F69">
-        <v>7.7814400000000006E-2</v>
       </c>
       <c r="G69">
         <v>3.4548700000000002E-2</v>
@@ -13525,34 +13525,34 @@
         <v>-2.25915E-2</v>
       </c>
       <c r="N69">
+        <v>0.33207500000000001</v>
+      </c>
+      <c r="O69">
+        <v>4.0895899999999999E-2</v>
+      </c>
+      <c r="P69">
+        <v>0.29117910000000002</v>
+      </c>
+      <c r="Q69">
+        <v>2.1392E-3</v>
+      </c>
+      <c r="R69">
+        <v>3.3471800000000003E-2</v>
+      </c>
+      <c r="S69">
+        <v>5.4108000000000003E-3</v>
+      </c>
+      <c r="T69">
         <v>0.66792499999999999</v>
       </c>
-      <c r="O69">
+      <c r="U69">
         <v>0.70882089999999998</v>
       </c>
-      <c r="P69">
+      <c r="V69">
         <v>0.68837300000000001</v>
       </c>
-      <c r="Q69">
+      <c r="W69">
         <v>0.69313899999999995</v>
-      </c>
-      <c r="R69">
-        <v>0.33207500000000001</v>
-      </c>
-      <c r="S69">
-        <v>0.29117910000000002</v>
-      </c>
-      <c r="T69">
-        <v>4.0895899999999999E-2</v>
-      </c>
-      <c r="U69">
-        <v>5.4108000000000003E-3</v>
-      </c>
-      <c r="V69">
-        <v>3.3471800000000003E-2</v>
-      </c>
-      <c r="W69">
-        <v>2.1392E-3</v>
       </c>
       <c r="X69">
         <v>0.90180090000000002</v>
@@ -13692,10 +13692,10 @@
         <v>0.15605379999999999</v>
       </c>
       <c r="E70">
+        <v>7.7731900000000007E-2</v>
+      </c>
+      <c r="F70">
         <v>0.10721310000000001</v>
-      </c>
-      <c r="F70">
-        <v>7.7731900000000007E-2</v>
       </c>
       <c r="G70">
         <v>3.4198100000000002E-2</v>
@@ -13719,34 +13719,34 @@
         <v>-2.3397999999999999E-2</v>
       </c>
       <c r="N70">
+        <v>0.32129590000000002</v>
+      </c>
+      <c r="O70">
+        <v>4.0408699999999999E-2</v>
+      </c>
+      <c r="P70">
+        <v>0.2808871</v>
+      </c>
+      <c r="Q70">
+        <v>2.6706999999999998E-3</v>
+      </c>
+      <c r="R70">
+        <v>3.2628900000000002E-2</v>
+      </c>
+      <c r="S70">
+        <v>5.1092000000000004E-3</v>
+      </c>
+      <c r="T70">
         <v>0.67870410000000003</v>
       </c>
-      <c r="O70">
+      <c r="U70">
         <v>0.71911290000000005</v>
       </c>
-      <c r="P70">
+      <c r="V70">
         <v>0.69890850000000004</v>
       </c>
-      <c r="Q70">
+      <c r="W70">
         <v>0.70307030000000004</v>
-      </c>
-      <c r="R70">
-        <v>0.32129590000000002</v>
-      </c>
-      <c r="S70">
-        <v>0.2808871</v>
-      </c>
-      <c r="T70">
-        <v>4.0408699999999999E-2</v>
-      </c>
-      <c r="U70">
-        <v>5.1092000000000004E-3</v>
-      </c>
-      <c r="V70">
-        <v>3.2628900000000002E-2</v>
-      </c>
-      <c r="W70">
-        <v>2.6706999999999998E-3</v>
       </c>
       <c r="X70">
         <v>0.91585709999999998</v>
@@ -13886,10 +13886,10 @@
         <v>0.1567759</v>
       </c>
       <c r="E71">
+        <v>7.4722800000000006E-2</v>
+      </c>
+      <c r="F71">
         <v>0.102674</v>
-      </c>
-      <c r="F71">
-        <v>7.4722800000000006E-2</v>
       </c>
       <c r="G71">
         <v>3.2982400000000002E-2</v>
@@ -13913,34 +13913,34 @@
         <v>-2.4054099999999998E-2</v>
       </c>
       <c r="N71">
+        <v>0.31422600000000001</v>
+      </c>
+      <c r="O71">
+        <v>3.8948200000000002E-2</v>
+      </c>
+      <c r="P71">
+        <v>0.27527780000000002</v>
+      </c>
+      <c r="Q71">
+        <v>3.4107E-3</v>
+      </c>
+      <c r="R71">
+        <v>3.1026499999999999E-2</v>
+      </c>
+      <c r="S71">
+        <v>4.5109E-3</v>
+      </c>
+      <c r="T71">
         <v>0.68577399999999999</v>
       </c>
-      <c r="O71">
+      <c r="U71">
         <v>0.72472210000000004</v>
       </c>
-      <c r="P71">
+      <c r="V71">
         <v>0.70524810000000004</v>
       </c>
-      <c r="Q71">
+      <c r="W71">
         <v>0.70891610000000005</v>
-      </c>
-      <c r="R71">
-        <v>0.31422600000000001</v>
-      </c>
-      <c r="S71">
-        <v>0.27527780000000002</v>
-      </c>
-      <c r="T71">
-        <v>3.8948200000000002E-2</v>
-      </c>
-      <c r="U71">
-        <v>4.5109E-3</v>
-      </c>
-      <c r="V71">
-        <v>3.1026499999999999E-2</v>
-      </c>
-      <c r="W71">
-        <v>3.4107E-3</v>
       </c>
       <c r="X71">
         <v>0.91245779999999999</v>
@@ -14080,10 +14080,10 @@
         <v>0.1499183</v>
       </c>
       <c r="E72">
+        <v>6.7817000000000002E-2</v>
+      </c>
+      <c r="F72">
         <v>0.11082500000000001</v>
-      </c>
-      <c r="F72">
-        <v>6.7817000000000002E-2</v>
       </c>
       <c r="G72">
         <v>3.1504900000000002E-2</v>
@@ -14107,34 +14107,34 @@
         <v>-2.3246200000000002E-2</v>
       </c>
       <c r="N72">
+        <v>0.32501020000000003</v>
+      </c>
+      <c r="O72">
+        <v>3.7251300000000001E-2</v>
+      </c>
+      <c r="P72">
+        <v>0.28775879999999998</v>
+      </c>
+      <c r="Q72">
+        <v>3.2480999999999999E-3</v>
+      </c>
+      <c r="R72">
+        <v>2.9435599999999999E-2</v>
+      </c>
+      <c r="S72">
+        <v>4.4660999999999998E-3</v>
+      </c>
+      <c r="T72">
         <v>0.67498979999999997</v>
       </c>
-      <c r="O72">
+      <c r="U72">
         <v>0.71224120000000002</v>
       </c>
-      <c r="P72">
+      <c r="V72">
         <v>0.69361550000000005</v>
       </c>
-      <c r="Q72">
+      <c r="W72">
         <v>0.69743560000000004</v>
-      </c>
-      <c r="R72">
-        <v>0.32501020000000003</v>
-      </c>
-      <c r="S72">
-        <v>0.28775879999999998</v>
-      </c>
-      <c r="T72">
-        <v>3.7251300000000001E-2</v>
-      </c>
-      <c r="U72">
-        <v>4.4660999999999998E-3</v>
-      </c>
-      <c r="V72">
-        <v>2.9435599999999999E-2</v>
-      </c>
-      <c r="W72">
-        <v>3.2480999999999999E-3</v>
       </c>
       <c r="X72">
         <v>0.89816309999999999</v>
@@ -14274,10 +14274,10 @@
         <v>0.14326849999999999</v>
       </c>
       <c r="E73">
+        <v>7.0127400000000006E-2</v>
+      </c>
+      <c r="F73">
         <v>0.1159409</v>
-      </c>
-      <c r="F73">
-        <v>7.0127400000000006E-2</v>
       </c>
       <c r="G73">
         <v>3.11156E-2</v>
@@ -14301,34 +14301,34 @@
         <v>-2.30975E-2</v>
       </c>
       <c r="N73">
+        <v>0.32455889999999998</v>
+      </c>
+      <c r="O73">
+        <v>3.6760000000000001E-2</v>
+      </c>
+      <c r="P73">
+        <v>0.28779900000000003</v>
+      </c>
+      <c r="Q73">
+        <v>3.4174000000000001E-3</v>
+      </c>
+      <c r="R73">
+        <v>2.88168E-2</v>
+      </c>
+      <c r="S73">
+        <v>4.5256999999999997E-3</v>
+      </c>
+      <c r="T73">
         <v>0.67544099999999996</v>
       </c>
-      <c r="O73">
+      <c r="U73">
         <v>0.71220099999999997</v>
       </c>
-      <c r="P73">
+      <c r="V73">
         <v>0.69382100000000002</v>
       </c>
-      <c r="Q73">
+      <c r="W73">
         <v>0.69743849999999996</v>
-      </c>
-      <c r="R73">
-        <v>0.32455889999999998</v>
-      </c>
-      <c r="S73">
-        <v>0.28779900000000003</v>
-      </c>
-      <c r="T73">
-        <v>3.6760000000000001E-2</v>
-      </c>
-      <c r="U73">
-        <v>4.5256999999999997E-3</v>
-      </c>
-      <c r="V73">
-        <v>2.88168E-2</v>
-      </c>
-      <c r="W73">
-        <v>3.4174000000000001E-3</v>
       </c>
       <c r="X73">
         <v>0.90856009999999998</v>
@@ -14468,10 +14468,10 @@
         <v>0.13619049999999999</v>
       </c>
       <c r="E74">
+        <v>7.5627899999999998E-2</v>
+      </c>
+      <c r="F74">
         <v>0.1152659</v>
-      </c>
-      <c r="F74">
-        <v>7.5627899999999998E-2</v>
       </c>
       <c r="G74">
         <v>3.00968E-2</v>
@@ -14495,34 +14495,34 @@
         <v>-2.28357E-2</v>
       </c>
       <c r="N74">
+        <v>0.32325759999999998</v>
+      </c>
+      <c r="O74">
+        <v>3.5723199999999997E-2</v>
+      </c>
+      <c r="P74">
+        <v>0.28753440000000002</v>
+      </c>
+      <c r="Q74">
+        <v>3.6638999999999999E-3</v>
+      </c>
+      <c r="R74">
+        <v>2.8062299999999998E-2</v>
+      </c>
+      <c r="S74">
+        <v>4.0803000000000002E-3</v>
+      </c>
+      <c r="T74">
         <v>0.67674239999999997</v>
       </c>
-      <c r="O74">
+      <c r="U74">
         <v>0.71246560000000003</v>
       </c>
-      <c r="P74">
+      <c r="V74">
         <v>0.694604</v>
       </c>
-      <c r="Q74">
+      <c r="W74">
         <v>0.69816210000000001</v>
-      </c>
-      <c r="R74">
-        <v>0.32325759999999998</v>
-      </c>
-      <c r="S74">
-        <v>0.28753440000000002</v>
-      </c>
-      <c r="T74">
-        <v>3.5723199999999997E-2</v>
-      </c>
-      <c r="U74">
-        <v>4.0803000000000002E-3</v>
-      </c>
-      <c r="V74">
-        <v>2.8062299999999998E-2</v>
-      </c>
-      <c r="W74">
-        <v>3.6638999999999999E-3</v>
       </c>
       <c r="X74">
         <v>0.91737219999999997</v>
@@ -14662,10 +14662,10 @@
         <v>0.1399165</v>
       </c>
       <c r="E75">
+        <v>7.88248E-2</v>
+      </c>
+      <c r="F75">
         <v>0.107753</v>
-      </c>
-      <c r="F75">
-        <v>7.88248E-2</v>
       </c>
       <c r="G75">
         <v>3.03521E-2</v>
@@ -14689,34 +14689,34 @@
         <v>-2.3555300000000001E-2</v>
       </c>
       <c r="N75">
+        <v>0.32308979999999998</v>
+      </c>
+      <c r="O75">
+        <v>3.5763299999999998E-2</v>
+      </c>
+      <c r="P75">
+        <v>0.28732649999999998</v>
+      </c>
+      <c r="Q75">
+        <v>4.1177000000000002E-3</v>
+      </c>
+      <c r="R75">
+        <v>2.7680300000000001E-2</v>
+      </c>
+      <c r="S75">
+        <v>3.9652000000000003E-3</v>
+      </c>
+      <c r="T75">
         <v>0.67691020000000002</v>
       </c>
-      <c r="O75">
+      <c r="U75">
         <v>0.71267349999999996</v>
       </c>
-      <c r="P75">
+      <c r="V75">
         <v>0.69479190000000002</v>
       </c>
-      <c r="Q75">
+      <c r="W75">
         <v>0.69855900000000004</v>
-      </c>
-      <c r="R75">
-        <v>0.32308979999999998</v>
-      </c>
-      <c r="S75">
-        <v>0.28732649999999998</v>
-      </c>
-      <c r="T75">
-        <v>3.5763299999999998E-2</v>
-      </c>
-      <c r="U75">
-        <v>3.9652000000000003E-3</v>
-      </c>
-      <c r="V75">
-        <v>2.7680300000000001E-2</v>
-      </c>
-      <c r="W75">
-        <v>4.1177000000000002E-3</v>
       </c>
       <c r="X75">
         <v>0.90934230000000005</v>
@@ -14856,10 +14856,10 @@
         <v>0.1473988</v>
       </c>
       <c r="E76">
+        <v>7.5019299999999997E-2</v>
+      </c>
+      <c r="F76">
         <v>0.1000653</v>
-      </c>
-      <c r="F76">
-        <v>7.5019299999999997E-2</v>
       </c>
       <c r="G76">
         <v>3.0268900000000001E-2</v>
@@ -14883,34 +14883,34 @@
         <v>-2.29123E-2</v>
       </c>
       <c r="N76">
+        <v>0.34034399999999998</v>
+      </c>
+      <c r="O76">
+        <v>3.5517800000000002E-2</v>
+      </c>
+      <c r="P76">
+        <v>0.30482619999999999</v>
+      </c>
+      <c r="Q76">
+        <v>4.5963999999999996E-3</v>
+      </c>
+      <c r="R76">
+        <v>2.7091E-2</v>
+      </c>
+      <c r="S76">
+        <v>3.8303999999999999E-3</v>
+      </c>
+      <c r="T76">
         <v>0.65965589999999996</v>
       </c>
-      <c r="O76">
+      <c r="U76">
         <v>0.69517370000000001</v>
       </c>
-      <c r="P76">
+      <c r="V76">
         <v>0.67741479999999998</v>
       </c>
-      <c r="Q76">
+      <c r="W76">
         <v>0.68071760000000003</v>
-      </c>
-      <c r="R76">
-        <v>0.34034399999999998</v>
-      </c>
-      <c r="S76">
-        <v>0.30482619999999999</v>
-      </c>
-      <c r="T76">
-        <v>3.5517800000000002E-2</v>
-      </c>
-      <c r="U76">
-        <v>3.8303999999999999E-3</v>
-      </c>
-      <c r="V76">
-        <v>2.7091E-2</v>
-      </c>
-      <c r="W76">
-        <v>4.5963999999999996E-3</v>
       </c>
       <c r="X76">
         <v>0.86907049999999997</v>
@@ -15050,10 +15050,10 @@
         <v>0.14660219999999999</v>
       </c>
       <c r="E77">
+        <v>7.6545299999999997E-2</v>
+      </c>
+      <c r="F77">
         <v>0.1024341</v>
-      </c>
-      <c r="F77">
-        <v>7.6545299999999997E-2</v>
       </c>
       <c r="G77">
         <v>3.0746200000000001E-2</v>
@@ -15077,34 +15077,34 @@
         <v>-2.2852999999999998E-2</v>
       </c>
       <c r="N77">
+        <v>0.34526259999999998</v>
+      </c>
+      <c r="O77">
+        <v>3.5975300000000002E-2</v>
+      </c>
+      <c r="P77">
+        <v>0.30928739999999999</v>
+      </c>
+      <c r="Q77">
+        <v>4.4968999999999999E-3</v>
+      </c>
+      <c r="R77">
+        <v>2.6856499999999998E-2</v>
+      </c>
+      <c r="S77">
+        <v>4.6217999999999997E-3</v>
+      </c>
+      <c r="T77">
         <v>0.65473740000000002</v>
       </c>
-      <c r="O77">
+      <c r="U77">
         <v>0.69071260000000001</v>
       </c>
-      <c r="P77">
+      <c r="V77">
         <v>0.67272500000000002</v>
       </c>
-      <c r="Q77">
+      <c r="W77">
         <v>0.67597839999999998</v>
-      </c>
-      <c r="R77">
-        <v>0.34526259999999998</v>
-      </c>
-      <c r="S77">
-        <v>0.30928739999999999</v>
-      </c>
-      <c r="T77">
-        <v>3.5975300000000002E-2</v>
-      </c>
-      <c r="U77">
-        <v>4.6217999999999997E-3</v>
-      </c>
-      <c r="V77">
-        <v>2.6856499999999998E-2</v>
-      </c>
-      <c r="W77">
-        <v>4.4968999999999999E-3</v>
       </c>
       <c r="X77">
         <v>0.86765440000000005</v>
@@ -15244,10 +15244,10 @@
         <v>0.1371281</v>
       </c>
       <c r="E78">
+        <v>8.2908999999999997E-2</v>
+      </c>
+      <c r="F78">
         <v>0.1093285</v>
-      </c>
-      <c r="F78">
-        <v>8.2908999999999997E-2</v>
       </c>
       <c r="G78">
         <v>3.0550500000000001E-2</v>
@@ -15271,34 +15271,34 @@
         <v>-2.2411199999999999E-2</v>
       </c>
       <c r="N78">
+        <v>0.34678100000000001</v>
+      </c>
+      <c r="O78">
+        <v>3.56362E-2</v>
+      </c>
+      <c r="P78">
+        <v>0.3111447</v>
+      </c>
+      <c r="Q78">
+        <v>4.2583999999999999E-3</v>
+      </c>
+      <c r="R78">
+        <v>2.6559099999999999E-2</v>
+      </c>
+      <c r="S78">
+        <v>4.8187000000000004E-3</v>
+      </c>
+      <c r="T78">
         <v>0.65321899999999999</v>
       </c>
-      <c r="O78">
+      <c r="U78">
         <v>0.6888552</v>
       </c>
-      <c r="P78">
+      <c r="V78">
         <v>0.67103710000000005</v>
       </c>
-      <c r="Q78">
+      <c r="W78">
         <v>0.67389339999999998</v>
-      </c>
-      <c r="R78">
-        <v>0.34678100000000001</v>
-      </c>
-      <c r="S78">
-        <v>0.3111447</v>
-      </c>
-      <c r="T78">
-        <v>3.56362E-2</v>
-      </c>
-      <c r="U78">
-        <v>4.8187000000000004E-3</v>
-      </c>
-      <c r="V78">
-        <v>2.6559099999999999E-2</v>
-      </c>
-      <c r="W78">
-        <v>4.2583999999999999E-3</v>
       </c>
       <c r="X78">
         <v>0.88258000000000003</v>
@@ -15444,10 +15444,10 @@
         <v>0.12875229999999999</v>
       </c>
       <c r="E79">
+        <v>8.7982599999999994E-2</v>
+      </c>
+      <c r="F79">
         <v>0.11689910000000001</v>
-      </c>
-      <c r="F79">
-        <v>8.7982599999999994E-2</v>
       </c>
       <c r="G79">
         <v>3.02773E-2</v>
@@ -15471,34 +15471,34 @@
         <v>-2.1835899999999998E-2</v>
       </c>
       <c r="N79">
+        <v>0.34927849999999999</v>
+      </c>
+      <c r="O79">
+        <v>3.5184800000000002E-2</v>
+      </c>
+      <c r="P79">
+        <v>0.31409369999999998</v>
+      </c>
+      <c r="Q79">
+        <v>4.3486999999999996E-3</v>
+      </c>
+      <c r="R79">
+        <v>2.63392E-2</v>
+      </c>
+      <c r="S79">
+        <v>4.4968999999999999E-3</v>
+      </c>
+      <c r="T79">
         <v>0.65072140000000001</v>
       </c>
-      <c r="O79">
+      <c r="U79">
         <v>0.68590629999999997</v>
       </c>
-      <c r="P79">
+      <c r="V79">
         <v>0.66831390000000002</v>
       </c>
-      <c r="Q79">
+      <c r="W79">
         <v>0.67068680000000003</v>
-      </c>
-      <c r="R79">
-        <v>0.34927849999999999</v>
-      </c>
-      <c r="S79">
-        <v>0.31409369999999998</v>
-      </c>
-      <c r="T79">
-        <v>3.5184800000000002E-2</v>
-      </c>
-      <c r="U79">
-        <v>4.4968999999999999E-3</v>
-      </c>
-      <c r="V79">
-        <v>2.63392E-2</v>
-      </c>
-      <c r="W79">
-        <v>4.3486999999999996E-3</v>
       </c>
       <c r="X79">
         <v>0.89541680000000001</v>
@@ -15644,10 +15644,10 @@
         <v>0.13012090000000001</v>
       </c>
       <c r="E80">
+        <v>9.1576900000000003E-2</v>
+      </c>
+      <c r="F80">
         <v>0.1193621</v>
-      </c>
-      <c r="F80">
-        <v>9.1576900000000003E-2</v>
       </c>
       <c r="G80">
         <v>3.1553299999999999E-2</v>
@@ -15671,34 +15671,34 @@
         <v>-2.2476200000000002E-2</v>
       </c>
       <c r="N80">
+        <v>0.35105219999999998</v>
+      </c>
+      <c r="O80">
+        <v>3.6418800000000001E-2</v>
+      </c>
+      <c r="P80">
+        <v>0.31463340000000001</v>
+      </c>
+      <c r="Q80">
+        <v>4.9642000000000002E-3</v>
+      </c>
+      <c r="R80">
+        <v>2.6666100000000002E-2</v>
+      </c>
+      <c r="S80">
+        <v>4.7885000000000002E-3</v>
+      </c>
+      <c r="T80">
         <v>0.64894779999999996</v>
       </c>
-      <c r="O80">
+      <c r="U80">
         <v>0.68536660000000005</v>
       </c>
-      <c r="P80">
+      <c r="V80">
         <v>0.66715720000000001</v>
       </c>
-      <c r="Q80">
+      <c r="W80">
         <v>0.66915049999999998</v>
-      </c>
-      <c r="R80">
-        <v>0.35105219999999998</v>
-      </c>
-      <c r="S80">
-        <v>0.31463340000000001</v>
-      </c>
-      <c r="T80">
-        <v>3.6418800000000001E-2</v>
-      </c>
-      <c r="U80">
-        <v>4.7885000000000002E-3</v>
-      </c>
-      <c r="V80">
-        <v>2.6666100000000002E-2</v>
-      </c>
-      <c r="W80">
-        <v>4.9642000000000002E-3</v>
       </c>
       <c r="X80">
         <v>0.90117130000000001</v>
@@ -15844,10 +15844,10 @@
         <v>0.14062730000000001</v>
       </c>
       <c r="E81">
+        <v>8.8230100000000006E-2</v>
+      </c>
+      <c r="F81">
         <v>0.1121688</v>
-      </c>
-      <c r="F81">
-        <v>8.8230100000000006E-2</v>
       </c>
       <c r="G81">
         <v>3.2793200000000002E-2</v>
@@ -15871,34 +15871,34 @@
         <v>-2.3291200000000001E-2</v>
       </c>
       <c r="N81">
+        <v>0.34987180000000001</v>
+      </c>
+      <c r="O81">
+        <v>3.7552099999999998E-2</v>
+      </c>
+      <c r="P81">
+        <v>0.31231969999999998</v>
+      </c>
+      <c r="Q81">
+        <v>5.4904999999999997E-3</v>
+      </c>
+      <c r="R81">
+        <v>2.7933599999999999E-2</v>
+      </c>
+      <c r="S81">
+        <v>4.1279000000000003E-3</v>
+      </c>
+      <c r="T81">
         <v>0.65012820000000004</v>
       </c>
-      <c r="O81">
+      <c r="U81">
         <v>0.68768030000000002</v>
       </c>
-      <c r="P81">
+      <c r="V81">
         <v>0.66890430000000001</v>
       </c>
-      <c r="Q81">
+      <c r="W81">
         <v>0.67121520000000001</v>
-      </c>
-      <c r="R81">
-        <v>0.34987180000000001</v>
-      </c>
-      <c r="S81">
-        <v>0.31231969999999998</v>
-      </c>
-      <c r="T81">
-        <v>3.7552099999999998E-2</v>
-      </c>
-      <c r="U81">
-        <v>4.1279000000000003E-3</v>
-      </c>
-      <c r="V81">
-        <v>2.7933599999999999E-2</v>
-      </c>
-      <c r="W81">
-        <v>5.4904999999999997E-3</v>
       </c>
       <c r="X81">
         <v>0.88698120000000003</v>
@@ -16044,10 +16044,10 @@
         <v>0.14726069999999999</v>
       </c>
       <c r="E82">
+        <v>8.7995000000000004E-2</v>
+      </c>
+      <c r="F82">
         <v>0.1095416</v>
-      </c>
-      <c r="F82">
-        <v>8.7995000000000004E-2</v>
       </c>
       <c r="G82">
         <v>3.4112900000000002E-2</v>
@@ -16071,34 +16071,34 @@
         <v>-2.3900600000000001E-2</v>
       </c>
       <c r="N82">
+        <v>0.36055219999999999</v>
+      </c>
+      <c r="O82">
+        <v>3.90268E-2</v>
+      </c>
+      <c r="P82">
+        <v>0.32152540000000002</v>
+      </c>
+      <c r="Q82">
+        <v>5.9217999999999996E-3</v>
+      </c>
+      <c r="R82">
+        <v>2.84318E-2</v>
+      </c>
+      <c r="S82">
+        <v>4.7089000000000002E-3</v>
+      </c>
+      <c r="T82">
         <v>0.63944769999999995</v>
       </c>
-      <c r="O82">
+      <c r="U82">
         <v>0.67847460000000004</v>
       </c>
-      <c r="P82">
+      <c r="V82">
         <v>0.65896120000000002</v>
       </c>
-      <c r="Q82">
+      <c r="W82">
         <v>0.66162849999999995</v>
-      </c>
-      <c r="R82">
-        <v>0.36055219999999999</v>
-      </c>
-      <c r="S82">
-        <v>0.32152540000000002</v>
-      </c>
-      <c r="T82">
-        <v>3.90268E-2</v>
-      </c>
-      <c r="U82">
-        <v>4.7089000000000002E-3</v>
-      </c>
-      <c r="V82">
-        <v>2.84318E-2</v>
-      </c>
-      <c r="W82">
-        <v>5.9217999999999996E-3</v>
       </c>
       <c r="X82">
         <v>0.87001899999999999</v>
@@ -16244,10 +16244,10 @@
         <v>0.16393659999999999</v>
       </c>
       <c r="E83">
+        <v>8.3946400000000004E-2</v>
+      </c>
+      <c r="F83">
         <v>0.10227890000000001</v>
-      </c>
-      <c r="F83">
-        <v>8.3946400000000004E-2</v>
       </c>
       <c r="G83">
         <v>3.6515300000000001E-2</v>
@@ -16271,34 +16271,34 @@
         <v>-2.56884E-2</v>
       </c>
       <c r="N83">
+        <v>0.35758649999999997</v>
+      </c>
+      <c r="O83">
+        <v>4.1436199999999999E-2</v>
+      </c>
+      <c r="P83">
+        <v>0.3161503</v>
+      </c>
+      <c r="Q83">
+        <v>6.5836000000000002E-3</v>
+      </c>
+      <c r="R83">
+        <v>3.01015E-2</v>
+      </c>
+      <c r="S83">
+        <v>4.7171000000000001E-3</v>
+      </c>
+      <c r="T83">
         <v>0.64241360000000003</v>
       </c>
-      <c r="O83">
+      <c r="U83">
         <v>0.6838497</v>
       </c>
-      <c r="P83">
+      <c r="V83">
         <v>0.66313169999999999</v>
       </c>
-      <c r="Q83">
+      <c r="W83">
         <v>0.6655664</v>
-      </c>
-      <c r="R83">
-        <v>0.35758649999999997</v>
-      </c>
-      <c r="S83">
-        <v>0.3161503</v>
-      </c>
-      <c r="T83">
-        <v>4.1436199999999999E-2</v>
-      </c>
-      <c r="U83">
-        <v>4.7171000000000001E-3</v>
-      </c>
-      <c r="V83">
-        <v>3.01015E-2</v>
-      </c>
-      <c r="W83">
-        <v>6.5836000000000002E-3</v>
       </c>
       <c r="X83">
         <v>0.85971209999999998</v>
@@ -16444,10 +16444,10 @@
         <v>0.16906650000000001</v>
       </c>
       <c r="E84">
+        <v>8.2498600000000005E-2</v>
+      </c>
+      <c r="F84">
         <v>0.10170609999999999</v>
-      </c>
-      <c r="F84">
-        <v>8.2498600000000005E-2</v>
       </c>
       <c r="G84">
         <v>3.7479400000000003E-2</v>
@@ -16471,34 +16471,34 @@
         <v>-2.5663499999999999E-2</v>
       </c>
       <c r="N84">
+        <v>0.37221199999999999</v>
+      </c>
+      <c r="O84">
+        <v>4.2486799999999998E-2</v>
+      </c>
+      <c r="P84">
+        <v>0.3297252</v>
+      </c>
+      <c r="Q84">
+        <v>7.1123000000000002E-3</v>
+      </c>
+      <c r="R84">
+        <v>3.0601699999999999E-2</v>
+      </c>
+      <c r="S84">
+        <v>4.7727000000000004E-3</v>
+      </c>
+      <c r="T84">
         <v>0.62778800000000001</v>
       </c>
-      <c r="O84">
+      <c r="U84">
         <v>0.67027479999999995</v>
       </c>
-      <c r="P84">
+      <c r="V84">
         <v>0.64903140000000004</v>
       </c>
-      <c r="Q84">
+      <c r="W84">
         <v>0.65112049999999999</v>
-      </c>
-      <c r="R84">
-        <v>0.37221199999999999</v>
-      </c>
-      <c r="S84">
-        <v>0.3297252</v>
-      </c>
-      <c r="T84">
-        <v>4.2486799999999998E-2</v>
-      </c>
-      <c r="U84">
-        <v>4.7727000000000004E-3</v>
-      </c>
-      <c r="V84">
-        <v>3.0601699999999999E-2</v>
-      </c>
-      <c r="W84">
-        <v>7.1123000000000002E-3</v>
       </c>
       <c r="X84">
         <v>0.8385068</v>
@@ -16644,10 +16644,10 @@
         <v>0.16696800000000001</v>
       </c>
       <c r="E85">
+        <v>8.7353899999999998E-2</v>
+      </c>
+      <c r="F85">
         <v>0.10664750000000001</v>
-      </c>
-      <c r="F85">
-        <v>8.7353899999999998E-2</v>
       </c>
       <c r="G85">
         <v>3.8884500000000002E-2</v>
@@ -16671,34 +16671,34 @@
         <v>-2.66278E-2</v>
       </c>
       <c r="N85">
+        <v>0.37416329999999998</v>
+      </c>
+      <c r="O85">
+        <v>4.4341499999999999E-2</v>
+      </c>
+      <c r="P85">
+        <v>0.3298218</v>
+      </c>
+      <c r="Q85">
+        <v>7.9363000000000003E-3</v>
+      </c>
+      <c r="R85">
+        <v>3.1406200000000002E-2</v>
+      </c>
+      <c r="S85">
+        <v>5.0273000000000002E-3</v>
+      </c>
+      <c r="T85">
         <v>0.62583670000000002</v>
       </c>
-      <c r="O85">
+      <c r="U85">
         <v>0.67017819999999995</v>
       </c>
-      <c r="P85">
+      <c r="V85">
         <v>0.64800749999999996</v>
       </c>
-      <c r="Q85">
+      <c r="W85">
         <v>0.64992899999999998</v>
-      </c>
-      <c r="R85">
-        <v>0.37416329999999998</v>
-      </c>
-      <c r="S85">
-        <v>0.3298218</v>
-      </c>
-      <c r="T85">
-        <v>4.4341499999999999E-2</v>
-      </c>
-      <c r="U85">
-        <v>5.0273000000000002E-3</v>
-      </c>
-      <c r="V85">
-        <v>3.1406200000000002E-2</v>
-      </c>
-      <c r="W85">
-        <v>7.9363000000000003E-3</v>
       </c>
       <c r="X85">
         <v>0.85213810000000001</v>
@@ -16844,10 +16844,10 @@
         <v>0.17242730000000001</v>
       </c>
       <c r="E86">
+        <v>8.65176E-2</v>
+      </c>
+      <c r="F86">
         <v>0.1082738</v>
-      </c>
-      <c r="F86">
-        <v>8.65176E-2</v>
       </c>
       <c r="G86">
         <v>4.0585400000000001E-2</v>
@@ -16871,34 +16871,34 @@
         <v>-2.7306E-2</v>
       </c>
       <c r="N86">
+        <v>0.37360939999999998</v>
+      </c>
+      <c r="O86">
+        <v>4.6205900000000001E-2</v>
+      </c>
+      <c r="P86">
+        <v>0.32740350000000001</v>
+      </c>
+      <c r="Q86">
+        <v>8.5800000000000008E-3</v>
+      </c>
+      <c r="R86">
+        <v>3.27456E-2</v>
+      </c>
+      <c r="S86">
+        <v>4.8804E-3</v>
+      </c>
+      <c r="T86">
         <v>0.62639060000000002</v>
       </c>
-      <c r="O86">
+      <c r="U86">
         <v>0.67259659999999999</v>
       </c>
-      <c r="P86">
+      <c r="V86">
         <v>0.6494936</v>
       </c>
-      <c r="Q86">
+      <c r="W86">
         <v>0.65122630000000004</v>
-      </c>
-      <c r="R86">
-        <v>0.37360939999999998</v>
-      </c>
-      <c r="S86">
-        <v>0.32740350000000001</v>
-      </c>
-      <c r="T86">
-        <v>4.6205900000000001E-2</v>
-      </c>
-      <c r="U86">
-        <v>4.8804E-3</v>
-      </c>
-      <c r="V86">
-        <v>3.27456E-2</v>
-      </c>
-      <c r="W86">
-        <v>8.5800000000000008E-3</v>
       </c>
       <c r="X86">
         <v>0.85569379999999995</v>
@@ -17044,10 +17044,10 @@
         <v>0.1763439</v>
       </c>
       <c r="E87">
+        <v>8.44834E-2</v>
+      </c>
+      <c r="F87">
         <v>0.10756400000000001</v>
-      </c>
-      <c r="F87">
-        <v>8.44834E-2</v>
       </c>
       <c r="G87">
         <v>4.1117099999999997E-2</v>
@@ -17071,34 +17071,34 @@
         <v>-2.8097E-2</v>
       </c>
       <c r="N87">
+        <v>0.36835960000000001</v>
+      </c>
+      <c r="O87">
+        <v>4.6787299999999997E-2</v>
+      </c>
+      <c r="P87">
+        <v>0.32157239999999998</v>
+      </c>
+      <c r="Q87">
+        <v>8.7959000000000006E-3</v>
+      </c>
+      <c r="R87">
+        <v>3.2698900000000003E-2</v>
+      </c>
+      <c r="S87">
+        <v>5.3172999999999996E-3</v>
+      </c>
+      <c r="T87">
         <v>0.63164039999999999</v>
       </c>
-      <c r="O87">
+      <c r="U87">
         <v>0.67842760000000002</v>
       </c>
-      <c r="P87">
+      <c r="V87">
         <v>0.65503400000000001</v>
       </c>
-      <c r="Q87">
+      <c r="W87">
         <v>0.65606799999999998</v>
-      </c>
-      <c r="R87">
-        <v>0.36835960000000001</v>
-      </c>
-      <c r="S87">
-        <v>0.32157239999999998</v>
-      </c>
-      <c r="T87">
-        <v>4.6787299999999997E-2</v>
-      </c>
-      <c r="U87">
-        <v>5.3172999999999996E-3</v>
-      </c>
-      <c r="V87">
-        <v>3.2698900000000003E-2</v>
-      </c>
-      <c r="W87">
-        <v>8.7959000000000006E-3</v>
       </c>
       <c r="X87">
         <v>0.85974700000000004</v>
@@ -17244,10 +17244,10 @@
         <v>0.18155650000000001</v>
       </c>
       <c r="E88">
+        <v>8.1356100000000001E-2</v>
+      </c>
+      <c r="F88">
         <v>0.10600999999999999</v>
-      </c>
-      <c r="F88">
-        <v>8.1356100000000001E-2</v>
       </c>
       <c r="G88">
         <v>4.1563700000000002E-2</v>
@@ -17271,34 +17271,34 @@
         <v>-2.8818699999999999E-2</v>
       </c>
       <c r="N88">
+        <v>0.35966130000000002</v>
+      </c>
+      <c r="O88">
+        <v>4.7465599999999997E-2</v>
+      </c>
+      <c r="P88">
+        <v>0.31219570000000002</v>
+      </c>
+      <c r="Q88">
+        <v>9.3614000000000006E-3</v>
+      </c>
+      <c r="R88">
+        <v>3.2953099999999999E-2</v>
+      </c>
+      <c r="S88">
+        <v>5.1510999999999996E-3</v>
+      </c>
+      <c r="T88">
         <v>0.64033870000000004</v>
       </c>
-      <c r="O88">
+      <c r="U88">
         <v>0.68780430000000004</v>
       </c>
-      <c r="P88">
+      <c r="V88">
         <v>0.66407150000000004</v>
       </c>
-      <c r="Q88">
+      <c r="W88">
         <v>0.66438940000000002</v>
-      </c>
-      <c r="R88">
-        <v>0.35966130000000002</v>
-      </c>
-      <c r="S88">
-        <v>0.31219570000000002</v>
-      </c>
-      <c r="T88">
-        <v>4.7465599999999997E-2</v>
-      </c>
-      <c r="U88">
-        <v>5.1510999999999996E-3</v>
-      </c>
-      <c r="V88">
-        <v>3.2953099999999999E-2</v>
-      </c>
-      <c r="W88">
-        <v>9.3614000000000006E-3</v>
       </c>
       <c r="X88">
         <v>0.86700630000000001</v>
@@ -17444,10 +17444,10 @@
         <v>0.18644069999999999</v>
       </c>
       <c r="E89">
+        <v>8.0398700000000003E-2</v>
+      </c>
+      <c r="F89">
         <v>0.1011</v>
-      </c>
-      <c r="F89">
-        <v>8.0398700000000003E-2</v>
       </c>
       <c r="G89">
         <v>4.1593499999999999E-2</v>
@@ -17471,34 +17471,34 @@
         <v>-2.9824699999999999E-2</v>
       </c>
       <c r="N89">
+        <v>0.3543442</v>
+      </c>
+      <c r="O89">
+        <v>4.7701399999999998E-2</v>
+      </c>
+      <c r="P89">
+        <v>0.30664269999999999</v>
+      </c>
+      <c r="Q89">
+        <v>1.0009000000000001E-2</v>
+      </c>
+      <c r="R89">
+        <v>3.2655099999999999E-2</v>
+      </c>
+      <c r="S89">
+        <v>5.0372999999999998E-3</v>
+      </c>
+      <c r="T89">
         <v>0.64565589999999995</v>
       </c>
-      <c r="O89">
+      <c r="U89">
         <v>0.69335729999999995</v>
       </c>
-      <c r="P89">
+      <c r="V89">
         <v>0.6695065</v>
       </c>
-      <c r="Q89">
+      <c r="W89">
         <v>0.66920659999999998</v>
-      </c>
-      <c r="R89">
-        <v>0.3543442</v>
-      </c>
-      <c r="S89">
-        <v>0.30664269999999999</v>
-      </c>
-      <c r="T89">
-        <v>4.7701399999999998E-2</v>
-      </c>
-      <c r="U89">
-        <v>5.0372999999999998E-3</v>
-      </c>
-      <c r="V89">
-        <v>3.2655099999999999E-2</v>
-      </c>
-      <c r="W89">
-        <v>1.0009000000000001E-2</v>
       </c>
       <c r="X89">
         <v>0.86764580000000002</v>
@@ -17644,10 +17644,10 @@
         <v>0.19314770000000001</v>
       </c>
       <c r="E90">
+        <v>8.0101400000000003E-2</v>
+      </c>
+      <c r="F90">
         <v>9.6054299999999995E-2</v>
-      </c>
-      <c r="F90">
-        <v>8.0101400000000003E-2</v>
       </c>
       <c r="G90">
         <v>4.2168900000000002E-2</v>
@@ -17671,34 +17671,34 @@
         <v>-3.03819E-2</v>
       </c>
       <c r="N90">
+        <v>0.3630351</v>
+      </c>
+      <c r="O90">
+        <v>4.82654E-2</v>
+      </c>
+      <c r="P90">
+        <v>0.31476969999999999</v>
+      </c>
+      <c r="Q90">
+        <v>1.12193E-2</v>
+      </c>
+      <c r="R90">
+        <v>3.1892900000000002E-2</v>
+      </c>
+      <c r="S90">
+        <v>5.1532000000000001E-3</v>
+      </c>
+      <c r="T90">
         <v>0.63696489999999995</v>
       </c>
-      <c r="O90">
+      <c r="U90">
         <v>0.68523029999999996</v>
       </c>
-      <c r="P90">
+      <c r="V90">
         <v>0.66109759999999995</v>
       </c>
-      <c r="Q90">
+      <c r="W90">
         <v>0.66016719999999995</v>
-      </c>
-      <c r="R90">
-        <v>0.3630351</v>
-      </c>
-      <c r="S90">
-        <v>0.31476969999999999</v>
-      </c>
-      <c r="T90">
-        <v>4.82654E-2</v>
-      </c>
-      <c r="U90">
-        <v>5.1532000000000001E-3</v>
-      </c>
-      <c r="V90">
-        <v>3.1892900000000002E-2</v>
-      </c>
-      <c r="W90">
-        <v>1.12193E-2</v>
       </c>
       <c r="X90">
         <v>0.84916020000000003</v>
@@ -17844,10 +17844,10 @@
         <v>0.20250460000000001</v>
       </c>
       <c r="E91">
+        <v>7.6537400000000005E-2</v>
+      </c>
+      <c r="F91">
         <v>9.2200400000000002E-2</v>
-      </c>
-      <c r="F91">
-        <v>7.6537400000000005E-2</v>
       </c>
       <c r="G91">
         <v>4.2846799999999997E-2</v>
@@ -17871,34 +17871,34 @@
         <v>-3.1397700000000001E-2</v>
       </c>
       <c r="N91">
+        <v>0.35908210000000002</v>
+      </c>
+      <c r="O91">
+        <v>4.9022400000000001E-2</v>
+      </c>
+      <c r="P91">
+        <v>0.31005969999999999</v>
+      </c>
+      <c r="Q91">
+        <v>1.1819100000000001E-2</v>
+      </c>
+      <c r="R91">
+        <v>3.1946099999999998E-2</v>
+      </c>
+      <c r="S91">
+        <v>5.2763999999999997E-3</v>
+      </c>
+      <c r="T91">
         <v>0.64091790000000004</v>
       </c>
-      <c r="O91">
+      <c r="U91">
         <v>0.68994029999999995</v>
       </c>
-      <c r="P91">
+      <c r="V91">
         <v>0.6654291</v>
       </c>
-      <c r="Q91">
+      <c r="W91">
         <v>0.66507559999999999</v>
-      </c>
-      <c r="R91">
-        <v>0.35908210000000002</v>
-      </c>
-      <c r="S91">
-        <v>0.31005969999999999</v>
-      </c>
-      <c r="T91">
-        <v>4.9022400000000001E-2</v>
-      </c>
-      <c r="U91">
-        <v>5.2763999999999997E-3</v>
-      </c>
-      <c r="V91">
-        <v>3.1946099999999998E-2</v>
-      </c>
-      <c r="W91">
-        <v>1.1819100000000001E-2</v>
       </c>
       <c r="X91">
         <v>0.84562800000000005</v>
@@ -18044,10 +18044,10 @@
         <v>0.22020509999999999</v>
       </c>
       <c r="E92">
+        <v>7.2489899999999996E-2</v>
+      </c>
+      <c r="F92">
         <v>8.3061300000000005E-2</v>
-      </c>
-      <c r="F92">
-        <v>7.2489899999999996E-2</v>
       </c>
       <c r="G92">
         <v>4.3925899999999997E-2</v>
@@ -18071,34 +18071,34 @@
         <v>-3.29565E-2</v>
       </c>
       <c r="N92">
+        <v>0.35796289999999997</v>
+      </c>
+      <c r="O92">
+        <v>5.0332099999999998E-2</v>
+      </c>
+      <c r="P92">
+        <v>0.30763079999999998</v>
+      </c>
+      <c r="Q92">
+        <v>1.2299300000000001E-2</v>
+      </c>
+      <c r="R92">
+        <v>3.2562399999999998E-2</v>
+      </c>
+      <c r="S92">
+        <v>5.4704999999999997E-3</v>
+      </c>
+      <c r="T92">
         <v>0.64203710000000003</v>
       </c>
-      <c r="O92">
+      <c r="U92">
         <v>0.69236920000000002</v>
       </c>
-      <c r="P92">
+      <c r="V92">
         <v>0.6672032</v>
       </c>
-      <c r="Q92">
+      <c r="W92">
         <v>0.66744749999999997</v>
-      </c>
-      <c r="R92">
-        <v>0.35796289999999997</v>
-      </c>
-      <c r="S92">
-        <v>0.30763079999999998</v>
-      </c>
-      <c r="T92">
-        <v>5.0332099999999998E-2</v>
-      </c>
-      <c r="U92">
-        <v>5.4704999999999997E-3</v>
-      </c>
-      <c r="V92">
-        <v>3.2562399999999998E-2</v>
-      </c>
-      <c r="W92">
-        <v>1.2299300000000001E-2</v>
       </c>
       <c r="X92">
         <v>0.83226800000000001</v>
@@ -18244,10 +18244,10 @@
         <v>0.21854460000000001</v>
       </c>
       <c r="E93">
+        <v>7.1576500000000001E-2</v>
+      </c>
+      <c r="F93">
         <v>8.1591300000000005E-2</v>
-      </c>
-      <c r="F93">
-        <v>7.1576500000000001E-2</v>
       </c>
       <c r="G93">
         <v>4.2835499999999999E-2</v>
@@ -18271,34 +18271,34 @@
         <v>-3.2788200000000003E-2</v>
       </c>
       <c r="N93">
+        <v>0.35268579999999999</v>
+      </c>
+      <c r="O93">
+        <v>4.92871E-2</v>
+      </c>
+      <c r="P93">
+        <v>0.30339870000000002</v>
+      </c>
+      <c r="Q93">
+        <v>1.22644E-2</v>
+      </c>
+      <c r="R93">
+        <v>3.15169E-2</v>
+      </c>
+      <c r="S93">
+        <v>5.5057999999999999E-3</v>
+      </c>
+      <c r="T93">
         <v>0.64731419999999995</v>
       </c>
-      <c r="O93">
+      <c r="U93">
         <v>0.69660129999999998</v>
       </c>
-      <c r="P93">
+      <c r="V93">
         <v>0.67195769999999999</v>
       </c>
-      <c r="Q93">
+      <c r="W93">
         <v>0.67222479999999996</v>
-      </c>
-      <c r="R93">
-        <v>0.35268579999999999</v>
-      </c>
-      <c r="S93">
-        <v>0.30339870000000002</v>
-      </c>
-      <c r="T93">
-        <v>4.92871E-2</v>
-      </c>
-      <c r="U93">
-        <v>5.5057999999999999E-3</v>
-      </c>
-      <c r="V93">
-        <v>3.15169E-2</v>
-      </c>
-      <c r="W93">
-        <v>1.22644E-2</v>
       </c>
       <c r="X93">
         <v>0.83580940000000004</v>
@@ -18444,10 +18444,10 @@
         <v>0.21046870000000001</v>
       </c>
       <c r="E94">
+        <v>7.4038400000000004E-2</v>
+      </c>
+      <c r="F94">
         <v>8.3646799999999993E-2</v>
-      </c>
-      <c r="F94">
-        <v>7.4038400000000004E-2</v>
       </c>
       <c r="G94">
         <v>4.2034799999999997E-2</v>
@@ -18471,34 +18471,34 @@
         <v>-3.2107200000000002E-2</v>
       </c>
       <c r="N94">
+        <v>0.35996450000000002</v>
+      </c>
+      <c r="O94">
+        <v>4.8338399999999997E-2</v>
+      </c>
+      <c r="P94">
+        <v>0.31162600000000001</v>
+      </c>
+      <c r="Q94">
+        <v>1.27092E-2</v>
+      </c>
+      <c r="R94">
+        <v>3.0029199999999999E-2</v>
+      </c>
+      <c r="S94">
+        <v>5.6001000000000002E-3</v>
+      </c>
+      <c r="T94">
         <v>0.64003549999999998</v>
       </c>
-      <c r="O94">
+      <c r="U94">
         <v>0.68837389999999998</v>
       </c>
-      <c r="P94">
+      <c r="V94">
         <v>0.66420469999999998</v>
       </c>
-      <c r="Q94">
+      <c r="W94">
         <v>0.66449389999999997</v>
-      </c>
-      <c r="R94">
-        <v>0.35996450000000002</v>
-      </c>
-      <c r="S94">
-        <v>0.31162600000000001</v>
-      </c>
-      <c r="T94">
-        <v>4.8338399999999997E-2</v>
-      </c>
-      <c r="U94">
-        <v>5.6001000000000002E-3</v>
-      </c>
-      <c r="V94">
-        <v>3.0029199999999999E-2</v>
-      </c>
-      <c r="W94">
-        <v>1.27092E-2</v>
       </c>
       <c r="X94">
         <v>0.83085929999999997</v>
@@ -18644,10 +18644,10 @@
         <v>0.20146169999999999</v>
       </c>
       <c r="E95">
+        <v>7.6586299999999996E-2</v>
+      </c>
+      <c r="F95">
         <v>8.5341399999999998E-2</v>
-      </c>
-      <c r="F95">
-        <v>7.6586299999999996E-2</v>
       </c>
       <c r="G95">
         <v>4.08525E-2</v>
@@ -18671,34 +18671,34 @@
         <v>-3.1102399999999999E-2</v>
       </c>
       <c r="N95">
+        <v>0.36589690000000002</v>
+      </c>
+      <c r="O95">
+        <v>4.7120099999999998E-2</v>
+      </c>
+      <c r="P95">
+        <v>0.31877680000000003</v>
+      </c>
+      <c r="Q95">
+        <v>1.2472499999999999E-2</v>
+      </c>
+      <c r="R95">
+        <v>2.89337E-2</v>
+      </c>
+      <c r="S95">
+        <v>5.7139000000000001E-3</v>
+      </c>
+      <c r="T95">
         <v>0.63410310000000003</v>
       </c>
-      <c r="O95">
+      <c r="U95">
         <v>0.68122320000000003</v>
       </c>
-      <c r="P95">
+      <c r="V95">
         <v>0.65766309999999994</v>
       </c>
-      <c r="Q95">
+      <c r="W95">
         <v>0.65881049999999997</v>
-      </c>
-      <c r="R95">
-        <v>0.36589690000000002</v>
-      </c>
-      <c r="S95">
-        <v>0.31877680000000003</v>
-      </c>
-      <c r="T95">
-        <v>4.7120099999999998E-2</v>
-      </c>
-      <c r="U95">
-        <v>5.7139000000000001E-3</v>
-      </c>
-      <c r="V95">
-        <v>2.89337E-2</v>
-      </c>
-      <c r="W95">
-        <v>1.2472499999999999E-2</v>
       </c>
       <c r="X95">
         <v>0.82769300000000001</v>
@@ -18844,10 +18844,10 @@
         <v>0.20177310000000001</v>
       </c>
       <c r="E96">
+        <v>8.0029299999999998E-2</v>
+      </c>
+      <c r="F96">
         <v>8.6142099999999999E-2</v>
-      </c>
-      <c r="F96">
-        <v>8.0029299999999998E-2</v>
       </c>
       <c r="G96">
         <v>4.2004300000000001E-2</v>
@@ -18871,34 +18871,34 @@
         <v>-3.20579E-2</v>
       </c>
       <c r="N96">
+        <v>0.36731780000000003</v>
+      </c>
+      <c r="O96">
+        <v>4.8361800000000003E-2</v>
+      </c>
+      <c r="P96">
+        <v>0.31895590000000001</v>
+      </c>
+      <c r="Q96">
+        <v>1.2674400000000001E-2</v>
+      </c>
+      <c r="R96">
+        <v>2.9644E-2</v>
+      </c>
+      <c r="S96">
+        <v>6.0584000000000002E-3</v>
+      </c>
+      <c r="T96">
         <v>0.63268230000000003</v>
       </c>
-      <c r="O96">
+      <c r="U96">
         <v>0.68104410000000004</v>
       </c>
-      <c r="P96">
+      <c r="V96">
         <v>0.65686319999999998</v>
       </c>
-      <c r="Q96">
+      <c r="W96">
         <v>0.65892919999999999</v>
-      </c>
-      <c r="R96">
-        <v>0.36731780000000003</v>
-      </c>
-      <c r="S96">
-        <v>0.31895590000000001</v>
-      </c>
-      <c r="T96">
-        <v>4.8361800000000003E-2</v>
-      </c>
-      <c r="U96">
-        <v>6.0584000000000002E-3</v>
-      </c>
-      <c r="V96">
-        <v>2.9644E-2</v>
-      </c>
-      <c r="W96">
-        <v>1.2674400000000001E-2</v>
       </c>
       <c r="X96">
         <v>0.83213079999999995</v>
@@ -19044,10 +19044,10 @@
         <v>0.20199210000000001</v>
       </c>
       <c r="E97">
+        <v>8.0464800000000003E-2</v>
+      </c>
+      <c r="F97">
         <v>9.0225600000000003E-2</v>
-      </c>
-      <c r="F97">
-        <v>8.0464800000000003E-2</v>
       </c>
       <c r="G97">
         <v>4.3205199999999999E-2</v>
@@ -19071,34 +19071,34 @@
         <v>-3.3037999999999998E-2</v>
       </c>
       <c r="N97">
+        <v>0.36754160000000002</v>
+      </c>
+      <c r="O97">
+        <v>4.99449E-2</v>
+      </c>
+      <c r="P97">
+        <v>0.31759670000000001</v>
+      </c>
+      <c r="Q97">
+        <v>1.3417E-2</v>
+      </c>
+      <c r="R97">
+        <v>3.0184599999999999E-2</v>
+      </c>
+      <c r="S97">
+        <v>6.3432999999999996E-3</v>
+      </c>
+      <c r="T97">
         <v>0.63245839999999998</v>
       </c>
-      <c r="O97">
+      <c r="U97">
         <v>0.68240330000000005</v>
       </c>
-      <c r="P97">
+      <c r="V97">
         <v>0.65743090000000004</v>
       </c>
-      <c r="Q97">
+      <c r="W97">
         <v>0.6602382</v>
-      </c>
-      <c r="R97">
-        <v>0.36754160000000002</v>
-      </c>
-      <c r="S97">
-        <v>0.31759670000000001</v>
-      </c>
-      <c r="T97">
-        <v>4.99449E-2</v>
-      </c>
-      <c r="U97">
-        <v>6.3432999999999996E-3</v>
-      </c>
-      <c r="V97">
-        <v>3.0184599999999999E-2</v>
-      </c>
-      <c r="W97">
-        <v>1.3417E-2</v>
       </c>
       <c r="X97">
         <v>0.84021000000000001</v>
@@ -19244,10 +19244,10 @@
         <v>0.2093653</v>
       </c>
       <c r="E98">
+        <v>8.0173900000000006E-2</v>
+      </c>
+      <c r="F98">
         <v>8.9896900000000002E-2</v>
-      </c>
-      <c r="F98">
-        <v>8.0173900000000006E-2</v>
       </c>
       <c r="G98">
         <v>4.5035899999999997E-2</v>
@@ -19271,34 +19271,34 @@
         <v>-3.4598799999999999E-2</v>
       </c>
       <c r="N98">
+        <v>0.36503140000000001</v>
+      </c>
+      <c r="O98">
+        <v>5.2091499999999999E-2</v>
+      </c>
+      <c r="P98">
+        <v>0.31293989999999999</v>
+      </c>
+      <c r="Q98">
+        <v>1.5440000000000001E-2</v>
+      </c>
+      <c r="R98">
+        <v>3.04485E-2</v>
+      </c>
+      <c r="S98">
+        <v>6.2164999999999998E-3</v>
+      </c>
+      <c r="T98">
         <v>0.63496859999999999</v>
       </c>
-      <c r="O98">
+      <c r="U98">
         <v>0.68706009999999995</v>
       </c>
-      <c r="P98">
+      <c r="V98">
         <v>0.6610144</v>
       </c>
-      <c r="Q98">
+      <c r="W98">
         <v>0.66464500000000004</v>
-      </c>
-      <c r="R98">
-        <v>0.36503140000000001</v>
-      </c>
-      <c r="S98">
-        <v>0.31293989999999999</v>
-      </c>
-      <c r="T98">
-        <v>5.2091499999999999E-2</v>
-      </c>
-      <c r="U98">
-        <v>6.2164999999999998E-3</v>
-      </c>
-      <c r="V98">
-        <v>3.04485E-2</v>
-      </c>
-      <c r="W98">
-        <v>1.5440000000000001E-2</v>
       </c>
       <c r="X98">
         <v>0.84527980000000003</v>
@@ -19444,10 +19444,10 @@
         <v>0.20936250000000001</v>
       </c>
       <c r="E99">
+        <v>8.1608299999999995E-2</v>
+      </c>
+      <c r="F99">
         <v>9.3569299999999994E-2</v>
-      </c>
-      <c r="F99">
-        <v>8.1608299999999995E-2</v>
       </c>
       <c r="G99">
         <v>4.6387400000000002E-2</v>
@@ -19471,34 +19471,34 @@
         <v>-3.6301300000000002E-2</v>
       </c>
       <c r="N99">
+        <v>0.35148030000000002</v>
+      </c>
+      <c r="O99">
+        <v>5.3762999999999998E-2</v>
+      </c>
+      <c r="P99">
+        <v>0.29771720000000002</v>
+      </c>
+      <c r="Q99">
+        <v>1.6931999999999999E-2</v>
+      </c>
+      <c r="R99">
+        <v>3.06413E-2</v>
+      </c>
+      <c r="S99">
+        <v>6.1768999999999999E-3</v>
+      </c>
+      <c r="T99">
         <v>0.64851979999999998</v>
       </c>
-      <c r="O99">
+      <c r="U99">
         <v>0.70228279999999998</v>
       </c>
-      <c r="P99">
+      <c r="V99">
         <v>0.67540129999999998</v>
       </c>
-      <c r="Q99">
+      <c r="W99">
         <v>0.67957420000000002</v>
-      </c>
-      <c r="R99">
-        <v>0.35148030000000002</v>
-      </c>
-      <c r="S99">
-        <v>0.29771720000000002</v>
-      </c>
-      <c r="T99">
-        <v>5.3762999999999998E-2</v>
-      </c>
-      <c r="U99">
-        <v>6.1768999999999999E-3</v>
-      </c>
-      <c r="V99">
-        <v>3.06413E-2</v>
-      </c>
-      <c r="W99">
-        <v>1.6931999999999999E-2</v>
       </c>
       <c r="X99">
         <v>0.87259750000000003</v>
@@ -19644,10 +19644,10 @@
         <v>0.21613199999999999</v>
       </c>
       <c r="E100">
+        <v>8.2943100000000006E-2</v>
+      </c>
+      <c r="F100">
         <v>9.4655600000000006E-2</v>
-      </c>
-      <c r="F100">
-        <v>8.2943100000000006E-2</v>
       </c>
       <c r="G100">
         <v>4.8968400000000002E-2</v>
@@ -19671,34 +19671,34 @@
         <v>-3.8567400000000002E-2</v>
       </c>
       <c r="N100">
+        <v>0.34952260000000002</v>
+      </c>
+      <c r="O100">
+        <v>5.67789E-2</v>
+      </c>
+      <c r="P100">
+        <v>0.2927437</v>
+      </c>
+      <c r="Q100">
+        <v>1.9456000000000001E-2</v>
+      </c>
+      <c r="R100">
+        <v>3.1182700000000001E-2</v>
+      </c>
+      <c r="S100">
+        <v>6.1402000000000002E-3</v>
+      </c>
+      <c r="T100">
         <v>0.65047730000000004</v>
       </c>
-      <c r="O100">
+      <c r="U100">
         <v>0.70725629999999995</v>
       </c>
-      <c r="P100">
+      <c r="V100">
         <v>0.67886679999999999</v>
       </c>
-      <c r="Q100">
+      <c r="W100">
         <v>0.68012419999999996</v>
-      </c>
-      <c r="R100">
-        <v>0.34952260000000002</v>
-      </c>
-      <c r="S100">
-        <v>0.2927437</v>
-      </c>
-      <c r="T100">
-        <v>5.67789E-2</v>
-      </c>
-      <c r="U100">
-        <v>6.1402000000000002E-3</v>
-      </c>
-      <c r="V100">
-        <v>3.1182700000000001E-2</v>
-      </c>
-      <c r="W100">
-        <v>1.9456000000000001E-2</v>
       </c>
       <c r="X100">
         <v>0.88224820000000004</v>
@@ -19844,10 +19844,10 @@
         <v>0.22290689999999999</v>
       </c>
       <c r="E101">
+        <v>8.2703399999999996E-2</v>
+      </c>
+      <c r="F101">
         <v>9.5646800000000004E-2</v>
-      </c>
-      <c r="F101">
-        <v>8.2703399999999996E-2</v>
       </c>
       <c r="G101">
         <v>5.1159299999999998E-2</v>
@@ -19871,34 +19871,34 @@
         <v>-4.1042700000000001E-2</v>
       </c>
       <c r="N101">
+        <v>0.3381208</v>
+      </c>
+      <c r="O101">
+        <v>5.9362100000000001E-2</v>
+      </c>
+      <c r="P101">
+        <v>0.27875860000000002</v>
+      </c>
+      <c r="Q101">
+        <v>2.0813499999999999E-2</v>
+      </c>
+      <c r="R101">
+        <v>3.2255899999999997E-2</v>
+      </c>
+      <c r="S101">
+        <v>6.2927E-3</v>
+      </c>
+      <c r="T101">
         <v>0.6618792</v>
       </c>
-      <c r="O101">
+      <c r="U101">
         <v>0.72124140000000003</v>
       </c>
-      <c r="P101">
+      <c r="V101">
         <v>0.69156030000000002</v>
       </c>
-      <c r="Q101">
+      <c r="W101">
         <v>0.69104259999999995</v>
-      </c>
-      <c r="R101">
-        <v>0.3381208</v>
-      </c>
-      <c r="S101">
-        <v>0.27875860000000002</v>
-      </c>
-      <c r="T101">
-        <v>5.9362100000000001E-2</v>
-      </c>
-      <c r="U101">
-        <v>6.2927E-3</v>
-      </c>
-      <c r="V101">
-        <v>3.2255899999999997E-2</v>
-      </c>
-      <c r="W101">
-        <v>2.0813499999999999E-2</v>
       </c>
       <c r="X101">
         <v>0.9021226</v>
@@ -20044,10 +20044,10 @@
         <v>0.22638949999999999</v>
       </c>
       <c r="E102">
+        <v>7.4864399999999998E-2</v>
+      </c>
+      <c r="F102">
         <v>9.7837800000000003E-2</v>
-      </c>
-      <c r="F102">
-        <v>7.4864399999999998E-2</v>
       </c>
       <c r="G102">
         <v>5.0539599999999997E-2</v>
@@ -20071,34 +20071,34 @@
         <v>-4.05598E-2</v>
       </c>
       <c r="N102">
+        <v>0.33503270000000002</v>
+      </c>
+      <c r="O102">
+        <v>5.8887000000000002E-2</v>
+      </c>
+      <c r="P102">
+        <v>0.27614569999999999</v>
+      </c>
+      <c r="Q102">
+        <v>2.0425499999999999E-2</v>
+      </c>
+      <c r="R102">
+        <v>3.2427499999999998E-2</v>
+      </c>
+      <c r="S102">
+        <v>6.0229999999999997E-3</v>
+      </c>
+      <c r="T102">
         <v>0.66496730000000004</v>
       </c>
-      <c r="O102">
+      <c r="U102">
         <v>0.72385429999999995</v>
       </c>
-      <c r="P102">
+      <c r="V102">
         <v>0.69441079999999999</v>
       </c>
-      <c r="Q102">
+      <c r="W102">
         <v>0.69735879999999995</v>
-      </c>
-      <c r="R102">
-        <v>0.33503270000000002</v>
-      </c>
-      <c r="S102">
-        <v>0.27614569999999999</v>
-      </c>
-      <c r="T102">
-        <v>5.8887000000000002E-2</v>
-      </c>
-      <c r="U102">
-        <v>6.0229999999999997E-3</v>
-      </c>
-      <c r="V102">
-        <v>3.2427499999999998E-2</v>
-      </c>
-      <c r="W102">
-        <v>2.0425499999999999E-2</v>
       </c>
       <c r="X102">
         <v>0.8987425</v>
@@ -20244,10 +20244,10 @@
         <v>0.22900209999999999</v>
       </c>
       <c r="E103">
+        <v>6.8377199999999999E-2</v>
+      </c>
+      <c r="F103">
         <v>9.5799300000000004E-2</v>
-      </c>
-      <c r="F103">
-        <v>6.8377199999999999E-2</v>
       </c>
       <c r="G103">
         <v>4.8763800000000003E-2</v>
@@ -20271,34 +20271,34 @@
         <v>-3.8275999999999998E-2</v>
       </c>
       <c r="N103">
+        <v>0.3436457</v>
+      </c>
+      <c r="O103">
+        <v>5.7049599999999999E-2</v>
+      </c>
+      <c r="P103">
+        <v>0.28659610000000002</v>
+      </c>
+      <c r="Q103">
+        <v>1.91057E-2</v>
+      </c>
+      <c r="R103">
+        <v>3.1792899999999999E-2</v>
+      </c>
+      <c r="S103">
+        <v>6.1617E-3</v>
+      </c>
+      <c r="T103">
         <v>0.6563542</v>
       </c>
-      <c r="O103">
+      <c r="U103">
         <v>0.71340389999999998</v>
       </c>
-      <c r="P103">
+      <c r="V103">
         <v>0.68487909999999996</v>
       </c>
-      <c r="Q103">
+      <c r="W103">
         <v>0.69055829999999996</v>
-      </c>
-      <c r="R103">
-        <v>0.3436457</v>
-      </c>
-      <c r="S103">
-        <v>0.28659610000000002</v>
-      </c>
-      <c r="T103">
-        <v>5.7049599999999999E-2</v>
-      </c>
-      <c r="U103">
-        <v>6.1617E-3</v>
-      </c>
-      <c r="V103">
-        <v>3.1792899999999999E-2</v>
-      </c>
-      <c r="W103">
-        <v>1.91057E-2</v>
       </c>
       <c r="X103">
         <v>0.87411669999999997</v>
@@ -20444,10 +20444,10 @@
         <v>0.22632269999999999</v>
       </c>
       <c r="E104">
+        <v>6.6371700000000006E-2</v>
+      </c>
+      <c r="F104">
         <v>9.9029500000000006E-2</v>
-      </c>
-      <c r="F104">
-        <v>6.6371700000000006E-2</v>
       </c>
       <c r="G104">
         <v>4.83846E-2</v>
@@ -20471,34 +20471,34 @@
         <v>-3.7121399999999999E-2</v>
       </c>
       <c r="N104">
+        <v>0.35193990000000003</v>
+      </c>
+      <c r="O104">
+        <v>5.6543700000000002E-2</v>
+      </c>
+      <c r="P104">
+        <v>0.29539609999999999</v>
+      </c>
+      <c r="Q104">
+        <v>1.8501099999999999E-2</v>
+      </c>
+      <c r="R104">
+        <v>3.1647799999999997E-2</v>
+      </c>
+      <c r="S104">
+        <v>6.3948E-3</v>
+      </c>
+      <c r="T104">
         <v>0.64806010000000003</v>
       </c>
-      <c r="O104">
+      <c r="U104">
         <v>0.70460389999999995</v>
       </c>
-      <c r="P104">
+      <c r="V104">
         <v>0.67633200000000004</v>
       </c>
-      <c r="Q104">
+      <c r="W104">
         <v>0.68231750000000002</v>
-      </c>
-      <c r="R104">
-        <v>0.35193990000000003</v>
-      </c>
-      <c r="S104">
-        <v>0.29539609999999999</v>
-      </c>
-      <c r="T104">
-        <v>5.6543700000000002E-2</v>
-      </c>
-      <c r="U104">
-        <v>6.3948E-3</v>
-      </c>
-      <c r="V104">
-        <v>3.1647799999999997E-2</v>
-      </c>
-      <c r="W104">
-        <v>1.8501099999999999E-2</v>
       </c>
       <c r="X104">
         <v>0.8638922</v>
@@ -20644,10 +20644,10 @@
         <v>0.21713009999999999</v>
       </c>
       <c r="E105">
+        <v>6.7366999999999996E-2</v>
+      </c>
+      <c r="F105">
         <v>0.1043828</v>
-      </c>
-      <c r="F105">
-        <v>6.7366999999999996E-2</v>
       </c>
       <c r="G105">
         <v>4.7634999999999997E-2</v>
@@ -20671,34 +20671,34 @@
         <v>-3.6301199999999999E-2</v>
       </c>
       <c r="N105">
+        <v>0.35569509999999999</v>
+      </c>
+      <c r="O105">
+        <v>5.5781400000000002E-2</v>
+      </c>
+      <c r="P105">
+        <v>0.29991370000000001</v>
+      </c>
+      <c r="Q105">
+        <v>1.8590599999999999E-2</v>
+      </c>
+      <c r="R105">
+        <v>3.1054600000000002E-2</v>
+      </c>
+      <c r="S105">
+        <v>6.1456999999999996E-3</v>
+      </c>
+      <c r="T105">
         <v>0.64430489999999996</v>
       </c>
-      <c r="O105">
+      <c r="U105">
         <v>0.70008630000000005</v>
       </c>
-      <c r="P105">
+      <c r="V105">
         <v>0.6721956</v>
       </c>
-      <c r="Q105">
+      <c r="W105">
         <v>0.6794618</v>
-      </c>
-      <c r="R105">
-        <v>0.35569509999999999</v>
-      </c>
-      <c r="S105">
-        <v>0.29991370000000001</v>
-      </c>
-      <c r="T105">
-        <v>5.5781400000000002E-2</v>
-      </c>
-      <c r="U105">
-        <v>6.1456999999999996E-3</v>
-      </c>
-      <c r="V105">
-        <v>3.1054600000000002E-2</v>
-      </c>
-      <c r="W105">
-        <v>1.8590599999999999E-2</v>
       </c>
       <c r="X105">
         <v>0.86705370000000004</v>
@@ -20844,10 +20844,10 @@
         <v>0.21086170000000001</v>
       </c>
       <c r="E106">
+        <v>6.9404599999999997E-2</v>
+      </c>
+      <c r="F106">
         <v>0.1101591</v>
-      </c>
-      <c r="F106">
-        <v>6.9404599999999997E-2</v>
       </c>
       <c r="G106">
         <v>4.7980299999999997E-2</v>
@@ -20871,34 +20871,34 @@
         <v>-3.5776200000000001E-2</v>
       </c>
       <c r="N106">
+        <v>0.3677608</v>
+      </c>
+      <c r="O106">
+        <v>5.5962600000000001E-2</v>
+      </c>
+      <c r="P106">
+        <v>0.31179820000000003</v>
+      </c>
+      <c r="Q106">
+        <v>1.8609500000000001E-2</v>
+      </c>
+      <c r="R106">
+        <v>3.1117200000000001E-2</v>
+      </c>
+      <c r="S106">
+        <v>6.2449000000000003E-3</v>
+      </c>
+      <c r="T106">
         <v>0.6322392</v>
       </c>
-      <c r="O106">
+      <c r="U106">
         <v>0.68820179999999997</v>
       </c>
-      <c r="P106">
+      <c r="V106">
         <v>0.66022040000000004</v>
       </c>
-      <c r="Q106">
+      <c r="W106">
         <v>0.66835239999999996</v>
-      </c>
-      <c r="R106">
-        <v>0.3677608</v>
-      </c>
-      <c r="S106">
-        <v>0.31179820000000003</v>
-      </c>
-      <c r="T106">
-        <v>5.5962600000000001E-2</v>
-      </c>
-      <c r="U106">
-        <v>6.2449000000000003E-3</v>
-      </c>
-      <c r="V106">
-        <v>3.1117200000000001E-2</v>
-      </c>
-      <c r="W106">
-        <v>1.8609500000000001E-2</v>
       </c>
       <c r="X106">
         <v>0.86065749999999996</v>
@@ -21044,10 +21044,10 @@
         <v>0.21066289999999999</v>
       </c>
       <c r="E107">
+        <v>7.1221800000000002E-2</v>
+      </c>
+      <c r="F107">
         <v>0.109254</v>
-      </c>
-      <c r="F107">
-        <v>7.1221800000000002E-2</v>
       </c>
       <c r="G107">
         <v>4.8166399999999998E-2</v>
@@ -21071,34 +21071,34 @@
         <v>-3.6151099999999999E-2</v>
       </c>
       <c r="N107">
+        <v>0.36715589999999998</v>
+      </c>
+      <c r="O107">
+        <v>5.6296800000000001E-2</v>
+      </c>
+      <c r="P107">
+        <v>0.3108591</v>
+      </c>
+      <c r="Q107">
+        <v>1.8664099999999999E-2</v>
+      </c>
+      <c r="R107">
+        <v>3.1600299999999998E-2</v>
+      </c>
+      <c r="S107">
+        <v>6.0238999999999996E-3</v>
+      </c>
+      <c r="T107">
         <v>0.63284399999999996</v>
       </c>
-      <c r="O107">
+      <c r="U107">
         <v>0.68914089999999995</v>
       </c>
-      <c r="P107">
+      <c r="V107">
         <v>0.66099240000000004</v>
       </c>
-      <c r="Q107">
+      <c r="W107">
         <v>0.66932440000000004</v>
-      </c>
-      <c r="R107">
-        <v>0.36715589999999998</v>
-      </c>
-      <c r="S107">
-        <v>0.3108591</v>
-      </c>
-      <c r="T107">
-        <v>5.6296800000000001E-2</v>
-      </c>
-      <c r="U107">
-        <v>6.0238999999999996E-3</v>
-      </c>
-      <c r="V107">
-        <v>3.1600299999999998E-2</v>
-      </c>
-      <c r="W107">
-        <v>1.8664099999999999E-2</v>
       </c>
       <c r="X107">
         <v>0.86364010000000002</v>
@@ -21244,10 +21244,10 @@
         <v>0.22182389999999999</v>
       </c>
       <c r="E108">
+        <v>7.1063299999999996E-2</v>
+      </c>
+      <c r="F108">
         <v>0.1016475</v>
-      </c>
-      <c r="F108">
-        <v>7.1063299999999996E-2</v>
       </c>
       <c r="G108">
         <v>4.92323E-2</v>
@@ -21271,34 +21271,34 @@
         <v>-3.6684599999999998E-2</v>
       </c>
       <c r="N108">
+        <v>0.36846030000000002</v>
+      </c>
+      <c r="O108">
+        <v>5.7030900000000002E-2</v>
+      </c>
+      <c r="P108">
+        <v>0.31142940000000002</v>
+      </c>
+      <c r="Q108">
+        <v>1.9205300000000002E-2</v>
+      </c>
+      <c r="R108">
+        <v>3.2174500000000002E-2</v>
+      </c>
+      <c r="S108">
+        <v>5.6429999999999996E-3</v>
+      </c>
+      <c r="T108">
         <v>0.63153970000000004</v>
       </c>
-      <c r="O108">
+      <c r="U108">
         <v>0.68857060000000003</v>
       </c>
-      <c r="P108">
+      <c r="V108">
         <v>0.66005510000000001</v>
       </c>
-      <c r="Q108">
+      <c r="W108">
         <v>0.66822550000000003</v>
-      </c>
-      <c r="R108">
-        <v>0.36846030000000002</v>
-      </c>
-      <c r="S108">
-        <v>0.31142940000000002</v>
-      </c>
-      <c r="T108">
-        <v>5.7030900000000002E-2</v>
-      </c>
-      <c r="U108">
-        <v>5.6429999999999996E-3</v>
-      </c>
-      <c r="V108">
-        <v>3.2174500000000002E-2</v>
-      </c>
-      <c r="W108">
-        <v>1.9205300000000002E-2</v>
       </c>
       <c r="X108">
         <v>0.85010030000000003</v>
@@ -21444,10 +21444,10 @@
         <v>0.23993970000000001</v>
       </c>
       <c r="E109">
+        <v>6.8056400000000003E-2</v>
+      </c>
+      <c r="F109">
         <v>9.2925900000000006E-2</v>
-      </c>
-      <c r="F109">
-        <v>6.8056400000000003E-2</v>
       </c>
       <c r="G109">
         <v>5.0819700000000002E-2</v>
@@ -21471,34 +21471,34 @@
         <v>-3.7886000000000003E-2</v>
       </c>
       <c r="N109">
+        <v>0.36831619999999998</v>
+      </c>
+      <c r="O109">
+        <v>5.8621100000000002E-2</v>
+      </c>
+      <c r="P109">
+        <v>0.3096952</v>
+      </c>
+      <c r="Q109">
+        <v>2.0313899999999999E-2</v>
+      </c>
+      <c r="R109">
+        <v>3.3109100000000002E-2</v>
+      </c>
+      <c r="S109">
+        <v>5.1980000000000004E-3</v>
+      </c>
+      <c r="T109">
         <v>0.63168380000000002</v>
       </c>
-      <c r="O109">
+      <c r="U109">
         <v>0.69030480000000005</v>
       </c>
-      <c r="P109">
+      <c r="V109">
         <v>0.66099430000000003</v>
       </c>
-      <c r="Q109">
+      <c r="W109">
         <v>0.66963479999999997</v>
-      </c>
-      <c r="R109">
-        <v>0.36831619999999998</v>
-      </c>
-      <c r="S109">
-        <v>0.3096952</v>
-      </c>
-      <c r="T109">
-        <v>5.8621100000000002E-2</v>
-      </c>
-      <c r="U109">
-        <v>5.1980000000000004E-3</v>
-      </c>
-      <c r="V109">
-        <v>3.3109100000000002E-2</v>
-      </c>
-      <c r="W109">
-        <v>2.0313899999999999E-2</v>
       </c>
       <c r="X109">
         <v>0.83590980000000004</v>
@@ -21644,10 +21644,10 @@
         <v>0.27455570000000001</v>
       </c>
       <c r="E110">
+        <v>5.6703299999999998E-2</v>
+      </c>
+      <c r="F110">
         <v>7.8601099999999993E-2</v>
-      </c>
-      <c r="F110">
-        <v>5.6703299999999998E-2</v>
       </c>
       <c r="G110">
         <v>5.1207999999999997E-2</v>
@@ -21671,34 +21671,34 @@
         <v>-3.7381499999999998E-2</v>
       </c>
       <c r="N110">
+        <v>0.3813936</v>
+      </c>
+      <c r="O110">
+        <v>5.89943E-2</v>
+      </c>
+      <c r="P110">
+        <v>0.3223993</v>
+      </c>
+      <c r="Q110">
+        <v>2.0802299999999999E-2</v>
+      </c>
+      <c r="R110">
+        <v>3.3112999999999997E-2</v>
+      </c>
+      <c r="S110">
+        <v>5.0869000000000001E-3</v>
+      </c>
+      <c r="T110">
         <v>0.6186064</v>
       </c>
-      <c r="O110">
+      <c r="U110">
         <v>0.67760069999999994</v>
       </c>
-      <c r="P110">
+      <c r="V110">
         <v>0.64810350000000005</v>
       </c>
-      <c r="Q110">
+      <c r="W110">
         <v>0.65776310000000004</v>
-      </c>
-      <c r="R110">
-        <v>0.3813936</v>
-      </c>
-      <c r="S110">
-        <v>0.3223993</v>
-      </c>
-      <c r="T110">
-        <v>5.89943E-2</v>
-      </c>
-      <c r="U110">
-        <v>5.0869000000000001E-3</v>
-      </c>
-      <c r="V110">
-        <v>3.3112999999999997E-2</v>
-      </c>
-      <c r="W110">
-        <v>2.0802299999999999E-2</v>
       </c>
       <c r="X110">
         <v>0.78790490000000002</v>
@@ -21844,10 +21844,10 @@
         <v>0.27674379999999998</v>
       </c>
       <c r="E111">
+        <v>6.2719700000000003E-2</v>
+      </c>
+      <c r="F111">
         <v>6.9730100000000003E-2</v>
-      </c>
-      <c r="F111">
-        <v>6.2719700000000003E-2</v>
       </c>
       <c r="G111">
         <v>5.0680000000000003E-2</v>
@@ -21871,34 +21871,34 @@
         <v>-3.7238199999999999E-2</v>
       </c>
       <c r="N111">
+        <v>0.38452639999999999</v>
+      </c>
+      <c r="O111">
+        <v>5.9008499999999998E-2</v>
+      </c>
+      <c r="P111">
+        <v>0.32551780000000002</v>
+      </c>
+      <c r="Q111">
+        <v>2.0386600000000001E-2</v>
+      </c>
+      <c r="R111">
+        <v>3.3232100000000001E-2</v>
+      </c>
+      <c r="S111">
+        <v>5.3898000000000001E-3</v>
+      </c>
+      <c r="T111">
         <v>0.61547359999999995</v>
       </c>
-      <c r="O111">
+      <c r="U111">
         <v>0.67448220000000003</v>
       </c>
-      <c r="P111">
+      <c r="V111">
         <v>0.64497789999999999</v>
       </c>
-      <c r="Q111">
+      <c r="W111">
         <v>0.6558657</v>
-      </c>
-      <c r="R111">
-        <v>0.38452639999999999</v>
-      </c>
-      <c r="S111">
-        <v>0.32551780000000002</v>
-      </c>
-      <c r="T111">
-        <v>5.9008499999999998E-2</v>
-      </c>
-      <c r="U111">
-        <v>5.3898000000000001E-3</v>
-      </c>
-      <c r="V111">
-        <v>3.3232100000000001E-2</v>
-      </c>
-      <c r="W111">
-        <v>2.0386600000000001E-2</v>
       </c>
       <c r="X111">
         <v>0.78227349999999996</v>
@@ -22044,10 +22044,10 @@
         <v>0.2773467</v>
       </c>
       <c r="E112">
+        <v>6.6990099999999997E-2</v>
+      </c>
+      <c r="F112">
         <v>6.84313E-2</v>
-      </c>
-      <c r="F112">
-        <v>6.6990099999999997E-2</v>
       </c>
       <c r="G112">
         <v>5.19733E-2</v>
@@ -22071,34 +22071,34 @@
         <v>-3.9009799999999997E-2</v>
       </c>
       <c r="N112">
+        <v>0.3800943</v>
+      </c>
+      <c r="O112">
+        <v>6.0876E-2</v>
+      </c>
+      <c r="P112">
+        <v>0.31921830000000001</v>
+      </c>
+      <c r="Q112">
+        <v>2.1688700000000002E-2</v>
+      </c>
+      <c r="R112">
+        <v>3.39724E-2</v>
+      </c>
+      <c r="S112">
+        <v>5.2074E-3</v>
+      </c>
+      <c r="T112">
         <v>0.6199057</v>
       </c>
-      <c r="O112">
+      <c r="U112">
         <v>0.68078170000000005</v>
       </c>
-      <c r="P112">
+      <c r="V112">
         <v>0.65034369999999997</v>
       </c>
-      <c r="Q112">
+      <c r="W112">
         <v>0.66156150000000002</v>
-      </c>
-      <c r="R112">
-        <v>0.3800943</v>
-      </c>
-      <c r="S112">
-        <v>0.31921830000000001</v>
-      </c>
-      <c r="T112">
-        <v>6.0876E-2</v>
-      </c>
-      <c r="U112">
-        <v>5.2074E-3</v>
-      </c>
-      <c r="V112">
-        <v>3.39724E-2</v>
-      </c>
-      <c r="W112">
-        <v>2.1688700000000002E-2</v>
       </c>
       <c r="X112">
         <v>0.79423580000000005</v>
@@ -22244,10 +22244,10 @@
         <v>0.26730379999999998</v>
       </c>
       <c r="E113">
+        <v>7.0229100000000003E-2</v>
+      </c>
+      <c r="F113">
         <v>7.2248000000000007E-2</v>
-      </c>
-      <c r="F113">
-        <v>7.0229100000000003E-2</v>
       </c>
       <c r="G113">
         <v>5.1978799999999999E-2</v>
@@ -22271,34 +22271,34 @@
         <v>-3.9542300000000002E-2</v>
       </c>
       <c r="N113">
+        <v>0.37794450000000002</v>
+      </c>
+      <c r="O113">
+        <v>6.1133100000000003E-2</v>
+      </c>
+      <c r="P113">
+        <v>0.31681140000000002</v>
+      </c>
+      <c r="Q113">
+        <v>2.2597200000000001E-2</v>
+      </c>
+      <c r="R113">
+        <v>3.34384E-2</v>
+      </c>
+      <c r="S113">
+        <v>5.0974000000000002E-3</v>
+      </c>
+      <c r="T113">
         <v>0.62205549999999998</v>
       </c>
-      <c r="O113">
+      <c r="U113">
         <v>0.68318860000000003</v>
       </c>
-      <c r="P113">
+      <c r="V113">
         <v>0.65262200000000004</v>
       </c>
-      <c r="Q113">
+      <c r="W113">
         <v>0.66320679999999999</v>
-      </c>
-      <c r="R113">
-        <v>0.37794450000000002</v>
-      </c>
-      <c r="S113">
-        <v>0.31681140000000002</v>
-      </c>
-      <c r="T113">
-        <v>6.1133100000000003E-2</v>
-      </c>
-      <c r="U113">
-        <v>5.0974000000000002E-3</v>
-      </c>
-      <c r="V113">
-        <v>3.34384E-2</v>
-      </c>
-      <c r="W113">
-        <v>2.2597200000000001E-2</v>
       </c>
       <c r="X113">
         <v>0.80650540000000004</v>
@@ -22444,10 +22444,10 @@
         <v>0.26695360000000001</v>
       </c>
       <c r="E114">
+        <v>6.9461200000000001E-2</v>
+      </c>
+      <c r="F114">
         <v>7.4602799999999997E-2</v>
-      </c>
-      <c r="F114">
-        <v>6.9461200000000001E-2</v>
       </c>
       <c r="G114">
         <v>5.2463799999999998E-2</v>
@@ -22471,34 +22471,34 @@
         <v>-4.0025699999999997E-2</v>
       </c>
       <c r="N114">
+        <v>0.3801562</v>
+      </c>
+      <c r="O114">
+        <v>6.1786500000000001E-2</v>
+      </c>
+      <c r="P114">
+        <v>0.31836969999999998</v>
+      </c>
+      <c r="Q114">
+        <v>2.3020800000000001E-2</v>
+      </c>
+      <c r="R114">
+        <v>3.3777000000000001E-2</v>
+      </c>
+      <c r="S114">
+        <v>4.9887000000000004E-3</v>
+      </c>
+      <c r="T114">
         <v>0.61984379999999994</v>
       </c>
-      <c r="O114">
+      <c r="U114">
         <v>0.68163030000000002</v>
       </c>
-      <c r="P114">
+      <c r="V114">
         <v>0.65073700000000001</v>
       </c>
-      <c r="Q114">
+      <c r="W114">
         <v>0.66138050000000004</v>
-      </c>
-      <c r="R114">
-        <v>0.3801562</v>
-      </c>
-      <c r="S114">
-        <v>0.31836969999999998</v>
-      </c>
-      <c r="T114">
-        <v>6.1786500000000001E-2</v>
-      </c>
-      <c r="U114">
-        <v>4.9887000000000004E-3</v>
-      </c>
-      <c r="V114">
-        <v>3.3777000000000001E-2</v>
-      </c>
-      <c r="W114">
-        <v>2.3020800000000001E-2</v>
       </c>
       <c r="X114">
         <v>0.80651110000000004</v>
@@ -22644,10 +22644,10 @@
         <v>0.25931890000000002</v>
       </c>
       <c r="E115">
+        <v>7.0107799999999998E-2</v>
+      </c>
+      <c r="F115">
         <v>7.9424700000000001E-2</v>
-      </c>
-      <c r="F115">
-        <v>7.0107799999999998E-2</v>
       </c>
       <c r="G115">
         <v>5.2352599999999999E-2</v>
@@ -22671,34 +22671,34 @@
         <v>-4.0347300000000003E-2</v>
       </c>
       <c r="N115">
+        <v>0.37912590000000002</v>
+      </c>
+      <c r="O115">
+        <v>6.1596699999999997E-2</v>
+      </c>
+      <c r="P115">
+        <v>0.31752920000000001</v>
+      </c>
+      <c r="Q115">
+        <v>2.3051800000000001E-2</v>
+      </c>
+      <c r="R115">
+        <v>3.36177E-2</v>
+      </c>
+      <c r="S115">
+        <v>4.9271999999999996E-3</v>
+      </c>
+      <c r="T115">
         <v>0.62087409999999998</v>
       </c>
-      <c r="O115">
+      <c r="U115">
         <v>0.68247080000000004</v>
       </c>
-      <c r="P115">
+      <c r="V115">
         <v>0.65167249999999999</v>
       </c>
-      <c r="Q115">
+      <c r="W115">
         <v>0.66209770000000001</v>
-      </c>
-      <c r="R115">
-        <v>0.37912590000000002</v>
-      </c>
-      <c r="S115">
-        <v>0.31752920000000001</v>
-      </c>
-      <c r="T115">
-        <v>6.1596699999999997E-2</v>
-      </c>
-      <c r="U115">
-        <v>4.9271999999999996E-3</v>
-      </c>
-      <c r="V115">
-        <v>3.36177E-2</v>
-      </c>
-      <c r="W115">
-        <v>2.3051800000000001E-2</v>
       </c>
       <c r="X115">
         <v>0.81429600000000002</v>
@@ -22844,10 +22844,10 @@
         <v>0.25996130000000001</v>
       </c>
       <c r="E116">
+        <v>6.8379300000000004E-2</v>
+      </c>
+      <c r="F116">
         <v>8.07142E-2</v>
-      </c>
-      <c r="F116">
-        <v>6.8379300000000004E-2</v>
       </c>
       <c r="G116">
         <v>5.2373700000000002E-2</v>
@@ -22871,34 +22871,34 @@
         <v>-4.0161099999999998E-2</v>
       </c>
       <c r="N116">
+        <v>0.37763429999999998</v>
+      </c>
+      <c r="O116">
+        <v>6.12534E-2</v>
+      </c>
+      <c r="P116">
+        <v>0.31638090000000002</v>
+      </c>
+      <c r="Q116">
+        <v>2.2691699999999999E-2</v>
+      </c>
+      <c r="R116">
+        <v>3.3601100000000002E-2</v>
+      </c>
+      <c r="S116">
+        <v>4.9605999999999999E-3</v>
+      </c>
+      <c r="T116">
         <v>0.62236570000000002</v>
       </c>
-      <c r="O116">
+      <c r="U116">
         <v>0.68361910000000004</v>
       </c>
-      <c r="P116">
+      <c r="V116">
         <v>0.65299240000000003</v>
       </c>
-      <c r="Q116">
+      <c r="W116">
         <v>0.66309510000000005</v>
-      </c>
-      <c r="R116">
-        <v>0.37763429999999998</v>
-      </c>
-      <c r="S116">
-        <v>0.31638090000000002</v>
-      </c>
-      <c r="T116">
-        <v>6.12534E-2</v>
-      </c>
-      <c r="U116">
-        <v>4.9605999999999999E-3</v>
-      </c>
-      <c r="V116">
-        <v>3.3601100000000002E-2</v>
-      </c>
-      <c r="W116">
-        <v>2.2691699999999999E-2</v>
       </c>
       <c r="X116">
         <v>0.81421520000000003</v>
@@ -23038,10 +23038,10 @@
         <v>0.26898939999999999</v>
       </c>
       <c r="E117">
+        <v>6.5193699999999993E-2</v>
+      </c>
+      <c r="F117">
         <v>8.11061E-2</v>
-      </c>
-      <c r="F117">
-        <v>6.5193699999999993E-2</v>
       </c>
       <c r="G117">
         <v>5.3833800000000001E-2</v>
@@ -23065,31 +23065,31 @@
         <v>-4.1057200000000002E-2</v>
       </c>
       <c r="N117">
+        <v>0.37904529999999997</v>
+      </c>
+      <c r="O117">
+        <v>6.2810500000000005E-2</v>
+      </c>
+      <c r="P117">
+        <v>0.31623469999999998</v>
+      </c>
+      <c r="Q117">
+        <v>2.3484600000000001E-2</v>
+      </c>
+      <c r="R117">
+        <v>3.42762E-2</v>
+      </c>
+      <c r="S117">
+        <v>5.0498000000000001E-3</v>
+      </c>
+      <c r="T117">
         <v>0.62095469999999997</v>
       </c>
-      <c r="O117">
+      <c r="U117">
         <v>0.68376530000000002</v>
       </c>
-      <c r="P117">
+      <c r="V117">
         <v>0.65236000000000005</v>
-      </c>
-      <c r="R117">
-        <v>0.37904529999999997</v>
-      </c>
-      <c r="S117">
-        <v>0.31623469999999998</v>
-      </c>
-      <c r="T117">
-        <v>6.2810500000000005E-2</v>
-      </c>
-      <c r="U117">
-        <v>5.0498000000000001E-3</v>
-      </c>
-      <c r="V117">
-        <v>3.42762E-2</v>
-      </c>
-      <c r="W117">
-        <v>2.3484600000000001E-2</v>
       </c>
       <c r="X117">
         <v>0.81012300000000004</v>
@@ -23229,10 +23229,10 @@
         <v>0.26656059999999998</v>
       </c>
       <c r="E118">
+        <v>6.5493800000000005E-2</v>
+      </c>
+      <c r="F118">
         <v>8.3235100000000006E-2</v>
-      </c>
-      <c r="F118">
-        <v>6.5493800000000005E-2</v>
       </c>
       <c r="G118">
         <v>5.4053900000000002E-2</v>
@@ -23256,31 +23256,31 @@
         <v>-4.1513000000000001E-2</v>
       </c>
       <c r="N118">
+        <v>0.37646869999999999</v>
+      </c>
+      <c r="O118">
+        <v>6.3187999999999994E-2</v>
+      </c>
+      <c r="P118">
+        <v>0.31328080000000003</v>
+      </c>
+      <c r="Q118">
+        <v>2.3955299999999999E-2</v>
+      </c>
+      <c r="R118">
+        <v>3.4184100000000002E-2</v>
+      </c>
+      <c r="S118">
+        <v>5.0486000000000003E-3</v>
+      </c>
+      <c r="T118">
         <v>0.62353119999999995</v>
       </c>
-      <c r="O118">
+      <c r="U118">
         <v>0.68671919999999997</v>
       </c>
-      <c r="P118">
+      <c r="V118">
         <v>0.65512519999999996</v>
-      </c>
-      <c r="R118">
-        <v>0.37646869999999999</v>
-      </c>
-      <c r="S118">
-        <v>0.31328080000000003</v>
-      </c>
-      <c r="T118">
-        <v>6.3187999999999994E-2</v>
-      </c>
-      <c r="U118">
-        <v>5.0486000000000003E-3</v>
-      </c>
-      <c r="V118">
-        <v>3.4184100000000002E-2</v>
-      </c>
-      <c r="W118">
-        <v>2.3955299999999999E-2</v>
       </c>
       <c r="X118">
         <v>0.81726259999999995</v>
@@ -23418,6 +23418,66 @@
       </c>
       <c r="D119">
         <v>0.26978679999999999</v>
+      </c>
+      <c r="E119">
+        <v>6.6816700000000007E-2</v>
+      </c>
+      <c r="F119">
+        <v>8.3138199999999995E-2</v>
+      </c>
+      <c r="G119">
+        <v>5.5402800000000002E-2</v>
+      </c>
+      <c r="H119">
+        <v>0.620444</v>
+      </c>
+      <c r="I119">
+        <v>0.66285559999999999</v>
+      </c>
+      <c r="J119">
+        <v>0.64599169999999995</v>
+      </c>
+      <c r="K119">
+        <v>-1.6863900000000001E-2</v>
+      </c>
+      <c r="L119">
+        <v>-2.55477E-2</v>
+      </c>
+      <c r="M119">
+        <v>-4.2411600000000001E-2</v>
+      </c>
+      <c r="N119">
+        <v>0.379556</v>
+      </c>
+      <c r="O119">
+        <v>6.4732600000000001E-2</v>
+      </c>
+      <c r="P119">
+        <v>0.31482339999999998</v>
+      </c>
+      <c r="Q119">
+        <v>2.48268E-2</v>
+      </c>
+      <c r="R119">
+        <v>3.4830199999999999E-2</v>
+      </c>
+      <c r="S119">
+        <v>5.0755000000000002E-3</v>
+      </c>
+      <c r="T119">
+        <v>0.620444</v>
+      </c>
+      <c r="U119">
+        <v>0.68517660000000002</v>
+      </c>
+      <c r="V119">
+        <v>0.65281029999999995</v>
+      </c>
+      <c r="X119">
+        <v>0.81630899999999995</v>
+      </c>
+      <c r="Y119">
+        <v>0.75224230000000003</v>
       </c>
       <c r="Z119">
         <v>3.8682800000000003E-2</v>
@@ -23546,10 +23606,10 @@
   <dimension ref="A1:CB318"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AV56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AV104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BN63" sqref="BN63"/>
+      <selection pane="bottomRight" activeCell="AW118" sqref="AW118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49031,80 +49091,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="34" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="35" t="s">
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="38" t="s">
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="37" t="s">
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="36" t="s">
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="36"/>
-      <c r="AW1" s="36"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="33"/>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="G2" s="33"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="17" t="s">
         <v>177</v>
       </c>
@@ -49114,15 +49174,15 @@
       <c r="J2" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="O2" s="33"/>
+      <c r="O2" s="32"/>
       <c r="P2" s="17" t="s">
         <v>177</v>
       </c>
@@ -49132,15 +49192,15 @@
       <c r="R2" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="S2" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33" t="s">
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="W2" s="33"/>
+      <c r="W2" s="32"/>
       <c r="X2" s="17" t="s">
         <v>177</v>
       </c>
@@ -49150,15 +49210,15 @@
       <c r="Z2" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="AA2" s="33" t="s">
+      <c r="AA2" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33" t="s">
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="AE2" s="33"/>
+      <c r="AE2" s="32"/>
       <c r="AF2" s="17" t="s">
         <v>177</v>
       </c>
@@ -49168,15 +49228,15 @@
       <c r="AH2" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="AI2" s="33" t="s">
+      <c r="AI2" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33" t="s">
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="AM2" s="33"/>
+      <c r="AM2" s="32"/>
       <c r="AN2" s="17" t="s">
         <v>177</v>
       </c>
@@ -49186,15 +49246,15 @@
       <c r="AP2" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="AQ2" s="33" t="s">
+      <c r="AQ2" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33" t="s">
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="32"/>
+      <c r="AT2" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="AU2" s="33"/>
+      <c r="AU2" s="32"/>
       <c r="AV2" s="17" t="s">
         <v>177</v>
       </c>
@@ -63319,6 +63379,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="V2:W2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="AT2:AU2"/>
@@ -63328,15 +63397,6 @@
     <mergeCell ref="AI2:AK2"/>
     <mergeCell ref="Z1:AG1"/>
     <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="R1:Y1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="V2:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/USLS/IPP_USLS_DATA.xlsx
+++ b/USLS/IPP_USLS_DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Don Koh\Dropbox\My_Documents\GitHub_Repo\IPP_USLS\USLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A56BAB-D7A6-40FE-B5A3-637E7DB93162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6DC6D7-FF11-4B85-9B6D-1AE77EDED14A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="465" windowWidth="23505" windowHeight="15135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45" yWindow="150" windowWidth="23505" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="505">
   <si>
     <t>CD</t>
   </si>
@@ -1553,6 +1553,42 @@
   <si>
     <t>Created and modified by Dongya Koh in Aug, 2020</t>
   </si>
+  <si>
+    <t>chi_inv_NSF</t>
+  </si>
+  <si>
+    <t>chi_inv_NSF1</t>
+  </si>
+  <si>
+    <t>chi_inv_MP</t>
+  </si>
+  <si>
+    <t>chi_inv_KSZ</t>
+  </si>
+  <si>
+    <t>chi_inv_LW1</t>
+  </si>
+  <si>
+    <t>1-chi=Ambiguous Income</t>
+  </si>
+  <si>
+    <t>1-chi=0.5, MP(2010)</t>
+  </si>
+  <si>
+    <t>1-chi=LW(2007)</t>
+  </si>
+  <si>
+    <t>1-chi=NSF Cost Structure</t>
+  </si>
+  <si>
+    <t>1990-2003</t>
+  </si>
+  <si>
+    <t>1929-2015</t>
+  </si>
+  <si>
+    <t>Data used in Figure 8 (c)</t>
+  </si>
 </sst>
 </file>
 
@@ -1892,16 +1928,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="109" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1911,6 +1938,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2365,10 +2401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F551"/>
+  <dimension ref="A1:F555"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64:B67"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3518,17 +3554,17 @@
         <v>249</v>
       </c>
       <c r="B68" t="s">
-        <v>259</v>
+        <v>495</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>305</v>
+        <v>499</v>
       </c>
       <c r="D68" s="22"/>
       <c r="E68" s="22" t="s">
-        <v>280</v>
+        <v>502</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>307</v>
+        <v>504</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -3536,17 +3572,17 @@
         <v>249</v>
       </c>
       <c r="B69" t="s">
-        <v>260</v>
+        <v>496</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>306</v>
+        <v>498</v>
       </c>
       <c r="D69" s="22"/>
       <c r="E69" s="22" t="s">
         <v>280</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>307</v>
+        <v>504</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -3554,17 +3590,17 @@
         <v>249</v>
       </c>
       <c r="B70" t="s">
-        <v>322</v>
+        <v>493</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>352</v>
-      </c>
-      <c r="D70" s="24"/>
+        <v>501</v>
+      </c>
+      <c r="D70" s="22"/>
       <c r="E70" s="22" t="s">
-        <v>280</v>
+        <v>503</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>363</v>
+        <v>504</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -3572,85 +3608,89 @@
         <v>249</v>
       </c>
       <c r="B71" t="s">
-        <v>323</v>
+        <v>497</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>353</v>
-      </c>
-      <c r="D71" s="23"/>
+        <v>500</v>
+      </c>
+      <c r="D71" s="22"/>
       <c r="E71" s="22" t="s">
         <v>280</v>
       </c>
       <c r="F71" s="22" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="B72" t="s">
+        <v>259</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="B73" t="s">
+        <v>260</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="F73" s="22" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="B74" t="s">
+        <v>322</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="D74" s="24"/>
+      <c r="E74" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="F74" s="22" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B72" t="s">
-        <v>20</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D72" t="s">
-        <v>46</v>
-      </c>
-      <c r="E72" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B73" t="s">
-        <v>212</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="D73" t="s">
-        <v>46</v>
-      </c>
-      <c r="E73" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B74" t="s">
-        <v>21</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D74" t="s">
-        <v>46</v>
-      </c>
-      <c r="E74" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
-        <v>243</v>
+    <row r="75" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="22" t="s">
+        <v>249</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D75" t="s">
-        <v>46</v>
-      </c>
-      <c r="E75" t="s">
-        <v>155</v>
+        <v>323</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="D75" s="23"/>
+      <c r="E75" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="F75" s="22" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3658,13 +3698,13 @@
         <v>243</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E76" t="s">
         <v>155</v>
@@ -3675,13 +3715,13 @@
         <v>243</v>
       </c>
       <c r="B77" t="s">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>52</v>
+        <v>244</v>
       </c>
       <c r="D77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E77" t="s">
         <v>155</v>
@@ -3692,13 +3732,13 @@
         <v>243</v>
       </c>
       <c r="B78" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E78" t="s">
         <v>155</v>
@@ -3709,13 +3749,13 @@
         <v>243</v>
       </c>
       <c r="B79" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E79" t="s">
         <v>155</v>
@@ -3726,10 +3766,10 @@
         <v>243</v>
       </c>
       <c r="B80" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D80" t="s">
         <v>47</v>
@@ -3743,10 +3783,10 @@
         <v>243</v>
       </c>
       <c r="B81" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D81" t="s">
         <v>47</v>
@@ -3759,14 +3799,14 @@
       <c r="A82" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>118</v>
+      <c r="B82" t="s">
+        <v>25</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>151</v>
+        <v>53</v>
       </c>
       <c r="D82" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="E82" t="s">
         <v>155</v>
@@ -3776,14 +3816,14 @@
       <c r="A83" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>119</v>
+      <c r="B83" t="s">
+        <v>26</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="D83" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="E83" t="s">
         <v>155</v>
@@ -3794,10 +3834,10 @@
         <v>243</v>
       </c>
       <c r="B84" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D84" t="s">
         <v>47</v>
@@ -3811,10 +3851,10 @@
         <v>243</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D85" t="s">
         <v>47</v>
@@ -3827,37 +3867,34 @@
       <c r="A86" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B86" t="s">
-        <v>31</v>
+      <c r="B86" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="D86" t="s">
-        <v>47</v>
+        <v>153</v>
       </c>
       <c r="E86" t="s">
-        <v>156</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B87" t="s">
-        <v>34</v>
+      <c r="B87" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="D87" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="E87" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3865,33 +3902,33 @@
         <v>243</v>
       </c>
       <c r="B88" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D88" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="E88" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B89" t="s">
-        <v>245</v>
+        <v>30</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D89" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="E89" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3899,16 +3936,19 @@
         <v>243</v>
       </c>
       <c r="B90" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="D90" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="E90" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3916,13 +3956,13 @@
         <v>243</v>
       </c>
       <c r="B91" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="D91" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -3933,44 +3973,44 @@
         <v>243</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D92" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E92" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>245</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D93" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E93" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D94" t="s">
         <v>74</v>
@@ -3979,18 +4019,18 @@
         <v>157</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B95" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="D95" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E95" t="s">
         <v>157</v>
@@ -4001,50 +4041,50 @@
         <v>243</v>
       </c>
       <c r="B96" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D96" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E96" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B97" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D97" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E97" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>103</v>
+        <v>69</v>
+      </c>
+      <c r="D98" t="s">
+        <v>74</v>
       </c>
       <c r="E98" t="s">
         <v>157</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4052,47 +4092,44 @@
         <v>243</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>104</v>
+        <v>64</v>
+      </c>
+      <c r="D99" t="s">
+        <v>75</v>
       </c>
       <c r="E99" t="s">
         <v>157</v>
       </c>
-      <c r="F99" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D100" t="s">
         <v>75</v>
       </c>
       <c r="E100" t="s">
-        <v>158</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>246</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D101" t="s">
         <v>75</v>
@@ -4100,25 +4137,22 @@
       <c r="E101" t="s">
         <v>157</v>
       </c>
-      <c r="F101" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B102" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D102" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="E102" t="s">
         <v>157</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4126,50 +4160,56 @@
         <v>243</v>
       </c>
       <c r="B103" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D103" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E103" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F103" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B104" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D104" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E104" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B105" t="s">
-        <v>247</v>
+        <v>15</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D105" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E105" t="s">
         <v>157</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -4177,95 +4217,95 @@
         <v>243</v>
       </c>
       <c r="B106" t="s">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="D106" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="E106" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="D107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E107" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B108" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D108" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E108" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D109" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E109" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D110" t="s">
         <v>90</v>
       </c>
-      <c r="E110" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B111" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D111" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="E111" t="s">
         <v>157</v>
@@ -4276,50 +4316,50 @@
         <v>243</v>
       </c>
       <c r="B112" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D112" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="E112" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B113" t="s">
-        <v>248</v>
+        <v>13</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D113" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="E113" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B114" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>113</v>
+        <v>85</v>
+      </c>
+      <c r="D114" t="s">
+        <v>90</v>
       </c>
       <c r="E114" t="s">
         <v>157</v>
-      </c>
-      <c r="F114" s="11" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4327,36 +4367,33 @@
         <v>243</v>
       </c>
       <c r="B115" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>114</v>
+        <v>80</v>
+      </c>
+      <c r="D115" t="s">
+        <v>131</v>
       </c>
       <c r="E115" t="s">
         <v>157</v>
       </c>
-      <c r="F115" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D116" t="s">
         <v>131</v>
       </c>
       <c r="E116" t="s">
-        <v>158</v>
-      </c>
-      <c r="F116" s="11" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4364,10 +4401,10 @@
         <v>243</v>
       </c>
       <c r="B117" t="s">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D117" t="s">
         <v>131</v>
@@ -4375,25 +4412,22 @@
       <c r="E117" t="s">
         <v>157</v>
       </c>
-      <c r="F117" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B118" t="s">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D118" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="E118" t="s">
         <v>157</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4401,84 +4435,90 @@
         <v>243</v>
       </c>
       <c r="B119" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D119" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E119" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F119" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B120" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="D120" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E120" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B121" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="D121" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E121" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B122" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="D122" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="E122" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B123" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="D123" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="E123" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -4486,10 +4526,10 @@
         <v>243</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D124" t="s">
         <v>127</v>
@@ -4503,10 +4543,10 @@
         <v>243</v>
       </c>
       <c r="B125" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D125" t="s">
         <v>127</v>
@@ -4515,15 +4555,15 @@
         <v>159</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B126" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D126" t="s">
         <v>127</v>
@@ -4532,15 +4572,15 @@
         <v>159</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B127" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D127" t="s">
         <v>127</v>
@@ -4554,53 +4594,50 @@
         <v>243</v>
       </c>
       <c r="B128" t="s">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D128" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E128" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="D129" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E129" t="s">
         <v>159</v>
       </c>
-      <c r="F129" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B130" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>134</v>
+        <v>145</v>
+      </c>
+      <c r="D130" t="s">
+        <v>127</v>
       </c>
       <c r="E130" t="s">
         <v>159</v>
-      </c>
-      <c r="F130" s="11" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4608,13 +4645,13 @@
         <v>243</v>
       </c>
       <c r="B131" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D131" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E131" t="s">
         <v>159</v>
@@ -4625,10 +4662,10 @@
         <v>243</v>
       </c>
       <c r="B132" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D132" t="s">
         <v>128</v>
@@ -4637,21 +4674,24 @@
         <v>159</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B133" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D133" t="s">
         <v>128</v>
       </c>
       <c r="E133" t="s">
         <v>159</v>
+      </c>
+      <c r="F133" s="11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4659,99 +4699,95 @@
         <v>243</v>
       </c>
       <c r="B134" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D134" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E134" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C135" s="30" t="s">
-        <v>415</v>
-      </c>
-      <c r="D135" s="29" t="s">
-        <v>465</v>
-      </c>
-      <c r="E135" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="F135" s="28"/>
-    </row>
-    <row r="136" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C136" s="30" t="s">
-        <v>416</v>
-      </c>
-      <c r="D136" s="29" t="s">
-        <v>466</v>
-      </c>
-      <c r="E136" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="F136" s="28"/>
-    </row>
-    <row r="137" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C137" s="30" t="s">
-        <v>417</v>
-      </c>
-      <c r="D137" s="29" t="s">
-        <v>466</v>
-      </c>
-      <c r="E137" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="F137" s="28"/>
-    </row>
-    <row r="138" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C138" s="30" t="s">
-        <v>418</v>
-      </c>
-      <c r="D138" s="29" t="s">
-        <v>466</v>
-      </c>
-      <c r="E138" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="F138" s="28"/>
+      <c r="F134" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B135" t="s">
+        <v>125</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D135" t="s">
+        <v>128</v>
+      </c>
+      <c r="E135" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B136" t="s">
+        <v>123</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D136" t="s">
+        <v>128</v>
+      </c>
+      <c r="E136" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B137" t="s">
+        <v>124</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D137" t="s">
+        <v>128</v>
+      </c>
+      <c r="E137" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B138" t="s">
+        <v>129</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D138" t="s">
+        <v>127</v>
+      </c>
+      <c r="E138" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="139" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="29" t="s">
         <v>414</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="C139" s="30" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D139" s="29" t="s">
         <v>465</v>
@@ -4766,13 +4802,13 @@
         <v>414</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="C140" s="30" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D140" s="29" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E140" s="29" t="s">
         <v>280</v>
@@ -4784,13 +4820,13 @@
         <v>414</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C141" s="30" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D141" s="29" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E141" s="29" t="s">
         <v>280</v>
@@ -4802,10 +4838,13 @@
         <v>414</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C142" s="30" t="s">
-        <v>422</v>
+        <v>418</v>
+      </c>
+      <c r="D142" s="29" t="s">
+        <v>466</v>
       </c>
       <c r="E142" s="29" t="s">
         <v>280</v>
@@ -4817,16 +4856,16 @@
         <v>414</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C143" s="30" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="D143" s="29" t="s">
-        <v>47</v>
+        <v>465</v>
       </c>
       <c r="E143" s="29" t="s">
-        <v>354</v>
+        <v>280</v>
       </c>
       <c r="F143" s="28"/>
     </row>
@@ -4835,13 +4874,13 @@
         <v>414</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="C144" s="30" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="D144" s="29" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E144" s="29" t="s">
         <v>280</v>
@@ -4853,13 +4892,13 @@
         <v>414</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C145" s="30" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="D145" s="29" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E145" s="29" t="s">
         <v>280</v>
@@ -4871,13 +4910,10 @@
         <v>414</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C146" s="30" t="s">
-        <v>442</v>
-      </c>
-      <c r="D146" s="29" t="s">
-        <v>468</v>
+        <v>422</v>
       </c>
       <c r="E146" s="29" t="s">
         <v>280</v>
@@ -4889,13 +4925,13 @@
         <v>414</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C147" s="30" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D147" s="29" t="s">
-        <v>466</v>
+        <v>47</v>
       </c>
       <c r="E147" s="29" t="s">
         <v>354</v>
@@ -4907,16 +4943,16 @@
         <v>414</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="C148" s="30" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D148" s="29" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E148" s="29" t="s">
-        <v>354</v>
+        <v>280</v>
       </c>
       <c r="F148" s="28"/>
     </row>
@@ -4925,16 +4961,16 @@
         <v>414</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C149" s="30" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D149" s="29" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E149" s="29" t="s">
-        <v>354</v>
+        <v>280</v>
       </c>
       <c r="F149" s="28"/>
     </row>
@@ -4943,16 +4979,16 @@
         <v>414</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C150" s="30" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D150" s="29" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E150" s="29" t="s">
-        <v>354</v>
+        <v>280</v>
       </c>
       <c r="F150" s="28"/>
     </row>
@@ -4961,16 +4997,16 @@
         <v>414</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C151" s="30" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="D151" s="29" t="s">
-        <v>47</v>
+        <v>466</v>
       </c>
       <c r="E151" s="29" t="s">
-        <v>280</v>
+        <v>354</v>
       </c>
       <c r="F151" s="28"/>
     </row>
@@ -4979,16 +5015,16 @@
         <v>414</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="C152" s="30" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="D152" s="29" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E152" s="29" t="s">
-        <v>280</v>
+        <v>354</v>
       </c>
       <c r="F152" s="28"/>
     </row>
@@ -4997,16 +5033,16 @@
         <v>414</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C153" s="30" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="D153" s="29" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E153" s="29" t="s">
-        <v>280</v>
+        <v>354</v>
       </c>
       <c r="F153" s="28"/>
     </row>
@@ -5015,16 +5051,16 @@
         <v>414</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C154" s="30" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="D154" s="29" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E154" s="29" t="s">
-        <v>280</v>
+        <v>354</v>
       </c>
       <c r="F154" s="28"/>
     </row>
@@ -5033,16 +5069,16 @@
         <v>414</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C155" s="30" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D155" s="29" t="s">
-        <v>466</v>
+        <v>47</v>
       </c>
       <c r="E155" s="29" t="s">
-        <v>354</v>
+        <v>280</v>
       </c>
       <c r="F155" s="28"/>
     </row>
@@ -5051,16 +5087,16 @@
         <v>414</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="C156" s="30" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D156" s="29" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E156" s="29" t="s">
-        <v>354</v>
+        <v>280</v>
       </c>
       <c r="F156" s="28"/>
     </row>
@@ -5069,16 +5105,16 @@
         <v>414</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C157" s="30" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D157" s="29" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E157" s="29" t="s">
-        <v>354</v>
+        <v>280</v>
       </c>
       <c r="F157" s="28"/>
     </row>
@@ -5087,16 +5123,16 @@
         <v>414</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C158" s="30" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D158" s="29" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E158" s="29" t="s">
-        <v>354</v>
+        <v>280</v>
       </c>
       <c r="F158" s="28"/>
     </row>
@@ -5105,16 +5141,16 @@
         <v>414</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C159" s="30" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D159" s="29" t="s">
-        <v>47</v>
+        <v>466</v>
       </c>
       <c r="E159" s="29" t="s">
-        <v>280</v>
+        <v>354</v>
       </c>
       <c r="F159" s="28"/>
     </row>
@@ -5123,66 +5159,82 @@
         <v>414</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="C160" s="30" t="s">
-        <v>432</v>
-      </c>
-      <c r="F160" s="28" t="s">
-        <v>469</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="D160" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="E160" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="F160" s="28"/>
     </row>
     <row r="161" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="29" t="s">
         <v>414</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C161" s="30" t="s">
-        <v>433</v>
-      </c>
-      <c r="F161" s="28" t="s">
-        <v>469</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="D161" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="E161" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="F161" s="28"/>
     </row>
     <row r="162" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="29" t="s">
         <v>414</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C162" s="30" t="s">
-        <v>434</v>
-      </c>
-      <c r="F162" s="28" t="s">
-        <v>469</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="D162" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="E162" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="F162" s="28"/>
     </row>
     <row r="163" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="29" t="s">
         <v>414</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C163" s="30" t="s">
-        <v>435</v>
-      </c>
-      <c r="F163" s="28" t="s">
-        <v>469</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="D163" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E163" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="F163" s="28"/>
     </row>
     <row r="164" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="29" t="s">
         <v>414</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="C164" s="30" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F164" s="28" t="s">
         <v>469</v>
@@ -5193,10 +5245,10 @@
         <v>414</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C165" s="30" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F165" s="28" t="s">
         <v>469</v>
@@ -5207,85 +5259,69 @@
         <v>414</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="C166" s="30" t="s">
-        <v>438</v>
-      </c>
-      <c r="D166" s="29" t="s">
-        <v>466</v>
-      </c>
-      <c r="E166" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="F166" s="28"/>
+        <v>434</v>
+      </c>
+      <c r="F166" s="28" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="167" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="29" t="s">
         <v>414</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="C167" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="D167" s="29" t="s">
-        <v>467</v>
-      </c>
-      <c r="E167" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="F167" s="28"/>
+        <v>435</v>
+      </c>
+      <c r="F167" s="28" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="168" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="29" t="s">
         <v>414</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="C168" s="30" t="s">
-        <v>448</v>
-      </c>
-      <c r="D168" s="29" t="s">
-        <v>467</v>
-      </c>
-      <c r="E168" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="F168" s="28"/>
+        <v>436</v>
+      </c>
+      <c r="F168" s="28" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="169" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="29" t="s">
         <v>414</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C169" s="30" t="s">
-        <v>449</v>
-      </c>
-      <c r="D169" s="29" t="s">
-        <v>467</v>
-      </c>
-      <c r="E169" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="F169" s="28"/>
+        <v>437</v>
+      </c>
+      <c r="F169" s="28" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="170" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="29" t="s">
         <v>414</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="C170" s="30" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="D170" s="29" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E170" s="29" t="s">
         <v>280</v>
@@ -5297,10 +5333,10 @@
         <v>414</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C171" s="30" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D171" s="29" t="s">
         <v>467</v>
@@ -5315,10 +5351,10 @@
         <v>414</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="C172" s="30" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D172" s="29" t="s">
         <v>467</v>
@@ -5333,13 +5369,13 @@
         <v>414</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C173" s="30" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D173" s="29" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E173" s="29" t="s">
         <v>280</v>
@@ -5351,10 +5387,10 @@
         <v>414</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C174" s="30" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D174" s="29" t="s">
         <v>467</v>
@@ -5369,10 +5405,10 @@
         <v>414</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C175" s="30" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D175" s="29" t="s">
         <v>467</v>
@@ -5387,10 +5423,10 @@
         <v>414</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="C176" s="30" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D176" s="29" t="s">
         <v>467</v>
@@ -5405,13 +5441,13 @@
         <v>414</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C177" s="30" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D177" s="29" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="E177" s="29" t="s">
         <v>280</v>
@@ -5423,10 +5459,10 @@
         <v>414</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C178" s="30" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D178" s="29" t="s">
         <v>467</v>
@@ -5441,10 +5477,10 @@
         <v>414</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C179" s="30" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D179" s="29" t="s">
         <v>467</v>
@@ -5459,10 +5495,10 @@
         <v>414</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C180" s="30" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D180" s="29" t="s">
         <v>467</v>
@@ -5477,13 +5513,13 @@
         <v>414</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C181" s="30" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D181" s="29" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E181" s="29" t="s">
         <v>280</v>
@@ -5495,10 +5531,10 @@
         <v>414</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C182" s="30" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D182" s="29" t="s">
         <v>467</v>
@@ -5510,81 +5546,85 @@
     </row>
     <row r="183" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="29" t="s">
-        <v>463</v>
-      </c>
-      <c r="B183" s="18" t="s">
-        <v>223</v>
+        <v>414</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="C183" s="30" t="s">
-        <v>476</v>
+        <v>459</v>
+      </c>
+      <c r="D183" s="29" t="s">
+        <v>467</v>
       </c>
       <c r="E183" s="29" t="s">
-        <v>369</v>
-      </c>
-      <c r="F183" s="28" t="s">
-        <v>481</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="F183" s="28"/>
     </row>
     <row r="184" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="29" t="s">
-        <v>463</v>
-      </c>
-      <c r="B184" s="18" t="s">
-        <v>224</v>
+        <v>414</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="C184" s="30" t="s">
-        <v>475</v>
+        <v>460</v>
+      </c>
+      <c r="D184" s="29" t="s">
+        <v>467</v>
       </c>
       <c r="E184" s="29" t="s">
-        <v>369</v>
-      </c>
-      <c r="F184" s="28" t="s">
-        <v>481</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="F184" s="28"/>
     </row>
     <row r="185" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="29" t="s">
-        <v>463</v>
-      </c>
-      <c r="B185" s="18" t="s">
-        <v>225</v>
+        <v>414</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="C185" s="30" t="s">
-        <v>478</v>
+        <v>461</v>
+      </c>
+      <c r="D185" s="29" t="s">
+        <v>470</v>
       </c>
       <c r="E185" s="29" t="s">
-        <v>369</v>
-      </c>
-      <c r="F185" s="28" t="s">
-        <v>481</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="F185" s="28"/>
     </row>
     <row r="186" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="29" t="s">
-        <v>463</v>
-      </c>
-      <c r="B186" s="18" t="s">
-        <v>226</v>
+        <v>414</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="C186" s="30" t="s">
-        <v>479</v>
+        <v>462</v>
+      </c>
+      <c r="D186" s="29" t="s">
+        <v>467</v>
       </c>
       <c r="E186" s="29" t="s">
-        <v>369</v>
-      </c>
-      <c r="F186" s="28" t="s">
-        <v>481</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="F186" s="28"/>
     </row>
     <row r="187" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="29" t="s">
         <v>463</v>
       </c>
       <c r="B187" s="18" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C187" s="30" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E187" s="29" t="s">
         <v>369</v>
@@ -5598,10 +5638,10 @@
         <v>463</v>
       </c>
       <c r="B188" s="18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C188" s="30" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="E188" s="29" t="s">
         <v>369</v>
@@ -5614,11 +5654,11 @@
       <c r="A189" s="29" t="s">
         <v>463</v>
       </c>
-      <c r="B189" s="31" t="s">
-        <v>229</v>
+      <c r="B189" s="18" t="s">
+        <v>225</v>
       </c>
       <c r="C189" s="30" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E189" s="29" t="s">
         <v>369</v>
@@ -5631,11 +5671,11 @@
       <c r="A190" s="29" t="s">
         <v>463</v>
       </c>
-      <c r="B190" s="31" t="s">
-        <v>230</v>
+      <c r="B190" s="18" t="s">
+        <v>226</v>
       </c>
       <c r="C190" s="30" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="E190" s="29" t="s">
         <v>369</v>
@@ -5648,11 +5688,11 @@
       <c r="A191" s="29" t="s">
         <v>463</v>
       </c>
-      <c r="B191" s="31" t="s">
-        <v>231</v>
+      <c r="B191" s="18" t="s">
+        <v>227</v>
       </c>
       <c r="C191" s="30" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="E191" s="29" t="s">
         <v>369</v>
@@ -5666,10 +5706,10 @@
         <v>463</v>
       </c>
       <c r="B192" s="18" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C192" s="30" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="E192" s="29" t="s">
         <v>369</v>
@@ -5680,70 +5720,70 @@
     </row>
     <row r="193" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="B193" t="s">
-        <v>237</v>
+        <v>463</v>
+      </c>
+      <c r="B193" s="31" t="s">
+        <v>229</v>
       </c>
       <c r="C193" s="30" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="E193" s="29" t="s">
-        <v>487</v>
+        <v>369</v>
       </c>
       <c r="F193" s="28" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="194" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="B194" t="s">
-        <v>238</v>
+        <v>463</v>
+      </c>
+      <c r="B194" s="31" t="s">
+        <v>230</v>
       </c>
       <c r="C194" s="30" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="E194" s="29" t="s">
-        <v>488</v>
+        <v>369</v>
       </c>
       <c r="F194" s="28" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="195" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="B195" t="s">
-        <v>239</v>
+        <v>463</v>
+      </c>
+      <c r="B195" s="31" t="s">
+        <v>231</v>
       </c>
       <c r="C195" s="30" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="E195" s="29" t="s">
-        <v>487</v>
+        <v>369</v>
       </c>
       <c r="F195" s="28" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="196" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="B196" t="s">
-        <v>240</v>
+        <v>463</v>
+      </c>
+      <c r="B196" s="18" t="s">
+        <v>232</v>
       </c>
       <c r="C196" s="30" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="E196" s="29" t="s">
-        <v>487</v>
+        <v>369</v>
       </c>
       <c r="F196" s="28" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="197" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -5751,10 +5791,10 @@
         <v>464</v>
       </c>
       <c r="B197" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C197" s="30" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E197" s="29" t="s">
         <v>487</v>
@@ -5764,20 +5804,72 @@
       </c>
     </row>
     <row r="198" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C198" s="30"/>
-      <c r="F198" s="28"/>
+      <c r="A198" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="B198" t="s">
+        <v>238</v>
+      </c>
+      <c r="C198" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="E198" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="F198" s="28" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="199" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C199" s="30"/>
-      <c r="F199" s="28"/>
+      <c r="A199" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="B199" t="s">
+        <v>239</v>
+      </c>
+      <c r="C199" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="E199" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="F199" s="28" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="200" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C200" s="30"/>
-      <c r="F200" s="28"/>
+      <c r="A200" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="B200" t="s">
+        <v>240</v>
+      </c>
+      <c r="C200" s="30" t="s">
+        <v>485</v>
+      </c>
+      <c r="E200" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="F200" s="28" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="201" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C201" s="30"/>
-      <c r="F201" s="28"/>
+      <c r="A201" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="B201" t="s">
+        <v>241</v>
+      </c>
+      <c r="C201" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="E201" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="F201" s="28" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="202" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C202" s="30"/>
@@ -7178,6 +7270,22 @@
     <row r="551" spans="3:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C551" s="30"/>
       <c r="F551" s="28"/>
+    </row>
+    <row r="552" spans="3:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C552" s="30"/>
+      <c r="F552" s="28"/>
+    </row>
+    <row r="553" spans="3:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C553" s="30"/>
+      <c r="F553" s="28"/>
+    </row>
+    <row r="554" spans="3:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C554" s="30"/>
+      <c r="F554" s="28"/>
+    </row>
+    <row r="555" spans="3:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C555" s="30"/>
+      <c r="F555" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
@@ -7193,18 +7301,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D53F616-D321-446A-A9B2-BC9A60BBDFCE}">
-  <dimension ref="A1:BN120"/>
+  <dimension ref="A1:BR120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AS2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AZ101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BL17" sqref="BL17"/>
+      <selection pane="bottomRight" activeCell="BN119" sqref="BN119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -7392,19 +7500,31 @@
         <v>273</v>
       </c>
       <c r="BK1" t="s">
+        <v>495</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>496</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>494</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>497</v>
+      </c>
+      <c r="BO1" t="s">
         <v>259</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BP1" t="s">
         <v>260</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BQ1" t="s">
         <v>322</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BR1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1901</v>
       </c>
@@ -7418,7 +7538,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1902</v>
       </c>
@@ -7432,7 +7552,7 @@
         <v>2.85714E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1903</v>
       </c>
@@ -7446,7 +7566,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1904</v>
       </c>
@@ -7460,7 +7580,7 @@
         <v>2.63158E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1905</v>
       </c>
@@ -7474,7 +7594,7 @@
         <v>2.2727299999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1906</v>
       </c>
@@ -7488,7 +7608,7 @@
         <v>2.0408200000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1907</v>
       </c>
@@ -7502,7 +7622,7 @@
         <v>1.85185E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1908</v>
       </c>
@@ -7516,7 +7636,7 @@
         <v>2.1739100000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1909</v>
       </c>
@@ -7530,7 +7650,7 @@
         <v>1.9230799999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1910</v>
       </c>
@@ -7544,7 +7664,7 @@
         <v>1.7857100000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1911</v>
       </c>
@@ -7558,7 +7678,7 @@
         <v>1.88679E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1912</v>
       </c>
@@ -7572,7 +7692,7 @@
         <v>3.1746000000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1913</v>
       </c>
@@ -7586,7 +7706,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1914</v>
       </c>
@@ -7600,7 +7720,7 @@
         <v>3.5714299999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1915</v>
       </c>
@@ -7614,7 +7734,7 @@
         <v>5.1724100000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1916</v>
       </c>
@@ -7628,7 +7748,7 @@
         <v>3.94737E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1917</v>
       </c>
@@ -7642,7 +7762,7 @@
         <v>3.0303E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1918</v>
       </c>
@@ -7656,7 +7776,7 @@
         <v>2.1897799999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1919</v>
       </c>
@@ -7670,7 +7790,7 @@
         <v>2.3622000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1920</v>
       </c>
@@ -7684,7 +7804,7 @@
         <v>2.1428599999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1921</v>
       </c>
@@ -7698,7 +7818,7 @@
         <v>2.5862099999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1922</v>
       </c>
@@ -7712,7 +7832,7 @@
         <v>2.20588E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1923</v>
       </c>
@@ -7726,7 +7846,7 @@
         <v>1.7340999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1924</v>
       </c>
@@ -7740,7 +7860,7 @@
         <v>1.79641E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1925</v>
       </c>
@@ -7754,7 +7874,7 @@
         <v>1.57068E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1926</v>
       </c>
@@ -7777,7 +7897,7 @@
         <v>1.6676E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1927</v>
       </c>
@@ -7800,7 +7920,7 @@
         <v>2.1102E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1928</v>
       </c>
@@ -7823,7 +7943,7 @@
         <v>2.5855000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1929</v>
       </c>
@@ -7923,14 +8043,23 @@
       <c r="BJ30">
         <v>0.61825779999999997</v>
       </c>
-      <c r="BK30">
+      <c r="BL30">
+        <v>0.61778849999999996</v>
+      </c>
+      <c r="BM30">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN30">
+        <v>0.25</v>
+      </c>
+      <c r="BO30">
         <v>0.79198769999999996</v>
       </c>
-      <c r="BL30">
+      <c r="BP30">
         <v>0.78353660000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1930</v>
       </c>
@@ -8030,14 +8159,23 @@
       <c r="BJ31">
         <v>0.63991929999999997</v>
       </c>
-      <c r="BK31">
+      <c r="BL31">
+        <v>0.63956639999999998</v>
+      </c>
+      <c r="BM31">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN31">
+        <v>0.25</v>
+      </c>
+      <c r="BO31">
         <v>0.8</v>
       </c>
-      <c r="BL31">
+      <c r="BP31">
         <v>0.79061979999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1931</v>
       </c>
@@ -8137,14 +8275,23 @@
       <c r="BJ32">
         <v>0.64722279999999999</v>
       </c>
-      <c r="BK32">
+      <c r="BL32">
+        <v>0.64677419999999997</v>
+      </c>
+      <c r="BM32">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN32">
+        <v>0.25</v>
+      </c>
+      <c r="BO32">
         <v>0.78320310000000004</v>
       </c>
-      <c r="BL32">
+      <c r="BP32">
         <v>0.77413120000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1932</v>
       </c>
@@ -8244,14 +8391,23 @@
       <c r="BJ33">
         <v>0.65940480000000001</v>
       </c>
-      <c r="BK33">
+      <c r="BL33">
+        <v>0.65894730000000001</v>
+      </c>
+      <c r="BM33">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN33">
+        <v>0.25</v>
+      </c>
+      <c r="BO33">
         <v>0.76155720000000005</v>
       </c>
-      <c r="BL33">
+      <c r="BP33">
         <v>0.75059949999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1933</v>
       </c>
@@ -8351,14 +8507,23 @@
       <c r="BJ34">
         <v>0.66577109999999995</v>
       </c>
-      <c r="BK34">
+      <c r="BL34">
+        <v>0.6666666</v>
+      </c>
+      <c r="BM34">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN34">
+        <v>0.25</v>
+      </c>
+      <c r="BO34">
         <v>0.7621483</v>
       </c>
-      <c r="BL34">
+      <c r="BP34">
         <v>0.75252520000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1934</v>
       </c>
@@ -8458,14 +8623,23 @@
       <c r="BJ35">
         <v>0.66321490000000005</v>
       </c>
-      <c r="BK35">
+      <c r="BL35">
+        <v>0.66410740000000001</v>
+      </c>
+      <c r="BM35">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN35">
+        <v>0.25</v>
+      </c>
+      <c r="BO35">
         <v>0.77404919999999999</v>
       </c>
-      <c r="BL35">
+      <c r="BP35">
         <v>0.7637969</v>
       </c>
     </row>
-    <row r="36" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1935</v>
       </c>
@@ -8565,14 +8739,23 @@
       <c r="BJ36">
         <v>0.67110099999999995</v>
       </c>
-      <c r="BK36">
+      <c r="BL36">
+        <v>0.67201429999999995</v>
+      </c>
+      <c r="BM36">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN36">
+        <v>0.25</v>
+      </c>
+      <c r="BO36">
         <v>0.79872889999999996</v>
       </c>
-      <c r="BL36">
+      <c r="BP36">
         <v>0.78870300000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1936</v>
       </c>
@@ -8672,14 +8855,23 @@
       <c r="BJ37">
         <v>0.66027179999999996</v>
       </c>
-      <c r="BK37">
+      <c r="BL37">
+        <v>0.66106869999999995</v>
+      </c>
+      <c r="BM37">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN37">
+        <v>0.25</v>
+      </c>
+      <c r="BO37">
         <v>0.80934569999999995</v>
       </c>
-      <c r="BL37">
+      <c r="BP37">
         <v>0.79889290000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1937</v>
       </c>
@@ -8779,14 +8971,23 @@
       <c r="BJ38">
         <v>0.67828330000000003</v>
       </c>
-      <c r="BK38">
+      <c r="BL38">
+        <v>0.67932490000000001</v>
+      </c>
+      <c r="BM38">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN38">
+        <v>0.25</v>
+      </c>
+      <c r="BO38">
         <v>0.84146339999999997</v>
       </c>
-      <c r="BL38">
+      <c r="BP38">
         <v>0.82989690000000005</v>
       </c>
     </row>
-    <row r="39" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1938</v>
       </c>
@@ -8886,14 +9087,23 @@
       <c r="BJ39">
         <v>0.67144939999999997</v>
       </c>
-      <c r="BK39">
+      <c r="BL39">
+        <v>0.67259259999999998</v>
+      </c>
+      <c r="BM39">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN39">
+        <v>0.25</v>
+      </c>
+      <c r="BO39">
         <v>0.82395640000000003</v>
       </c>
-      <c r="BL39">
+      <c r="BP39">
         <v>0.81071420000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1939</v>
       </c>
@@ -8993,14 +9203,23 @@
       <c r="BJ40">
         <v>0.66388029999999998</v>
       </c>
-      <c r="BK40">
+      <c r="BL40">
+        <v>0.66484270000000001</v>
+      </c>
+      <c r="BM40">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN40">
+        <v>0.25</v>
+      </c>
+      <c r="BO40">
         <v>0.8265306</v>
       </c>
-      <c r="BL40">
+      <c r="BP40">
         <v>0.81407030000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1940</v>
       </c>
@@ -9100,14 +9319,23 @@
       <c r="BJ41">
         <v>0.65301109999999996</v>
       </c>
-      <c r="BK41">
+      <c r="BL41">
+        <v>0.65384609999999999</v>
+      </c>
+      <c r="BM41">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN41">
+        <v>0.25</v>
+      </c>
+      <c r="BO41">
         <v>0.81452860000000005</v>
       </c>
-      <c r="BL41">
+      <c r="BP41">
         <v>0.80213089999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1941</v>
       </c>
@@ -9207,14 +9435,23 @@
       <c r="BJ42">
         <v>0.65705880000000005</v>
       </c>
-      <c r="BK42">
+      <c r="BL42">
+        <v>0.65674600000000005</v>
+      </c>
+      <c r="BM42">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN42">
+        <v>0.25</v>
+      </c>
+      <c r="BO42">
         <v>0.86649209999999999</v>
       </c>
-      <c r="BL42">
+      <c r="BP42">
         <v>0.85089970000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1942</v>
       </c>
@@ -9314,14 +9551,23 @@
       <c r="BJ43">
         <v>0.6757457</v>
       </c>
-      <c r="BK43">
+      <c r="BL43">
+        <v>0.67536459999999998</v>
+      </c>
+      <c r="BM43">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN43">
+        <v>0.25</v>
+      </c>
+      <c r="BO43">
         <v>0.95341279999999995</v>
       </c>
-      <c r="BL43">
+      <c r="BP43">
         <v>0.93617019999999995</v>
       </c>
     </row>
-    <row r="44" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1943</v>
       </c>
@@ -9421,14 +9667,23 @@
       <c r="BJ44">
         <v>0.6985285</v>
       </c>
-      <c r="BK44">
+      <c r="BL44">
+        <v>0.69740100000000005</v>
+      </c>
+      <c r="BM44">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN44">
+        <v>0.25</v>
+      </c>
+      <c r="BO44">
         <v>0.98427940000000003</v>
       </c>
-      <c r="BL44">
+      <c r="BP44">
         <v>0.96655230000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1944</v>
       </c>
@@ -9528,14 +9783,23 @@
       <c r="BJ45">
         <v>0.69046050000000003</v>
       </c>
-      <c r="BK45">
+      <c r="BL45">
+        <v>0.6875</v>
+      </c>
+      <c r="BM45">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN45">
+        <v>0.25</v>
+      </c>
+      <c r="BO45">
         <v>0.92969329999999994</v>
       </c>
-      <c r="BL45">
+      <c r="BP45">
         <v>0.91062270000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1945</v>
       </c>
@@ -9635,14 +9899,23 @@
       <c r="BJ46">
         <v>0.69868209999999997</v>
       </c>
-      <c r="BK46">
+      <c r="BL46">
+        <v>0.69701990000000003</v>
+      </c>
+      <c r="BM46">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN46">
+        <v>0.25</v>
+      </c>
+      <c r="BO46">
         <v>0.87952649999999999</v>
       </c>
-      <c r="BL46">
+      <c r="BP46">
         <v>0.86211599999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1946</v>
       </c>
@@ -9742,14 +10015,23 @@
       <c r="BJ47">
         <v>0.70506959999999996</v>
       </c>
-      <c r="BK47">
+      <c r="BL47">
+        <v>0.70442780000000005</v>
+      </c>
+      <c r="BM47">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN47">
+        <v>0.25</v>
+      </c>
+      <c r="BO47">
         <v>0.84541060000000001</v>
       </c>
-      <c r="BL47">
+      <c r="BP47">
         <v>0.82714379999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1947</v>
       </c>
@@ -9849,14 +10131,23 @@
       <c r="BJ48">
         <v>0.68144950000000004</v>
       </c>
-      <c r="BK48">
+      <c r="BL48">
+        <v>0.68212260000000002</v>
+      </c>
+      <c r="BM48">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN48">
+        <v>0.25</v>
+      </c>
+      <c r="BO48">
         <v>0.85918229999999995</v>
       </c>
-      <c r="BL48">
+      <c r="BP48">
         <v>0.84010149999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1948</v>
       </c>
@@ -10001,20 +10292,29 @@
       <c r="BJ49">
         <v>0.67781740000000001</v>
       </c>
-      <c r="BK49">
+      <c r="BL49">
+        <v>0.67778300000000002</v>
+      </c>
+      <c r="BM49">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN49">
+        <v>0.25</v>
+      </c>
+      <c r="BO49">
         <v>0.88636360000000003</v>
       </c>
-      <c r="BL49">
+      <c r="BP49">
         <v>0.8671875</v>
       </c>
-      <c r="BM49">
+      <c r="BQ49">
         <v>0.79912280000000002</v>
       </c>
-      <c r="BN49">
+      <c r="BR49">
         <v>0.78806229999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1949</v>
       </c>
@@ -10168,20 +10468,29 @@
       <c r="BJ50">
         <v>0.67399129999999996</v>
       </c>
-      <c r="BK50">
+      <c r="BL50">
+        <v>0.67398409999999997</v>
+      </c>
+      <c r="BM50">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN50">
+        <v>0.25</v>
+      </c>
+      <c r="BO50">
         <v>0.87934179999999995</v>
       </c>
-      <c r="BL50">
+      <c r="BP50">
         <v>0.85944010000000004</v>
       </c>
-      <c r="BM50">
+      <c r="BQ50">
         <v>0.79356570000000004</v>
       </c>
-      <c r="BN50">
+      <c r="BR50">
         <v>0.78306880000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1950</v>
       </c>
@@ -10344,20 +10653,29 @@
       <c r="BJ51">
         <v>0.66955439999999999</v>
       </c>
-      <c r="BK51">
+      <c r="BL51">
+        <v>0.66934470000000001</v>
+      </c>
+      <c r="BM51">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN51">
+        <v>0.25</v>
+      </c>
+      <c r="BO51">
         <v>0.89082729999999999</v>
       </c>
-      <c r="BL51">
+      <c r="BP51">
         <v>0.87025850000000005</v>
       </c>
-      <c r="BM51">
+      <c r="BQ51">
         <v>0.77169659999999995</v>
       </c>
-      <c r="BN51">
+      <c r="BR51">
         <v>0.76157410000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1951</v>
       </c>
@@ -10520,20 +10838,29 @@
       <c r="BJ52">
         <v>0.67118920000000004</v>
       </c>
-      <c r="BK52">
+      <c r="BL52">
+        <v>0.67112400000000005</v>
+      </c>
+      <c r="BM52">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN52">
+        <v>0.25</v>
+      </c>
+      <c r="BO52">
         <v>0.89321790000000001</v>
       </c>
-      <c r="BL52">
+      <c r="BP52">
         <v>0.87429380000000001</v>
       </c>
-      <c r="BM52">
+      <c r="BQ52">
         <v>0.78278689999999995</v>
       </c>
-      <c r="BN52">
+      <c r="BR52">
         <v>0.7727579</v>
       </c>
     </row>
-    <row r="53" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1952</v>
       </c>
@@ -10696,20 +11023,29 @@
       <c r="BJ53">
         <v>0.68544579999999999</v>
       </c>
-      <c r="BK53">
+      <c r="BL53">
+        <v>0.68564610000000004</v>
+      </c>
+      <c r="BM53">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN53">
+        <v>0.25</v>
+      </c>
+      <c r="BO53">
         <v>0.91575600000000001</v>
       </c>
-      <c r="BL53">
+      <c r="BP53">
         <v>0.89377779999999996</v>
       </c>
-      <c r="BM53">
+      <c r="BQ53">
         <v>0.80602879999999999</v>
       </c>
-      <c r="BN53">
+      <c r="BR53">
         <v>0.79303679999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1953</v>
       </c>
@@ -10872,20 +11208,29 @@
       <c r="BJ54">
         <v>0.68722079999999997</v>
       </c>
-      <c r="BK54">
+      <c r="BL54">
+        <v>0.6873203</v>
+      </c>
+      <c r="BM54">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN54">
+        <v>0.25</v>
+      </c>
+      <c r="BO54">
         <v>0.92202220000000001</v>
       </c>
-      <c r="BL54">
+      <c r="BP54">
         <v>0.8974145</v>
       </c>
-      <c r="BM54">
+      <c r="BQ54">
         <v>0.8225905</v>
       </c>
-      <c r="BN54">
+      <c r="BR54">
         <v>0.80722890000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1954</v>
       </c>
@@ -11048,20 +11393,29 @@
       <c r="BJ55">
         <v>0.68254510000000002</v>
       </c>
-      <c r="BK55">
+      <c r="BL55">
+        <v>0.68249919999999997</v>
+      </c>
+      <c r="BM55">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN55">
+        <v>0.25</v>
+      </c>
+      <c r="BO55">
         <v>0.9130064</v>
       </c>
-      <c r="BL55">
+      <c r="BP55">
         <v>0.88690970000000002</v>
       </c>
-      <c r="BM55">
+      <c r="BQ55">
         <v>0.81756340000000005</v>
       </c>
-      <c r="BN55">
+      <c r="BR55">
         <v>0.80121209999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1955</v>
       </c>
@@ -11233,20 +11587,29 @@
       <c r="BJ56">
         <v>0.67226960000000002</v>
       </c>
-      <c r="BK56">
+      <c r="BL56">
+        <v>0.67171570000000003</v>
+      </c>
+      <c r="BM56">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN56">
+        <v>0.25</v>
+      </c>
+      <c r="BO56">
         <v>0.89762560000000002</v>
       </c>
-      <c r="BL56">
+      <c r="BP56">
         <v>0.87084600000000001</v>
       </c>
-      <c r="BM56">
+      <c r="BQ56">
         <v>0.78930129999999998</v>
       </c>
-      <c r="BN56">
+      <c r="BR56">
         <v>0.7740899</v>
       </c>
     </row>
-    <row r="57" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1956</v>
       </c>
@@ -11418,20 +11781,29 @@
       <c r="BJ57">
         <v>0.68958580000000003</v>
       </c>
-      <c r="BK57">
+      <c r="BL57">
+        <v>0.68848379999999998</v>
+      </c>
+      <c r="BM57">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN57">
+        <v>0.25</v>
+      </c>
+      <c r="BO57">
         <v>0.92573340000000004</v>
       </c>
-      <c r="BL57">
+      <c r="BP57">
         <v>0.89226910000000004</v>
       </c>
-      <c r="BM57">
+      <c r="BQ57">
         <v>0.82395830000000003</v>
       </c>
-      <c r="BN57">
+      <c r="BR57">
         <v>0.8050891</v>
       </c>
     </row>
-    <row r="58" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1957</v>
       </c>
@@ -11603,20 +11975,29 @@
       <c r="BJ58">
         <v>0.68936699999999995</v>
       </c>
-      <c r="BK58">
+      <c r="BL58">
+        <v>0.68779469999999998</v>
+      </c>
+      <c r="BM58">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN58">
+        <v>0.25</v>
+      </c>
+      <c r="BO58">
         <v>0.92140350000000004</v>
       </c>
-      <c r="BL58">
+      <c r="BP58">
         <v>0.88566610000000001</v>
       </c>
-      <c r="BM58">
+      <c r="BQ58">
         <v>0.83542400000000006</v>
       </c>
-      <c r="BN58">
+      <c r="BR58">
         <v>0.81577659999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1958</v>
       </c>
@@ -11788,20 +12169,29 @@
       <c r="BJ59">
         <v>0.6890368</v>
       </c>
-      <c r="BK59">
+      <c r="BL59">
+        <v>0.68771110000000002</v>
+      </c>
+      <c r="BM59">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN59">
+        <v>0.25</v>
+      </c>
+      <c r="BO59">
         <v>0.91087399999999996</v>
       </c>
-      <c r="BL59">
+      <c r="BP59">
         <v>0.87359730000000002</v>
       </c>
-      <c r="BM59">
+      <c r="BQ59">
         <v>0.82578050000000003</v>
       </c>
-      <c r="BN59">
+      <c r="BR59">
         <v>0.80510559999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1959</v>
       </c>
@@ -11973,20 +12363,29 @@
       <c r="BJ60">
         <v>0.68095890000000003</v>
       </c>
-      <c r="BK60">
+      <c r="BL60">
+        <v>0.67966709999999997</v>
+      </c>
+      <c r="BM60">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN60">
+        <v>0.25</v>
+      </c>
+      <c r="BO60">
         <v>0.90990130000000002</v>
       </c>
-      <c r="BL60">
+      <c r="BP60">
         <v>0.87213909999999994</v>
       </c>
-      <c r="BM60">
+      <c r="BQ60">
         <v>0.80527020000000005</v>
       </c>
-      <c r="BN60">
+      <c r="BR60">
         <v>0.78562089999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1960</v>
       </c>
@@ -12158,20 +12557,29 @@
       <c r="BJ61">
         <v>0.69127680000000002</v>
       </c>
-      <c r="BK61">
+      <c r="BL61">
+        <v>0.69026339999999997</v>
+      </c>
+      <c r="BM61">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN61">
+        <v>0.25</v>
+      </c>
+      <c r="BO61">
         <v>0.9135839</v>
       </c>
-      <c r="BL61">
+      <c r="BP61">
         <v>0.87434699999999999</v>
       </c>
-      <c r="BM61">
+      <c r="BQ61">
         <v>0.82625649999999995</v>
       </c>
-      <c r="BN61">
+      <c r="BR61">
         <v>0.80498099999999995</v>
       </c>
     </row>
-    <row r="62" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1961</v>
       </c>
@@ -12343,20 +12751,29 @@
       <c r="BJ62">
         <v>0.69017229999999996</v>
       </c>
-      <c r="BK62">
+      <c r="BL62">
+        <v>0.68885929999999995</v>
+      </c>
+      <c r="BM62">
+        <v>0.58571229999999996</v>
+      </c>
+      <c r="BN62">
+        <v>0.25</v>
+      </c>
+      <c r="BO62">
         <v>0.91053090000000003</v>
       </c>
-      <c r="BL62">
+      <c r="BP62">
         <v>0.86776629999999999</v>
       </c>
-      <c r="BM62">
+      <c r="BQ62">
         <v>0.82012580000000002</v>
       </c>
-      <c r="BN62">
+      <c r="BR62">
         <v>0.79739090000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1962</v>
       </c>
@@ -12528,20 +12945,29 @@
       <c r="BJ63">
         <v>0.68593249999999995</v>
       </c>
-      <c r="BK63">
+      <c r="BL63">
+        <v>0.68325789999999997</v>
+      </c>
+      <c r="BM63">
+        <v>0.61080889999999999</v>
+      </c>
+      <c r="BN63">
+        <v>0.25</v>
+      </c>
+      <c r="BO63">
         <v>0.90443770000000001</v>
       </c>
-      <c r="BL63">
+      <c r="BP63">
         <v>0.86151440000000001</v>
       </c>
-      <c r="BM63">
+      <c r="BQ63">
         <v>0.81091469999999999</v>
       </c>
-      <c r="BN63">
+      <c r="BR63">
         <v>0.78937520000000005</v>
       </c>
     </row>
-    <row r="64" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1963</v>
       </c>
@@ -12713,20 +13139,29 @@
       <c r="BJ64">
         <v>0.68594929999999998</v>
       </c>
-      <c r="BK64">
+      <c r="BL64">
+        <v>0.6815795</v>
+      </c>
+      <c r="BM64">
+        <v>0.62605379999999999</v>
+      </c>
+      <c r="BN64">
+        <v>0.25</v>
+      </c>
+      <c r="BO64">
         <v>0.90262750000000003</v>
       </c>
-      <c r="BL64">
+      <c r="BP64">
         <v>0.85651429999999995</v>
       </c>
-      <c r="BM64">
+      <c r="BQ64">
         <v>0.80368099999999998</v>
       </c>
-      <c r="BN64">
+      <c r="BR64">
         <v>0.78140350000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1964</v>
       </c>
@@ -12898,20 +13333,29 @@
       <c r="BJ65">
         <v>0.68387100000000001</v>
       </c>
-      <c r="BK65">
+      <c r="BL65">
+        <v>0.67894549999999998</v>
+      </c>
+      <c r="BM65">
+        <v>0.63511390000000001</v>
+      </c>
+      <c r="BN65">
+        <v>0.25</v>
+      </c>
+      <c r="BO65">
         <v>0.90081460000000002</v>
       </c>
-      <c r="BL65">
+      <c r="BP65">
         <v>0.85454549999999996</v>
       </c>
-      <c r="BM65">
+      <c r="BQ65">
         <v>0.80457449999999997</v>
       </c>
-      <c r="BN65">
+      <c r="BR65">
         <v>0.78221059999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1965</v>
       </c>
@@ -13083,20 +13527,29 @@
       <c r="BJ66">
         <v>0.67823820000000001</v>
       </c>
-      <c r="BK66">
+      <c r="BL66">
+        <v>0.67353379999999996</v>
+      </c>
+      <c r="BM66">
+        <v>0.63124780000000003</v>
+      </c>
+      <c r="BN66">
+        <v>0.25</v>
+      </c>
+      <c r="BO66">
         <v>0.89512040000000004</v>
       </c>
-      <c r="BL66">
+      <c r="BP66">
         <v>0.84847220000000001</v>
       </c>
-      <c r="BM66">
+      <c r="BQ66">
         <v>0.80564170000000002</v>
       </c>
-      <c r="BN66">
+      <c r="BR66">
         <v>0.78212459999999995</v>
       </c>
     </row>
-    <row r="67" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1966</v>
       </c>
@@ -13277,20 +13730,29 @@
       <c r="BJ67">
         <v>0.67987799999999998</v>
       </c>
-      <c r="BK67">
+      <c r="BL67">
+        <v>0.67559029999999998</v>
+      </c>
+      <c r="BM67">
+        <v>0.61680780000000002</v>
+      </c>
+      <c r="BN67">
+        <v>0.25</v>
+      </c>
+      <c r="BO67">
         <v>0.893397</v>
       </c>
-      <c r="BL67">
+      <c r="BP67">
         <v>0.84611029999999998</v>
       </c>
-      <c r="BM67">
+      <c r="BQ67">
         <v>0.81774380000000002</v>
       </c>
-      <c r="BN67">
+      <c r="BR67">
         <v>0.79236470000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1967</v>
       </c>
@@ -13471,20 +13933,29 @@
       <c r="BJ68">
         <v>0.68839570000000005</v>
       </c>
-      <c r="BK68">
+      <c r="BL68">
+        <v>0.6852511</v>
+      </c>
+      <c r="BM68">
+        <v>0.60633239999999999</v>
+      </c>
+      <c r="BN68">
+        <v>0.25</v>
+      </c>
+      <c r="BO68">
         <v>0.8973738</v>
       </c>
-      <c r="BL68">
+      <c r="BP68">
         <v>0.84973540000000003</v>
       </c>
-      <c r="BM68">
+      <c r="BQ68">
         <v>0.82437850000000001</v>
       </c>
-      <c r="BN68">
+      <c r="BR68">
         <v>0.79772379999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1968</v>
       </c>
@@ -13665,20 +14136,29 @@
       <c r="BJ69">
         <v>0.69313899999999995</v>
       </c>
-      <c r="BK69">
+      <c r="BL69">
+        <v>0.69051649999999998</v>
+      </c>
+      <c r="BM69">
+        <v>0.6165408</v>
+      </c>
+      <c r="BN69">
+        <v>0.25</v>
+      </c>
+      <c r="BO69">
         <v>0.90180090000000002</v>
       </c>
-      <c r="BL69">
+      <c r="BP69">
         <v>0.85461279999999995</v>
       </c>
-      <c r="BM69">
+      <c r="BQ69">
         <v>0.82793870000000003</v>
       </c>
-      <c r="BN69">
+      <c r="BR69">
         <v>0.80084750000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1969</v>
       </c>
@@ -13859,20 +14339,29 @@
       <c r="BJ70">
         <v>0.70307030000000004</v>
       </c>
-      <c r="BK70">
+      <c r="BL70">
+        <v>0.70210209999999995</v>
+      </c>
+      <c r="BM70">
+        <v>0.60299380000000002</v>
+      </c>
+      <c r="BN70">
+        <v>0.25</v>
+      </c>
+      <c r="BO70">
         <v>0.91585709999999998</v>
       </c>
-      <c r="BL70">
+      <c r="BP70">
         <v>0.86849929999999997</v>
       </c>
-      <c r="BM70">
+      <c r="BQ70">
         <v>0.84793350000000001</v>
       </c>
-      <c r="BN70">
+      <c r="BR70">
         <v>0.81976119999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1970</v>
       </c>
@@ -14053,20 +14542,29 @@
       <c r="BJ71">
         <v>0.70891610000000005</v>
       </c>
-      <c r="BK71">
+      <c r="BL71">
+        <v>0.70982800000000001</v>
+      </c>
+      <c r="BM71">
+        <v>0.59417580000000003</v>
+      </c>
+      <c r="BN71">
+        <v>0.25</v>
+      </c>
+      <c r="BO71">
         <v>0.91245779999999999</v>
       </c>
-      <c r="BL71">
+      <c r="BP71">
         <v>0.86750170000000004</v>
       </c>
-      <c r="BM71">
+      <c r="BQ71">
         <v>0.8650293</v>
       </c>
-      <c r="BN71">
+      <c r="BR71">
         <v>0.8359588</v>
       </c>
     </row>
-    <row r="72" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1971</v>
       </c>
@@ -14247,20 +14745,29 @@
       <c r="BJ72">
         <v>0.69743560000000004</v>
       </c>
-      <c r="BK72">
+      <c r="BL72">
+        <v>0.69823599999999997</v>
+      </c>
+      <c r="BM72">
+        <v>0.60255049999999999</v>
+      </c>
+      <c r="BN72">
+        <v>0.25</v>
+      </c>
+      <c r="BO72">
         <v>0.89816309999999999</v>
       </c>
-      <c r="BL72">
+      <c r="BP72">
         <v>0.85574570000000005</v>
       </c>
-      <c r="BM72">
+      <c r="BQ72">
         <v>0.8442442</v>
       </c>
-      <c r="BN72">
+      <c r="BR72">
         <v>0.81708970000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1972</v>
       </c>
@@ -14441,20 +14948,29 @@
       <c r="BJ73">
         <v>0.69743849999999996</v>
       </c>
-      <c r="BK73">
+      <c r="BL73">
+        <v>0.69853849999999995</v>
+      </c>
+      <c r="BM73">
+        <v>0.59840890000000002</v>
+      </c>
+      <c r="BN73">
+        <v>0.25</v>
+      </c>
+      <c r="BO73">
         <v>0.90856009999999998</v>
       </c>
-      <c r="BL73">
+      <c r="BP73">
         <v>0.8657511</v>
       </c>
-      <c r="BM73">
+      <c r="BQ73">
         <v>0.84527890000000006</v>
       </c>
-      <c r="BN73">
+      <c r="BR73">
         <v>0.81795949999999995</v>
       </c>
     </row>
-    <row r="74" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1973</v>
       </c>
@@ -14635,20 +15151,29 @@
       <c r="BJ74">
         <v>0.69816210000000001</v>
       </c>
-      <c r="BK74">
+      <c r="BL74">
+        <v>0.69957820000000004</v>
+      </c>
+      <c r="BM74">
+        <v>0.59960040000000003</v>
+      </c>
+      <c r="BN74">
+        <v>0.25</v>
+      </c>
+      <c r="BO74">
         <v>0.91737219999999997</v>
       </c>
-      <c r="BL74">
+      <c r="BP74">
         <v>0.875</v>
       </c>
-      <c r="BM74">
+      <c r="BQ74">
         <v>0.85656140000000003</v>
       </c>
-      <c r="BN74">
+      <c r="BR74">
         <v>0.82902620000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1974</v>
       </c>
@@ -14829,20 +15354,29 @@
       <c r="BJ75">
         <v>0.69855900000000004</v>
       </c>
-      <c r="BK75">
+      <c r="BL75">
+        <v>0.70046560000000002</v>
+      </c>
+      <c r="BM75">
+        <v>0.60533650000000006</v>
+      </c>
+      <c r="BN75">
+        <v>0.25</v>
+      </c>
+      <c r="BO75">
         <v>0.90934230000000005</v>
       </c>
-      <c r="BL75">
+      <c r="BP75">
         <v>0.86765709999999996</v>
       </c>
-      <c r="BM75">
+      <c r="BQ75">
         <v>0.87377020000000005</v>
       </c>
-      <c r="BN75">
+      <c r="BR75">
         <v>0.84425269999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1975</v>
       </c>
@@ -15023,20 +15557,29 @@
       <c r="BJ76">
         <v>0.68071760000000003</v>
       </c>
-      <c r="BK76">
+      <c r="BL76">
+        <v>0.68256830000000002</v>
+      </c>
+      <c r="BM76">
+        <v>0.59298839999999997</v>
+      </c>
+      <c r="BN76">
+        <v>0.25</v>
+      </c>
+      <c r="BO76">
         <v>0.86907049999999997</v>
       </c>
-      <c r="BL76">
+      <c r="BP76">
         <v>0.83022169999999995</v>
       </c>
-      <c r="BM76">
+      <c r="BQ76">
         <v>0.8363836</v>
       </c>
-      <c r="BN76">
+      <c r="BR76">
         <v>0.8084597</v>
       </c>
     </row>
-    <row r="77" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1976</v>
       </c>
@@ -15217,20 +15760,29 @@
       <c r="BJ77">
         <v>0.67597839999999998</v>
       </c>
-      <c r="BK77">
+      <c r="BL77">
+        <v>0.67759029999999998</v>
+      </c>
+      <c r="BM77">
+        <v>0.59043509999999999</v>
+      </c>
+      <c r="BN77">
+        <v>0.25</v>
+      </c>
+      <c r="BO77">
         <v>0.86765440000000005</v>
       </c>
-      <c r="BL77">
+      <c r="BP77">
         <v>0.82817189999999996</v>
       </c>
-      <c r="BM77">
+      <c r="BQ77">
         <v>0.82914390000000004</v>
       </c>
-      <c r="BN77">
+      <c r="BR77">
         <v>0.80093840000000005</v>
       </c>
     </row>
-    <row r="78" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1977</v>
       </c>
@@ -15417,20 +15969,29 @@
       <c r="BJ78">
         <v>0.67389339999999998</v>
       </c>
-      <c r="BK78">
+      <c r="BL78">
+        <v>0.67563019999999996</v>
+      </c>
+      <c r="BM78">
+        <v>0.58015050000000001</v>
+      </c>
+      <c r="BN78">
+        <v>0.25</v>
+      </c>
+      <c r="BO78">
         <v>0.88258000000000003</v>
       </c>
-      <c r="BL78">
+      <c r="BP78">
         <v>0.84203680000000003</v>
       </c>
-      <c r="BM78">
+      <c r="BQ78">
         <v>0.83157320000000001</v>
       </c>
-      <c r="BN78">
+      <c r="BR78">
         <v>0.80343569999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1978</v>
       </c>
@@ -15617,20 +16178,29 @@
       <c r="BJ79">
         <v>0.67068680000000003</v>
       </c>
-      <c r="BK79">
+      <c r="BL79">
+        <v>0.67255730000000002</v>
+      </c>
+      <c r="BM79">
+        <v>0.56744110000000003</v>
+      </c>
+      <c r="BN79">
+        <v>0.25</v>
+      </c>
+      <c r="BO79">
         <v>0.89541680000000001</v>
       </c>
-      <c r="BL79">
+      <c r="BP79">
         <v>0.85406660000000001</v>
       </c>
-      <c r="BM79">
+      <c r="BQ79">
         <v>0.84241100000000002</v>
       </c>
-      <c r="BN79">
+      <c r="BR79">
         <v>0.81434090000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1979</v>
       </c>
@@ -15817,20 +16387,29 @@
       <c r="BJ80">
         <v>0.66915049999999998</v>
       </c>
-      <c r="BK80">
+      <c r="BL80">
+        <v>0.67142400000000002</v>
+      </c>
+      <c r="BM80">
+        <v>0.55473170000000005</v>
+      </c>
+      <c r="BN80">
+        <v>0.25</v>
+      </c>
+      <c r="BO80">
         <v>0.90117130000000001</v>
       </c>
-      <c r="BL80">
+      <c r="BP80">
         <v>0.85778989999999999</v>
       </c>
-      <c r="BM80">
+      <c r="BQ80">
         <v>0.86961040000000001</v>
       </c>
-      <c r="BN80">
+      <c r="BR80">
         <v>0.83846730000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1980</v>
       </c>
@@ -16017,20 +16596,29 @@
       <c r="BJ81">
         <v>0.67121520000000001</v>
       </c>
-      <c r="BK81">
+      <c r="BL81">
+        <v>0.6734194</v>
+      </c>
+      <c r="BM81">
+        <v>0.5615386</v>
+      </c>
+      <c r="BN81">
+        <v>0.25</v>
+      </c>
+      <c r="BO81">
         <v>0.88698120000000003</v>
       </c>
-      <c r="BL81">
+      <c r="BP81">
         <v>0.84375319999999998</v>
       </c>
-      <c r="BM81">
+      <c r="BQ81">
         <v>0.88160000000000005</v>
       </c>
-      <c r="BN81">
+      <c r="BR81">
         <v>0.84867159999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1981</v>
       </c>
@@ -16217,20 +16805,29 @@
       <c r="BJ82">
         <v>0.66162849999999995</v>
       </c>
-      <c r="BK82">
+      <c r="BL82">
+        <v>0.66334839999999995</v>
+      </c>
+      <c r="BM82">
+        <v>0.56834549999999995</v>
+      </c>
+      <c r="BN82">
+        <v>0.25</v>
+      </c>
+      <c r="BO82">
         <v>0.87001899999999999</v>
       </c>
-      <c r="BL82">
+      <c r="BP82">
         <v>0.82615110000000003</v>
       </c>
-      <c r="BM82">
+      <c r="BQ82">
         <v>0.86610379999999998</v>
       </c>
-      <c r="BN82">
+      <c r="BR82">
         <v>0.83198150000000004</v>
       </c>
     </row>
-    <row r="83" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1982</v>
       </c>
@@ -16417,20 +17014,29 @@
       <c r="BJ83">
         <v>0.6655664</v>
       </c>
-      <c r="BK83">
+      <c r="BL83">
+        <v>0.66810190000000003</v>
+      </c>
+      <c r="BM83">
+        <v>0.55875870000000005</v>
+      </c>
+      <c r="BN83">
+        <v>0.25</v>
+      </c>
+      <c r="BO83">
         <v>0.85971209999999998</v>
       </c>
-      <c r="BL83">
+      <c r="BP83">
         <v>0.81454389999999999</v>
       </c>
-      <c r="BM83">
+      <c r="BQ83">
         <v>0.8630118</v>
       </c>
-      <c r="BN83">
+      <c r="BR83">
         <v>0.82632360000000005</v>
       </c>
     </row>
-    <row r="84" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1983</v>
       </c>
@@ -16617,20 +17223,29 @@
       <c r="BJ84">
         <v>0.65112049999999999</v>
       </c>
-      <c r="BK84">
+      <c r="BL84">
+        <v>0.65345149999999996</v>
+      </c>
+      <c r="BM84">
+        <v>0.54917179999999999</v>
+      </c>
+      <c r="BN84">
+        <v>0.25</v>
+      </c>
+      <c r="BO84">
         <v>0.8385068</v>
       </c>
-      <c r="BL84">
+      <c r="BP84">
         <v>0.79347869999999998</v>
       </c>
-      <c r="BM84">
+      <c r="BQ84">
         <v>0.83860170000000001</v>
       </c>
-      <c r="BN84">
+      <c r="BR84">
         <v>0.80206290000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1984</v>
       </c>
@@ -16817,20 +17432,29 @@
       <c r="BJ85">
         <v>0.64992899999999998</v>
       </c>
-      <c r="BK85">
+      <c r="BL85">
+        <v>0.6524645</v>
+      </c>
+      <c r="BM85">
+        <v>0.54333589999999998</v>
+      </c>
+      <c r="BN85">
+        <v>0.25</v>
+      </c>
+      <c r="BO85">
         <v>0.85213810000000001</v>
       </c>
-      <c r="BL85">
+      <c r="BP85">
         <v>0.80361930000000004</v>
       </c>
-      <c r="BM85">
+      <c r="BQ85">
         <v>0.83911899999999995</v>
       </c>
-      <c r="BN85">
+      <c r="BR85">
         <v>0.80058660000000004</v>
       </c>
     </row>
-    <row r="86" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1985</v>
       </c>
@@ -17017,20 +17641,29 @@
       <c r="BJ86">
         <v>0.65122630000000004</v>
       </c>
-      <c r="BK86">
+      <c r="BL86">
+        <v>0.65369659999999996</v>
+      </c>
+      <c r="BM86">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="BN86">
+        <v>0.25</v>
+      </c>
+      <c r="BO86">
         <v>0.85569379999999995</v>
       </c>
-      <c r="BL86">
+      <c r="BP86">
         <v>0.80488870000000001</v>
       </c>
-      <c r="BM86">
+      <c r="BQ86">
         <v>0.84721860000000004</v>
       </c>
-      <c r="BN86">
+      <c r="BR86">
         <v>0.80690099999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1986</v>
       </c>
@@ -17217,20 +17850,29 @@
       <c r="BJ87">
         <v>0.65606799999999998</v>
       </c>
-      <c r="BK87">
+      <c r="BL87">
+        <v>0.65973729999999997</v>
+      </c>
+      <c r="BM87">
+        <v>0.5220996</v>
+      </c>
+      <c r="BN87">
+        <v>0.25</v>
+      </c>
+      <c r="BO87">
         <v>0.85974700000000004</v>
       </c>
-      <c r="BL87">
+      <c r="BP87">
         <v>0.80827320000000002</v>
       </c>
-      <c r="BM87">
+      <c r="BQ87">
         <v>0.85848069999999999</v>
       </c>
-      <c r="BN87">
+      <c r="BR87">
         <v>0.8169708</v>
       </c>
     </row>
-    <row r="88" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1987</v>
       </c>
@@ -17417,20 +18059,29 @@
       <c r="BJ88">
         <v>0.66438940000000002</v>
       </c>
-      <c r="BK88">
+      <c r="BL88">
+        <v>0.66915740000000001</v>
+      </c>
+      <c r="BM88">
+        <v>0.50669909999999996</v>
+      </c>
+      <c r="BN88">
+        <v>0.25</v>
+      </c>
+      <c r="BO88">
         <v>0.86700630000000001</v>
       </c>
-      <c r="BL88">
+      <c r="BP88">
         <v>0.81465069999999995</v>
       </c>
-      <c r="BM88">
+      <c r="BQ88">
         <v>0.84798969999999996</v>
       </c>
-      <c r="BN88">
+      <c r="BR88">
         <v>0.80833010000000005</v>
       </c>
     </row>
-    <row r="89" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1988</v>
       </c>
@@ -17617,20 +18268,29 @@
       <c r="BJ89">
         <v>0.66920659999999998</v>
       </c>
-      <c r="BK89">
+      <c r="BL89">
+        <v>0.67548059999999999</v>
+      </c>
+      <c r="BM89">
+        <v>0.49371100000000001</v>
+      </c>
+      <c r="BN89">
+        <v>0.25</v>
+      </c>
+      <c r="BO89">
         <v>0.86764580000000002</v>
       </c>
-      <c r="BL89">
+      <c r="BP89">
         <v>0.81537820000000005</v>
       </c>
-      <c r="BM89">
+      <c r="BQ89">
         <v>0.84342879999999998</v>
       </c>
-      <c r="BN89">
+      <c r="BR89">
         <v>0.80449190000000004</v>
       </c>
     </row>
-    <row r="90" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1989</v>
       </c>
@@ -17817,20 +18477,29 @@
       <c r="BJ90">
         <v>0.66016719999999995</v>
       </c>
-      <c r="BK90">
+      <c r="BL90">
+        <v>0.66734680000000002</v>
+      </c>
+      <c r="BM90">
+        <v>0.48072290000000001</v>
+      </c>
+      <c r="BN90">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="BO90">
         <v>0.84916020000000003</v>
       </c>
-      <c r="BL90">
+      <c r="BP90">
         <v>0.79782470000000005</v>
       </c>
-      <c r="BM90">
+      <c r="BQ90">
         <v>0.8513638</v>
       </c>
-      <c r="BN90">
+      <c r="BR90">
         <v>0.80910930000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1990</v>
       </c>
@@ -18018,19 +18687,31 @@
         <v>0.66507559999999999</v>
       </c>
       <c r="BK91">
+        <v>0.5</v>
+      </c>
+      <c r="BL91">
+        <v>0.67231560000000001</v>
+      </c>
+      <c r="BM91">
+        <v>0.49278860000000002</v>
+      </c>
+      <c r="BN91">
+        <v>0.314</v>
+      </c>
+      <c r="BO91">
         <v>0.84562800000000005</v>
       </c>
-      <c r="BL91">
+      <c r="BP91">
         <v>0.79425539999999994</v>
       </c>
-      <c r="BM91">
+      <c r="BQ91">
         <v>0.86560289999999995</v>
       </c>
-      <c r="BN91">
+      <c r="BR91">
         <v>0.82035749999999996</v>
       </c>
     </row>
-    <row r="92" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1991</v>
       </c>
@@ -18218,19 +18899,31 @@
         <v>0.66744749999999997</v>
       </c>
       <c r="BK92">
+        <v>0.5</v>
+      </c>
+      <c r="BL92">
+        <v>0.67499359999999997</v>
+      </c>
+      <c r="BM92">
+        <v>0.50485440000000004</v>
+      </c>
+      <c r="BN92">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="BO92">
         <v>0.83226800000000001</v>
       </c>
-      <c r="BL92">
+      <c r="BP92">
         <v>0.7812924</v>
       </c>
-      <c r="BM92">
+      <c r="BQ92">
         <v>0.8569601</v>
       </c>
-      <c r="BN92">
+      <c r="BR92">
         <v>0.80979809999999997</v>
       </c>
     </row>
-    <row r="93" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1992</v>
       </c>
@@ -18418,19 +19111,31 @@
         <v>0.67222479999999996</v>
       </c>
       <c r="BK93">
+        <v>0.5</v>
+      </c>
+      <c r="BL93">
+        <v>0.68010230000000005</v>
+      </c>
+      <c r="BM93">
+        <v>0.50541760000000002</v>
+      </c>
+      <c r="BN93">
+        <v>0.378</v>
+      </c>
+      <c r="BO93">
         <v>0.83580940000000004</v>
       </c>
-      <c r="BL93">
+      <c r="BP93">
         <v>0.78580150000000004</v>
       </c>
-      <c r="BM93">
+      <c r="BQ93">
         <v>0.86144920000000003</v>
       </c>
-      <c r="BN93">
+      <c r="BR93">
         <v>0.81462659999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1993</v>
       </c>
@@ -18618,19 +19323,31 @@
         <v>0.66449389999999997</v>
       </c>
       <c r="BK94">
+        <v>0.5</v>
+      </c>
+      <c r="BL94">
+        <v>0.67214269999999998</v>
+      </c>
+      <c r="BM94">
+        <v>0.50598080000000001</v>
+      </c>
+      <c r="BN94">
+        <v>0.41</v>
+      </c>
+      <c r="BO94">
         <v>0.83085929999999997</v>
       </c>
-      <c r="BL94">
+      <c r="BP94">
         <v>0.78180099999999997</v>
       </c>
-      <c r="BM94">
+      <c r="BQ94">
         <v>0.86275250000000003</v>
       </c>
-      <c r="BN94">
+      <c r="BR94">
         <v>0.81506559999999995</v>
       </c>
     </row>
-    <row r="95" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1994</v>
       </c>
@@ -18818,19 +19535,31 @@
         <v>0.65881049999999997</v>
       </c>
       <c r="BK95">
+        <v>0.5</v>
+      </c>
+      <c r="BL95">
+        <v>0.66520550000000001</v>
+      </c>
+      <c r="BM95">
+        <v>0.52435019999999999</v>
+      </c>
+      <c r="BN95">
+        <v>0.442</v>
+      </c>
+      <c r="BO95">
         <v>0.82769300000000001</v>
       </c>
-      <c r="BL95">
+      <c r="BP95">
         <v>0.77973479999999995</v>
       </c>
-      <c r="BM95">
+      <c r="BQ95">
         <v>0.85031939999999995</v>
       </c>
-      <c r="BN95">
+      <c r="BR95">
         <v>0.80416500000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1995</v>
       </c>
@@ -19018,19 +19747,31 @@
         <v>0.65892919999999999</v>
       </c>
       <c r="BK96">
+        <v>0.5</v>
+      </c>
+      <c r="BL96">
+        <v>0.66474009999999994</v>
+      </c>
+      <c r="BM96">
+        <v>0.54271959999999997</v>
+      </c>
+      <c r="BN96">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="BO96">
         <v>0.83213079999999995</v>
       </c>
-      <c r="BL96">
+      <c r="BP96">
         <v>0.78236640000000002</v>
       </c>
-      <c r="BM96">
+      <c r="BQ96">
         <v>0.84901179999999998</v>
       </c>
-      <c r="BN96">
+      <c r="BR96">
         <v>0.80066059999999994</v>
       </c>
     </row>
-    <row r="97" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1996</v>
       </c>
@@ -19218,19 +19959,31 @@
         <v>0.6602382</v>
       </c>
       <c r="BK97">
+        <v>0.5</v>
+      </c>
+      <c r="BL97">
+        <v>0.66549650000000005</v>
+      </c>
+      <c r="BM97">
+        <v>0.55620829999999999</v>
+      </c>
+      <c r="BN97">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="BO97">
         <v>0.84021000000000001</v>
       </c>
-      <c r="BL97">
+      <c r="BP97">
         <v>0.78793009999999997</v>
       </c>
-      <c r="BM97">
+      <c r="BQ97">
         <v>0.84611420000000004</v>
       </c>
-      <c r="BN97">
+      <c r="BR97">
         <v>0.79537369999999996</v>
       </c>
     </row>
-    <row r="98" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1997</v>
       </c>
@@ -19418,19 +20171,31 @@
         <v>0.66464500000000004</v>
       </c>
       <c r="BK98">
+        <v>0.5</v>
+      </c>
+      <c r="BL98">
+        <v>0.66956749999999998</v>
+      </c>
+      <c r="BM98">
+        <v>0.56969700000000001</v>
+      </c>
+      <c r="BN98">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="BO98">
         <v>0.84527980000000003</v>
       </c>
-      <c r="BL98">
+      <c r="BP98">
         <v>0.79046510000000003</v>
       </c>
-      <c r="BM98">
+      <c r="BQ98">
         <v>0.843584</v>
       </c>
-      <c r="BN98">
+      <c r="BR98">
         <v>0.79041530000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1998</v>
       </c>
@@ -19618,19 +20383,31 @@
         <v>0.67957420000000002</v>
       </c>
       <c r="BK99">
+        <v>0.5</v>
+      </c>
+      <c r="BL99">
+        <v>0.68482109999999996</v>
+      </c>
+      <c r="BM99">
+        <v>0.5776173</v>
+      </c>
+      <c r="BN99">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="BO99">
         <v>0.87259750000000003</v>
       </c>
-      <c r="BL99">
+      <c r="BP99">
         <v>0.81373260000000003</v>
       </c>
-      <c r="BM99">
+      <c r="BQ99">
         <v>0.86054120000000001</v>
       </c>
-      <c r="BN99">
+      <c r="BR99">
         <v>0.80475739999999996</v>
       </c>
     </row>
-    <row r="100" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1999</v>
       </c>
@@ -19818,19 +20595,31 @@
         <v>0.68012419999999996</v>
       </c>
       <c r="BK100">
+        <v>0.5</v>
+      </c>
+      <c r="BL100">
+        <v>0.68904480000000001</v>
+      </c>
+      <c r="BM100">
+        <v>0.52214459999999996</v>
+      </c>
+      <c r="BN100">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="BO100">
         <v>0.88224820000000004</v>
       </c>
-      <c r="BL100">
+      <c r="BP100">
         <v>0.81916460000000002</v>
       </c>
-      <c r="BM100">
+      <c r="BQ100">
         <v>0.87227140000000003</v>
       </c>
-      <c r="BN100">
+      <c r="BR100">
         <v>0.81109109999999995</v>
       </c>
     </row>
-    <row r="101" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2000</v>
       </c>
@@ -20018,19 +20807,31 @@
         <v>0.69104259999999995</v>
       </c>
       <c r="BK101">
+        <v>0.5</v>
+      </c>
+      <c r="BL101">
+        <v>0.70292200000000005</v>
+      </c>
+      <c r="BM101">
+        <v>0.49127910000000002</v>
+      </c>
+      <c r="BN101">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="BO101">
         <v>0.9021226</v>
       </c>
-      <c r="BL101">
+      <c r="BP101">
         <v>0.83459629999999996</v>
       </c>
-      <c r="BM101">
+      <c r="BQ101">
         <v>0.88910820000000002</v>
       </c>
-      <c r="BN101">
+      <c r="BR101">
         <v>0.82362250000000004</v>
       </c>
     </row>
-    <row r="102" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2001</v>
       </c>
@@ -20218,19 +21019,31 @@
         <v>0.69735879999999995</v>
       </c>
       <c r="BK102">
+        <v>0.5</v>
+      </c>
+      <c r="BL102">
+        <v>0.70552709999999996</v>
+      </c>
+      <c r="BM102">
+        <v>0.55006239999999995</v>
+      </c>
+      <c r="BN102">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="BO102">
         <v>0.8987425</v>
       </c>
-      <c r="BL102">
+      <c r="BP102">
         <v>0.83248560000000005</v>
       </c>
-      <c r="BM102">
+      <c r="BQ102">
         <v>0.88197939999999997</v>
       </c>
-      <c r="BN102">
+      <c r="BR102">
         <v>0.81712510000000005</v>
       </c>
     </row>
-    <row r="103" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2002</v>
       </c>
@@ -20418,19 +21231,31 @@
         <v>0.69055829999999996</v>
       </c>
       <c r="BK103">
+        <v>0.5</v>
+      </c>
+      <c r="BL103">
+        <v>0.69463030000000003</v>
+      </c>
+      <c r="BM103">
+        <v>0.59954750000000001</v>
+      </c>
+      <c r="BN103">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="BO103">
         <v>0.87411669999999997</v>
       </c>
-      <c r="BL103">
+      <c r="BP103">
         <v>0.81239320000000004</v>
       </c>
-      <c r="BM103">
+      <c r="BQ103">
         <v>0.83952159999999998</v>
       </c>
-      <c r="BN103">
+      <c r="BR103">
         <v>0.78178130000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2003</v>
       </c>
@@ -20618,19 +21443,31 @@
         <v>0.68231750000000002</v>
       </c>
       <c r="BK104">
+        <v>0.5</v>
+      </c>
+      <c r="BL104">
+        <v>0.68518159999999995</v>
+      </c>
+      <c r="BM104">
+        <v>0.60585580000000006</v>
+      </c>
+      <c r="BN104">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="BO104">
         <v>0.8638922</v>
       </c>
-      <c r="BL104">
+      <c r="BP104">
         <v>0.80334030000000001</v>
       </c>
-      <c r="BM104">
+      <c r="BQ104">
         <v>0.82272579999999995</v>
       </c>
-      <c r="BN104">
+      <c r="BR104">
         <v>0.76654149999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2004</v>
       </c>
@@ -20817,20 +21654,29 @@
       <c r="BJ105">
         <v>0.6794618</v>
       </c>
-      <c r="BK105">
+      <c r="BL105">
+        <v>0.68060609999999999</v>
+      </c>
+      <c r="BM105">
+        <v>0.63026170000000004</v>
+      </c>
+      <c r="BN105">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="BO105">
         <v>0.86705370000000004</v>
       </c>
-      <c r="BL105">
+      <c r="BP105">
         <v>0.80651200000000001</v>
       </c>
-      <c r="BM105">
+      <c r="BQ105">
         <v>0.81187889999999996</v>
       </c>
-      <c r="BN105">
+      <c r="BR105">
         <v>0.75727330000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2005</v>
       </c>
@@ -21017,20 +21863,29 @@
       <c r="BJ106">
         <v>0.66835239999999996</v>
       </c>
-      <c r="BK106">
+      <c r="BL106">
+        <v>0.66801540000000004</v>
+      </c>
+      <c r="BM106">
+        <v>0.64530889999999996</v>
+      </c>
+      <c r="BN106">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="BO106">
         <v>0.86065749999999996</v>
       </c>
-      <c r="BL106">
+      <c r="BP106">
         <v>0.79973289999999997</v>
       </c>
-      <c r="BM106">
+      <c r="BQ106">
         <v>0.79759449999999998</v>
       </c>
-      <c r="BN106">
+      <c r="BR106">
         <v>0.74321269999999995</v>
       </c>
     </row>
-    <row r="107" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2006</v>
       </c>
@@ -21217,20 +22072,29 @@
       <c r="BJ107">
         <v>0.66932440000000004</v>
       </c>
-      <c r="BK107">
+      <c r="BL107">
+        <v>0.66899509999999995</v>
+      </c>
+      <c r="BM107">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="BN107">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="BO107">
         <v>0.86364010000000002</v>
       </c>
-      <c r="BL107">
+      <c r="BP107">
         <v>0.80202229999999997</v>
       </c>
-      <c r="BM107">
+      <c r="BQ107">
         <v>0.78935650000000002</v>
       </c>
-      <c r="BN107">
+      <c r="BR107">
         <v>0.73520540000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2007</v>
       </c>
@@ -21417,20 +22281,29 @@
       <c r="BJ108">
         <v>0.66822550000000003</v>
       </c>
-      <c r="BK108">
+      <c r="BL108">
+        <v>0.66822429999999999</v>
+      </c>
+      <c r="BM108">
+        <v>0.64326159999999999</v>
+      </c>
+      <c r="BN108">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="BO108">
         <v>0.85010030000000003</v>
       </c>
-      <c r="BL108">
+      <c r="BP108">
         <v>0.78949270000000005</v>
       </c>
-      <c r="BM108">
+      <c r="BQ108">
         <v>0.82051370000000001</v>
       </c>
-      <c r="BN108">
+      <c r="BR108">
         <v>0.76061860000000003</v>
       </c>
     </row>
-    <row r="109" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2008</v>
       </c>
@@ -21617,20 +22490,29 @@
       <c r="BJ109">
         <v>0.66963479999999997</v>
       </c>
-      <c r="BK109">
+      <c r="BL109">
+        <v>0.66956979999999999</v>
+      </c>
+      <c r="BM109">
+        <v>0.6473951</v>
+      </c>
+      <c r="BN109">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="BO109">
         <v>0.83590980000000004</v>
       </c>
-      <c r="BL109">
+      <c r="BP109">
         <v>0.77573340000000002</v>
       </c>
-      <c r="BM109">
+      <c r="BQ109">
         <v>0.84582590000000002</v>
       </c>
-      <c r="BN109">
+      <c r="BR109">
         <v>0.78007610000000005</v>
       </c>
     </row>
-    <row r="110" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2009</v>
       </c>
@@ -21817,20 +22699,29 @@
       <c r="BJ110">
         <v>0.65776310000000004</v>
       </c>
-      <c r="BK110">
+      <c r="BL110">
+        <v>0.65598789999999996</v>
+      </c>
+      <c r="BM110">
+        <v>0.66373720000000003</v>
+      </c>
+      <c r="BN110">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="BO110">
         <v>0.78790490000000002</v>
       </c>
-      <c r="BL110">
+      <c r="BP110">
         <v>0.73283960000000004</v>
       </c>
-      <c r="BM110">
+      <c r="BQ110">
         <v>0.78896900000000003</v>
       </c>
-      <c r="BN110">
+      <c r="BR110">
         <v>0.72902330000000004</v>
       </c>
     </row>
-    <row r="111" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2010</v>
       </c>
@@ -22017,20 +22908,29 @@
       <c r="BJ111">
         <v>0.6558657</v>
       </c>
-      <c r="BK111">
+      <c r="BL111">
+        <v>0.65271179999999995</v>
+      </c>
+      <c r="BM111">
+        <v>0.6845118</v>
+      </c>
+      <c r="BN111">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="BO111">
         <v>0.78227349999999996</v>
       </c>
-      <c r="BL111">
+      <c r="BP111">
         <v>0.72769600000000001</v>
       </c>
-      <c r="BM111">
+      <c r="BQ111">
         <v>0.7625227</v>
       </c>
-      <c r="BN111">
+      <c r="BR111">
         <v>0.70612269999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2011</v>
       </c>
@@ -22217,20 +23117,29 @@
       <c r="BJ112">
         <v>0.66156150000000002</v>
       </c>
-      <c r="BK112">
+      <c r="BL112">
+        <v>0.65891549999999999</v>
+      </c>
+      <c r="BM112">
+        <v>0.68427320000000003</v>
+      </c>
+      <c r="BN112">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="BO112">
         <v>0.79423580000000005</v>
       </c>
-      <c r="BL112">
+      <c r="BP112">
         <v>0.73677090000000001</v>
       </c>
-      <c r="BM112">
+      <c r="BQ112">
         <v>0.77337140000000004</v>
       </c>
-      <c r="BN112">
+      <c r="BR112">
         <v>0.71392350000000004</v>
       </c>
     </row>
-    <row r="113" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2012</v>
       </c>
@@ -22417,20 +23326,29 @@
       <c r="BJ113">
         <v>0.66320679999999999</v>
       </c>
-      <c r="BK113">
+      <c r="BL113">
+        <v>0.66159780000000001</v>
+      </c>
+      <c r="BM113">
+        <v>0.67314240000000003</v>
+      </c>
+      <c r="BN113">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="BO113">
         <v>0.80650540000000004</v>
       </c>
-      <c r="BL113">
+      <c r="BP113">
         <v>0.74727619999999995</v>
       </c>
-      <c r="BM113">
+      <c r="BQ113">
         <v>0.76907210000000004</v>
       </c>
-      <c r="BN113">
+      <c r="BR113">
         <v>0.71037729999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2013</v>
       </c>
@@ -22617,20 +23535,29 @@
       <c r="BJ114">
         <v>0.66138050000000004</v>
       </c>
-      <c r="BK114">
+      <c r="BL114">
+        <v>0.65986940000000005</v>
+      </c>
+      <c r="BM114">
+        <v>0.67226180000000002</v>
+      </c>
+      <c r="BN114">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="BO114">
         <v>0.80651110000000004</v>
       </c>
-      <c r="BL114">
+      <c r="BP114">
         <v>0.74649750000000004</v>
       </c>
-      <c r="BM114">
+      <c r="BQ114">
         <v>0.77403869999999997</v>
       </c>
-      <c r="BN114">
+      <c r="BR114">
         <v>0.71353920000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2014</v>
       </c>
@@ -22817,20 +23744,29 @@
       <c r="BJ115">
         <v>0.66209770000000001</v>
       </c>
-      <c r="BK115">
+      <c r="BL115">
+        <v>0.66122139999999996</v>
+      </c>
+      <c r="BM115">
+        <v>0.66925009999999996</v>
+      </c>
+      <c r="BN115">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="BO115">
         <v>0.81429600000000002</v>
       </c>
-      <c r="BL115">
+      <c r="BP115">
         <v>0.75342940000000003</v>
       </c>
-      <c r="BM115">
+      <c r="BQ115">
         <v>0.77329389999999998</v>
       </c>
-      <c r="BN115">
+      <c r="BR115">
         <v>0.71270579999999994</v>
       </c>
     </row>
-    <row r="116" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2015</v>
       </c>
@@ -23011,20 +23947,29 @@
       <c r="BJ116">
         <v>0.66309510000000005</v>
       </c>
-      <c r="BK116">
+      <c r="BL116">
+        <v>0.66252679999999997</v>
+      </c>
+      <c r="BM116">
+        <v>0.66493310000000005</v>
+      </c>
+      <c r="BN116">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="BO116">
         <v>0.81421520000000003</v>
       </c>
-      <c r="BL116">
+      <c r="BP116">
         <v>0.75380860000000005</v>
       </c>
-      <c r="BM116">
+      <c r="BQ116">
         <v>0.77324899999999996</v>
       </c>
-      <c r="BN116">
+      <c r="BR116">
         <v>0.7131729</v>
       </c>
     </row>
-    <row r="117" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2016</v>
       </c>
@@ -23202,20 +24147,26 @@
       <c r="BI117">
         <v>0.65236000000000005</v>
       </c>
-      <c r="BK117">
+      <c r="BL117">
+        <v>0.66201189999999999</v>
+      </c>
+      <c r="BN117">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="BO117">
         <v>0.81012300000000004</v>
       </c>
-      <c r="BL117">
+      <c r="BP117">
         <v>0.74876520000000002</v>
       </c>
-      <c r="BM117">
+      <c r="BQ117">
         <v>0.77638799999999997</v>
       </c>
-      <c r="BN117">
+      <c r="BR117">
         <v>0.71366689999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2017</v>
       </c>
@@ -23393,20 +24344,26 @@
       <c r="BI118">
         <v>0.65512519999999996</v>
       </c>
-      <c r="BK118">
+      <c r="BL118">
+        <v>0.66504419999999997</v>
+      </c>
+      <c r="BN118">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="BO118">
         <v>0.81726259999999995</v>
       </c>
-      <c r="BL118">
+      <c r="BP118">
         <v>0.75475360000000002</v>
       </c>
-      <c r="BM118">
+      <c r="BQ118">
         <v>0.79367569999999998</v>
       </c>
-      <c r="BN118">
+      <c r="BR118">
         <v>0.72793629999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2018</v>
       </c>
@@ -23572,20 +24529,26 @@
       <c r="BI119">
         <v>0.65281029999999995</v>
       </c>
-      <c r="BK119">
+      <c r="BL119">
+        <v>0.66285559999999999</v>
+      </c>
+      <c r="BN119">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="BO119">
         <v>0.81630899999999995</v>
       </c>
-      <c r="BL119">
+      <c r="BP119">
         <v>0.75224230000000003</v>
       </c>
-      <c r="BM119">
+      <c r="BQ119">
         <v>0.8039134</v>
       </c>
-      <c r="BN119">
+      <c r="BR119">
         <v>0.73429500000000003</v>
       </c>
     </row>
-    <row r="120" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:70" x14ac:dyDescent="0.25">
       <c r="AR120">
         <v>0.60468449999999996</v>
       </c>
@@ -49091,80 +50054,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="34" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="35" t="s">
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="38" t="s">
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="37" t="s">
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="36" t="s">
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="36"/>
-      <c r="AW1" s="36"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="33"/>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="G2" s="33"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="17" t="s">
         <v>177</v>
       </c>
@@ -49174,15 +50137,15 @@
       <c r="J2" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="O2" s="33"/>
+      <c r="O2" s="32"/>
       <c r="P2" s="17" t="s">
         <v>177</v>
       </c>
@@ -49192,15 +50155,15 @@
       <c r="R2" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="S2" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33" t="s">
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="W2" s="33"/>
+      <c r="W2" s="32"/>
       <c r="X2" s="17" t="s">
         <v>177</v>
       </c>
@@ -49210,15 +50173,15 @@
       <c r="Z2" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="AA2" s="33" t="s">
+      <c r="AA2" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33" t="s">
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="AE2" s="33"/>
+      <c r="AE2" s="32"/>
       <c r="AF2" s="17" t="s">
         <v>177</v>
       </c>
@@ -49228,15 +50191,15 @@
       <c r="AH2" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="AI2" s="33" t="s">
+      <c r="AI2" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33" t="s">
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="AM2" s="33"/>
+      <c r="AM2" s="32"/>
       <c r="AN2" s="17" t="s">
         <v>177</v>
       </c>
@@ -49246,15 +50209,15 @@
       <c r="AP2" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="AQ2" s="33" t="s">
+      <c r="AQ2" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33" t="s">
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="32"/>
+      <c r="AT2" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="AU2" s="33"/>
+      <c r="AU2" s="32"/>
       <c r="AV2" s="17" t="s">
         <v>177</v>
       </c>
@@ -63379,6 +64342,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="V2:W2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="AT2:AU2"/>
@@ -63388,15 +64360,6 @@
     <mergeCell ref="AI2:AK2"/>
     <mergeCell ref="Z1:AG1"/>
     <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="R1:Y1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="V2:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
